--- a/data/final_data/unrolled_population_sarimax_timeseries.xlsx
+++ b/data/final_data/unrolled_population_sarimax_timeseries.xlsx
@@ -973,13 +973,13 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>146860.9238604901</v>
+        <v>146173.1250880209</v>
       </c>
       <c r="E22">
-        <v>146326.1722339484</v>
+        <v>145677.4486665448</v>
       </c>
       <c r="F22">
-        <v>147395.6754870319</v>
+        <v>146668.8015094971</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -993,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>146383.7053245305</v>
+        <v>146249.211118413</v>
       </c>
       <c r="E23">
-        <v>145611.4142253457</v>
+        <v>145532.7720138242</v>
       </c>
       <c r="F23">
-        <v>147155.9964237154</v>
+        <v>146965.6502230018</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>146722.2270654734</v>
+        <v>145707.1399006801</v>
       </c>
       <c r="E24">
-        <v>145763.6149613524</v>
+        <v>144815.7526145143</v>
       </c>
       <c r="F24">
-        <v>147680.8391695943</v>
+        <v>146598.5271868459</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>146108.2488271378</v>
+        <v>145745.2909738279</v>
       </c>
       <c r="E25">
-        <v>144977.9709734443</v>
+        <v>144709.5880186932</v>
       </c>
       <c r="F25">
-        <v>147238.5266808314</v>
+        <v>146780.9939289626</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>146542.8496618608</v>
+        <v>145322.0561945647</v>
       </c>
       <c r="E26">
-        <v>145251.6063314274</v>
+        <v>144161.7235351365</v>
       </c>
       <c r="F26">
-        <v>147834.0929922941</v>
+        <v>146482.388853993</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>145918.2880841189</v>
+        <v>145102.2814945323</v>
       </c>
       <c r="E27">
-        <v>144474.7566112844</v>
+        <v>143824.9580391602</v>
       </c>
       <c r="F27">
-        <v>147361.8195569535</v>
+        <v>146379.6049499044</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1093,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>146296.6163750954</v>
+        <v>144929.8761283837</v>
       </c>
       <c r="E28">
-        <v>144708.2436917256</v>
+        <v>143551.2789372694</v>
       </c>
       <c r="F28">
-        <v>147884.9890584651</v>
+        <v>146308.4733194981</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1113,13 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>145678.0687447341</v>
+        <v>144421.2005789809</v>
       </c>
       <c r="E29">
-        <v>143951.449244792</v>
+        <v>142942.1676032479</v>
       </c>
       <c r="F29">
-        <v>147404.6882446762</v>
+        <v>145900.233554714</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>146132.2800984989</v>
+        <v>144428.2268270753</v>
       </c>
       <c r="E30">
-        <v>144273.358161109</v>
+        <v>142860.4426372816</v>
       </c>
       <c r="F30">
-        <v>147991.2020358889</v>
+        <v>145996.0110168689</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1553,13 +1553,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>110741.3714592522</v>
+        <v>110496.0191906109</v>
       </c>
       <c r="E51">
-        <v>110480.062483417</v>
+        <v>110376.1155192962</v>
       </c>
       <c r="F51">
-        <v>111002.6804350875</v>
+        <v>110615.9228619255</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1573,13 +1573,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>110524.725014023</v>
+        <v>110251.0764561266</v>
       </c>
       <c r="E52">
-        <v>110083.7718956063</v>
+        <v>109955.4919120871</v>
       </c>
       <c r="F52">
-        <v>110965.6781324396</v>
+        <v>110546.661000166</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1593,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>110243.9039361478</v>
+        <v>110015.3795281315</v>
       </c>
       <c r="E53">
-        <v>109626.205288727</v>
+        <v>109561.7154874517</v>
       </c>
       <c r="F53">
-        <v>110861.6025835686</v>
+        <v>110469.0435688113</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>110159.710896976</v>
+        <v>109834.5837282071</v>
       </c>
       <c r="E54">
-        <v>109369.6847801724</v>
+        <v>109214.9440962025</v>
       </c>
       <c r="F54">
-        <v>110949.7370137796</v>
+        <v>110454.2233602117</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>109966.1231329167</v>
+        <v>109659.2937237537</v>
       </c>
       <c r="E55">
-        <v>108990.7993759014</v>
+        <v>108860.5816065667</v>
       </c>
       <c r="F55">
-        <v>110941.446889932</v>
+        <v>110458.0058409408</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>109867.3001824867</v>
+        <v>109588.842926043</v>
       </c>
       <c r="E56">
-        <v>108712.8076601648</v>
+        <v>108606.4730334665</v>
       </c>
       <c r="F56">
-        <v>111021.7927048085</v>
+        <v>110571.2128186196</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>109791.6071460366</v>
+        <v>109506.3054810429</v>
       </c>
       <c r="E57">
-        <v>108457.7990614158</v>
+        <v>108350.4529179879</v>
       </c>
       <c r="F57">
-        <v>111125.4152306575</v>
+        <v>110662.158044098</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>109684.6858930018</v>
+        <v>109456.0745785075</v>
       </c>
       <c r="E58">
-        <v>108179.5960355849</v>
+        <v>108137.9004205329</v>
       </c>
       <c r="F58">
-        <v>111189.7757504187</v>
+        <v>110774.2487364822</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>109645.535434625</v>
+        <v>109430.3057258502</v>
       </c>
       <c r="E59">
-        <v>107971.1796664603</v>
+        <v>107953.1328972652</v>
       </c>
       <c r="F59">
-        <v>111319.8912027896</v>
+        <v>110907.4785544351</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2133,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="D80">
-        <v>109004.041572947</v>
+        <v>109003.0908916607</v>
       </c>
       <c r="E80">
-        <v>108632.4639317415</v>
+        <v>108596.8706273342</v>
       </c>
       <c r="F80">
-        <v>109375.6192141526</v>
+        <v>109409.3111559872</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2153,13 +2153,13 @@
         <v>7</v>
       </c>
       <c r="D81">
-        <v>108613.8071067752</v>
+        <v>108612.6923283402</v>
       </c>
       <c r="E81">
-        <v>108076.1373305534</v>
+        <v>108025.7431840015</v>
       </c>
       <c r="F81">
-        <v>109151.476882997</v>
+        <v>109199.6414726789</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2173,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="D82">
-        <v>108308.9797239099</v>
+        <v>108307.9655982245</v>
       </c>
       <c r="E82">
-        <v>107628.3667143394</v>
+        <v>107566.8661781432</v>
       </c>
       <c r="F82">
-        <v>108989.5927334804</v>
+        <v>109049.0650183057</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2193,13 +2193,13 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>108100.3001141599</v>
+        <v>108104.6573048416</v>
       </c>
       <c r="E83">
-        <v>107281.5506412415</v>
+        <v>107216.145582534</v>
       </c>
       <c r="F83">
-        <v>108919.0495870782</v>
+        <v>108993.1690271492</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2213,13 +2213,13 @@
         <v>7</v>
       </c>
       <c r="D84">
-        <v>107991.7250634702</v>
+        <v>108004.4079960344</v>
       </c>
       <c r="E84">
-        <v>107032.7405552371</v>
+        <v>106967.786633934</v>
       </c>
       <c r="F84">
-        <v>108950.7095717032</v>
+        <v>109041.0293581347</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2233,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>107983.2704038874</v>
+        <v>108008.7689504131</v>
       </c>
       <c r="E85">
-        <v>106879.1295305269</v>
+        <v>106820.2855157674</v>
       </c>
       <c r="F85">
-        <v>109087.4112772478</v>
+        <v>109197.2523850588</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>108070.2388336095</v>
+        <v>108111.6868101614</v>
       </c>
       <c r="E86">
-        <v>106815.3297487652</v>
+        <v>106766.7796262088</v>
       </c>
       <c r="F86">
-        <v>109325.1479184539</v>
+        <v>109456.593994114</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>108242.7721588288</v>
+        <v>108303.7658182123</v>
       </c>
       <c r="E87">
-        <v>106832.1132769283</v>
+        <v>106798.4235284141</v>
       </c>
       <c r="F87">
-        <v>109653.4310407293</v>
+        <v>109809.1081080104</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>108488.3885644176</v>
+        <v>108571.382218804</v>
       </c>
       <c r="E88">
-        <v>106918.4813522968</v>
+        <v>106903.0008405737</v>
       </c>
       <c r="F88">
-        <v>110058.2957765383</v>
+        <v>110239.7635970342</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2713,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <v>95863.53314925665</v>
+        <v>96414.30104251034</v>
       </c>
       <c r="E109">
-        <v>95476.08577432627</v>
+        <v>96033.37928855851</v>
       </c>
       <c r="F109">
-        <v>96250.98052418702</v>
+        <v>96795.22279646217</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2733,13 +2733,13 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>95831.09406685243</v>
+        <v>96528.06992280338</v>
       </c>
       <c r="E110">
-        <v>95213.8887057384</v>
+        <v>95975.60956922898</v>
       </c>
       <c r="F110">
-        <v>96448.29942796646</v>
+        <v>97080.53027637777</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2753,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>95693.25491508623</v>
+        <v>96506.15870654557</v>
       </c>
       <c r="E111">
-        <v>94934.35112344392</v>
+        <v>95843.93196575544</v>
       </c>
       <c r="F111">
-        <v>96452.15870672854</v>
+        <v>97168.38544733569</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2773,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="D112">
-        <v>95665.43977180264</v>
+        <v>96809.86008102109</v>
       </c>
       <c r="E112">
-        <v>94756.92760385269</v>
+        <v>96025.96393416158</v>
       </c>
       <c r="F112">
-        <v>96573.9519397526</v>
+        <v>97593.7562278806</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2793,13 +2793,13 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <v>95377.29457861721</v>
+        <v>96782.9131127991</v>
       </c>
       <c r="E113">
-        <v>94356.18438879575</v>
+        <v>95889.39947662044</v>
       </c>
       <c r="F113">
-        <v>96398.40476843866</v>
+        <v>97676.42674897776</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2813,13 +2813,13 @@
         <v>8</v>
       </c>
       <c r="D114">
-        <v>95277.79052654034</v>
+        <v>96892.99718360974</v>
       </c>
       <c r="E114">
-        <v>94106.09399346223</v>
+        <v>95870.12021413136</v>
       </c>
       <c r="F114">
-        <v>96449.48705961845</v>
+        <v>97915.87415308812</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2833,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="D115">
-        <v>95118.46132843911</v>
+        <v>96818.67661821237</v>
       </c>
       <c r="E115">
-        <v>93817.81885592172</v>
+        <v>95670.0092324755</v>
       </c>
       <c r="F115">
-        <v>96419.10380095649</v>
+        <v>97967.34400394924</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2853,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>94986.91251835306</v>
+        <v>96841.11381900735</v>
       </c>
       <c r="E116">
-        <v>93562.16368640251</v>
+        <v>95554.15396954378</v>
       </c>
       <c r="F116">
-        <v>96411.66135030361</v>
+        <v>98128.07366847093</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2873,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>94915.13351202133</v>
+        <v>96916.40088022313</v>
       </c>
       <c r="E117">
-        <v>93376.02343350646</v>
+        <v>95498.62113577331</v>
       </c>
       <c r="F117">
-        <v>96454.24359053621</v>
+        <v>98334.18062467294</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3293,13 +3293,13 @@
         <v>9</v>
       </c>
       <c r="D138">
-        <v>131365.6154893825</v>
+        <v>131044.0462278381</v>
       </c>
       <c r="E138">
-        <v>130587.5973460168</v>
+        <v>130445.6898478596</v>
       </c>
       <c r="F138">
-        <v>132143.6336327482</v>
+        <v>131642.4026078167</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3313,13 +3313,13 @@
         <v>9</v>
       </c>
       <c r="D139">
-        <v>130783.8169328959</v>
+        <v>130156.3597955076</v>
       </c>
       <c r="E139">
-        <v>129681.3524972492</v>
+        <v>129295.8232983966</v>
       </c>
       <c r="F139">
-        <v>131886.2813685427</v>
+        <v>131016.8962926185</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3333,13 +3333,13 @@
         <v>9</v>
       </c>
       <c r="D140">
-        <v>130446.0645387907</v>
+        <v>129229.2648713522</v>
       </c>
       <c r="E140">
-        <v>129082.5349132369</v>
+        <v>128164.7753184161</v>
       </c>
       <c r="F140">
-        <v>131809.5941643446</v>
+        <v>130293.7544242883</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3353,13 +3353,13 @@
         <v>9</v>
       </c>
       <c r="D141">
-        <v>130371.1316396573</v>
+        <v>128262.5728064476</v>
       </c>
       <c r="E141">
-        <v>128777.9684189485</v>
+        <v>127028.3040036586</v>
       </c>
       <c r="F141">
-        <v>131964.294860366</v>
+        <v>129496.8416092365</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3373,13 +3373,13 @@
         <v>9</v>
       </c>
       <c r="D142">
-        <v>130350.253622847</v>
+        <v>127256.7211273958</v>
       </c>
       <c r="E142">
-        <v>128547.5218644581</v>
+        <v>125873.1621029599</v>
       </c>
       <c r="F142">
-        <v>132152.985381236</v>
+        <v>128640.2801518316</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3393,13 +3393,13 @@
         <v>9</v>
       </c>
       <c r="D143">
-        <v>130482.3760675268</v>
+        <v>126211.3100144067</v>
       </c>
       <c r="E143">
-        <v>128485.0576035273</v>
+        <v>124693.110749501</v>
       </c>
       <c r="F143">
-        <v>132479.6945315263</v>
+        <v>127729.5092793125</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3413,13 +3413,13 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>130281.8468555576</v>
+        <v>125126.5327521393</v>
       </c>
       <c r="E144">
-        <v>128102.5483411015</v>
+        <v>123484.6891006529</v>
       </c>
       <c r="F144">
-        <v>132461.1453700137</v>
+        <v>126768.3764036257</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3433,13 +3433,13 @@
         <v>9</v>
       </c>
       <c r="D145">
-        <v>129951.6624324804</v>
+        <v>124002.6256636484</v>
       </c>
       <c r="E145">
-        <v>127601.9150697974</v>
+        <v>122245.8201278729</v>
       </c>
       <c r="F145">
-        <v>132301.4097951634</v>
+        <v>125759.4311994239</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3453,13 +3453,13 @@
         <v>9</v>
       </c>
       <c r="D146">
-        <v>129589.1811789791</v>
+        <v>122839.6006406866</v>
       </c>
       <c r="E146">
-        <v>127080.0543379504</v>
+        <v>120974.9070236615</v>
       </c>
       <c r="F146">
-        <v>132098.3080200079</v>
+        <v>124704.2942577117</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3873,13 +3873,13 @@
         <v>10</v>
       </c>
       <c r="D167">
-        <v>140693.2863762371</v>
+        <v>140927.5304628357</v>
       </c>
       <c r="E167">
-        <v>140328.9838470173</v>
+        <v>140710.9224977036</v>
       </c>
       <c r="F167">
-        <v>141057.5889054569</v>
+        <v>141144.1384279678</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3893,13 +3893,13 @@
         <v>10</v>
       </c>
       <c r="D168">
-        <v>140734.0971598063</v>
+        <v>140787.6825022336</v>
       </c>
       <c r="E168">
-        <v>140175.0545478264</v>
+        <v>140383.3026730705</v>
       </c>
       <c r="F168">
-        <v>141293.1397717862</v>
+        <v>141192.0623313967</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3913,13 +3913,13 @@
         <v>10</v>
       </c>
       <c r="D169">
-        <v>140652.5763361099</v>
+        <v>140502.7903133807</v>
       </c>
       <c r="E169">
-        <v>139949.5278894147</v>
+        <v>139910.4537884758</v>
       </c>
       <c r="F169">
-        <v>141355.6247828051</v>
+        <v>141095.1268382857</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3933,13 +3933,13 @@
         <v>10</v>
       </c>
       <c r="D170">
-        <v>140561.6946146624</v>
+        <v>140172.2739878486</v>
       </c>
       <c r="E170">
-        <v>139740.3999492321</v>
+        <v>139464.0240358863</v>
       </c>
       <c r="F170">
-        <v>141382.9892800927</v>
+        <v>140880.5239398109</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3953,13 +3953,13 @@
         <v>10</v>
       </c>
       <c r="D171">
-        <v>140548.0080056936</v>
+        <v>140016.0038920958</v>
       </c>
       <c r="E171">
-        <v>139622.929528503</v>
+        <v>139206.902729741</v>
       </c>
       <c r="F171">
-        <v>141473.0864828842</v>
+        <v>140825.1050544507</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3973,13 +3973,13 @@
         <v>10</v>
       </c>
       <c r="D172">
-        <v>140402.1892121203</v>
+        <v>139611.4541647627</v>
       </c>
       <c r="E172">
-        <v>139384.0723829354</v>
+        <v>138704.4934891699</v>
       </c>
       <c r="F172">
-        <v>141420.3060413052</v>
+        <v>140518.4148403555</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3993,13 +3993,13 @@
         <v>10</v>
       </c>
       <c r="D173">
-        <v>140372.651135023</v>
+        <v>139463.8436768499</v>
       </c>
       <c r="E173">
-        <v>139269.3645500701</v>
+        <v>138477.1468667678</v>
       </c>
       <c r="F173">
-        <v>141475.9377199759</v>
+        <v>140450.5404869321</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4013,13 +4013,13 @@
         <v>10</v>
       </c>
       <c r="D174">
-        <v>140219.1405425517</v>
+        <v>139058.4729987532</v>
       </c>
       <c r="E174">
-        <v>139036.5198015538</v>
+        <v>137992.9928550784</v>
       </c>
       <c r="F174">
-        <v>141401.7612835495</v>
+        <v>140123.9531424281</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="D175">
-        <v>140158.1547545114</v>
+        <v>138894.4586717928</v>
       </c>
       <c r="E175">
-        <v>138901.6751029371</v>
+        <v>137757.0537255229</v>
       </c>
       <c r="F175">
-        <v>141414.6344060858</v>
+        <v>140031.8636180626</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4453,13 +4453,13 @@
         <v>11</v>
       </c>
       <c r="D196">
-        <v>1096100.922334843</v>
+        <v>1102465.831233057</v>
       </c>
       <c r="E196">
-        <v>1091157.911145945</v>
+        <v>1097173.689067511</v>
       </c>
       <c r="F196">
-        <v>1101043.933523742</v>
+        <v>1107757.973398604</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4473,13 +4473,13 @@
         <v>11</v>
       </c>
       <c r="D197">
-        <v>1095570.782525318</v>
+        <v>1101835.276762906</v>
       </c>
       <c r="E197">
-        <v>1088543.488042089</v>
+        <v>1094308.458387984</v>
       </c>
       <c r="F197">
-        <v>1102598.077008547</v>
+        <v>1109362.095137829</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4493,13 +4493,13 @@
         <v>11</v>
       </c>
       <c r="D198">
-        <v>1095173.841952872</v>
+        <v>1100814.342612826</v>
       </c>
       <c r="E198">
-        <v>1086526.213982806</v>
+        <v>1091548.402678918</v>
       </c>
       <c r="F198">
-        <v>1103821.469922939</v>
+        <v>1110080.282546735</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4513,13 +4513,13 @@
         <v>11</v>
       </c>
       <c r="D199">
-        <v>1094529.965899883</v>
+        <v>1099924.35132174</v>
       </c>
       <c r="E199">
-        <v>1084502.318405608</v>
+        <v>1089180.88474706</v>
       </c>
       <c r="F199">
-        <v>1104557.613394159</v>
+        <v>1110667.81789642</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4533,13 +4533,13 @@
         <v>11</v>
       </c>
       <c r="D200">
-        <v>1094379.526061917</v>
+        <v>1099041.088966304</v>
       </c>
       <c r="E200">
-        <v>1083119.110967237</v>
+        <v>1086989.29225746</v>
       </c>
       <c r="F200">
-        <v>1105639.941156597</v>
+        <v>1111092.885675149</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4553,13 +4553,13 @@
         <v>11</v>
       </c>
       <c r="D201">
-        <v>1093922.229462951</v>
+        <v>1097970.624097888</v>
       </c>
       <c r="E201">
-        <v>1081535.250843722</v>
+        <v>1084732.508770463</v>
       </c>
       <c r="F201">
-        <v>1106309.20808218</v>
+        <v>1111208.739425314</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4573,13 +4573,13 @@
         <v>11</v>
       </c>
       <c r="D202">
-        <v>1093187.48284835</v>
+        <v>1097724.644502158</v>
       </c>
       <c r="E202">
-        <v>1079759.133340097</v>
+        <v>1083393.764771458</v>
       </c>
       <c r="F202">
-        <v>1106615.832356603</v>
+        <v>1112055.524232858</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4593,13 +4593,13 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <v>1092531.838725987</v>
+        <v>1096952.091217423</v>
       </c>
       <c r="E203">
-        <v>1078132.532231865</v>
+        <v>1081603.251927123</v>
       </c>
       <c r="F203">
-        <v>1106931.14522011</v>
+        <v>1112300.930507724</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4613,13 +4613,13 @@
         <v>11</v>
       </c>
       <c r="D204">
-        <v>1091616.427187529</v>
+        <v>1096704.388547592</v>
       </c>
       <c r="E204">
-        <v>1076305.063611706</v>
+        <v>1080399.186235427</v>
       </c>
       <c r="F204">
-        <v>1106927.790763352</v>
+        <v>1113009.590859757</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="D225">
-        <v>79450.42902796085</v>
+        <v>81550.30094658192</v>
       </c>
       <c r="E225">
-        <v>78786.07603817635</v>
+        <v>76104.68311921686</v>
       </c>
       <c r="F225">
-        <v>80114.78201774535</v>
+        <v>86995.91877394698</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5053,13 +5053,13 @@
         <v>12</v>
       </c>
       <c r="D226">
-        <v>79541.65060199823</v>
+        <v>80215.56159400771</v>
       </c>
       <c r="E226">
-        <v>78546.7887814166</v>
+        <v>72139.7112793001</v>
       </c>
       <c r="F226">
-        <v>80536.51242257986</v>
+        <v>88291.41190871532</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5073,13 +5073,13 @@
         <v>12</v>
       </c>
       <c r="D227">
-        <v>79210.80935642944</v>
+        <v>76485.45122102035</v>
       </c>
       <c r="E227">
-        <v>77965.32404223719</v>
+        <v>67514.83425406531</v>
       </c>
       <c r="F227">
-        <v>80456.29467062169</v>
+        <v>85456.0681879754</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5093,13 +5093,13 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>79125.22955274867</v>
+        <v>78908.26831669953</v>
       </c>
       <c r="E228">
-        <v>77673.57244485241</v>
+        <v>69751.60199726926</v>
       </c>
       <c r="F228">
-        <v>80576.88666064493</v>
+        <v>88064.93463612979</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5113,13 +5113,13 @@
         <v>12</v>
       </c>
       <c r="D229">
-        <v>79030.80993859636</v>
+        <v>79719.67589197838</v>
       </c>
       <c r="E229">
-        <v>77395.7153500203</v>
+        <v>70521.87325270749</v>
       </c>
       <c r="F229">
-        <v>80665.90452717242</v>
+        <v>88917.47853124926</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5133,13 +5133,13 @@
         <v>12</v>
       </c>
       <c r="D230">
-        <v>78696.80848891726</v>
+        <v>76452.48593692452</v>
       </c>
       <c r="E230">
-        <v>76894.38799948069</v>
+        <v>67259.04383898094</v>
       </c>
       <c r="F230">
-        <v>80499.22897835383</v>
+        <v>85645.92803486811</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5153,13 +5153,13 @@
         <v>12</v>
       </c>
       <c r="D231">
-        <v>78595.33270768396</v>
+        <v>76910.73581803049</v>
       </c>
       <c r="E231">
-        <v>76638.40162696007</v>
+        <v>67694.97790574636</v>
       </c>
       <c r="F231">
-        <v>80552.26378840786</v>
+        <v>86126.49373031461</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5173,13 +5173,13 @@
         <v>12</v>
       </c>
       <c r="D232">
-        <v>78385.35912413517</v>
+        <v>76667.02359688657</v>
       </c>
       <c r="E232">
-        <v>76284.51496231425</v>
+        <v>67431.59266746734</v>
       </c>
       <c r="F232">
-        <v>80486.20328595609</v>
+        <v>85902.45452630581</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5193,13 +5193,13 @@
         <v>12</v>
       </c>
       <c r="D233">
-        <v>78077.88949956592</v>
+        <v>77621.04692276381</v>
       </c>
       <c r="E233">
-        <v>75841.96755175607</v>
+        <v>68385.34045736633</v>
       </c>
       <c r="F233">
-        <v>80313.81144737577</v>
+        <v>86856.75338816129</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5613,13 +5613,13 @@
         <v>13</v>
       </c>
       <c r="D254">
-        <v>134708.4426153357</v>
+        <v>134738.5427302513</v>
       </c>
       <c r="E254">
-        <v>134671.0084477905</v>
+        <v>134413.875823596</v>
       </c>
       <c r="F254">
-        <v>134745.8767828809</v>
+        <v>135063.2096369066</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5633,13 +5633,13 @@
         <v>13</v>
       </c>
       <c r="D255">
-        <v>133488.8327927733</v>
+        <v>134080.1260095854</v>
       </c>
       <c r="E255">
-        <v>133392.6130435546</v>
+        <v>133577.9619499095</v>
       </c>
       <c r="F255">
-        <v>133585.052541992</v>
+        <v>134582.2900692613</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5653,13 +5653,13 @@
         <v>13</v>
       </c>
       <c r="D256">
-        <v>132376.4113085619</v>
+        <v>133260.3212680083</v>
       </c>
       <c r="E256">
-        <v>132234.602447665</v>
+        <v>132626.5319247927</v>
       </c>
       <c r="F256">
-        <v>132518.2201694588</v>
+        <v>133894.110611224</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5673,13 +5673,13 @@
         <v>13</v>
       </c>
       <c r="D257">
-        <v>131652.2356724114</v>
+        <v>132396.3667924317</v>
       </c>
       <c r="E257">
-        <v>131469.1950747396</v>
+        <v>131654.7867390379</v>
       </c>
       <c r="F257">
-        <v>131835.2762700831</v>
+        <v>133137.9468458256</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5693,13 +5693,13 @@
         <v>13</v>
       </c>
       <c r="D258">
-        <v>130609.7243620297</v>
+        <v>131535.1943251549</v>
       </c>
       <c r="E258">
-        <v>130389.0732518202</v>
+        <v>130699.6676137699</v>
       </c>
       <c r="F258">
-        <v>130830.3754722392</v>
+        <v>132370.7210365398</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5713,13 +5713,13 @@
         <v>13</v>
       </c>
       <c r="D259">
-        <v>129383.4038900157</v>
+        <v>130737.0182566709</v>
       </c>
       <c r="E259">
-        <v>129145.357351753</v>
+        <v>129816.4997821763</v>
       </c>
       <c r="F259">
-        <v>129621.4504282783</v>
+        <v>131657.5367311655</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5733,13 +5733,13 @@
         <v>13</v>
       </c>
       <c r="D260">
-        <v>128670.9687185448</v>
+        <v>129796.3100734881</v>
       </c>
       <c r="E260">
-        <v>128425.3764450271</v>
+        <v>128798.8252479626</v>
       </c>
       <c r="F260">
-        <v>128916.5609920624</v>
+        <v>130793.7948990136</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5753,13 +5753,13 @@
         <v>13</v>
       </c>
       <c r="D261">
-        <v>127540.4908761802</v>
+        <v>128710.8494208542</v>
       </c>
       <c r="E261">
-        <v>127288.9588159305</v>
+        <v>127641.1162387292</v>
       </c>
       <c r="F261">
-        <v>127792.02293643</v>
+        <v>129780.5826029792</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5773,13 +5773,13 @@
         <v>13</v>
       </c>
       <c r="D262">
-        <v>126111.2228196286</v>
+        <v>127803.7877547257</v>
       </c>
       <c r="E262">
-        <v>125857.5967930034</v>
+        <v>126667.0402754477</v>
       </c>
       <c r="F262">
-        <v>126364.8488462538</v>
+        <v>128940.5352340037</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6193,13 +6193,13 @@
         <v>14</v>
       </c>
       <c r="D283">
-        <v>131254.7175788978</v>
+        <v>131450.5693963149</v>
       </c>
       <c r="E283">
-        <v>130894.4940054852</v>
+        <v>131056.4160019974</v>
       </c>
       <c r="F283">
-        <v>131614.9411523104</v>
+        <v>131844.7227906323</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6213,13 +6213,13 @@
         <v>14</v>
       </c>
       <c r="D284">
-        <v>131226.5257008813</v>
+        <v>131420.8337958496</v>
       </c>
       <c r="E284">
-        <v>130717.9934839245</v>
+        <v>130812.6513227946</v>
       </c>
       <c r="F284">
-        <v>131735.0579178382</v>
+        <v>132029.0162689047</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6233,13 +6233,13 @@
         <v>14</v>
       </c>
       <c r="D285">
-        <v>131122.641592768</v>
+        <v>131561.5588421191</v>
       </c>
       <c r="E285">
-        <v>130511.2558638107</v>
+        <v>130760.3648926441</v>
       </c>
       <c r="F285">
-        <v>131734.0273217252</v>
+        <v>132362.752791594</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6253,13 +6253,13 @@
         <v>14</v>
       </c>
       <c r="D286">
-        <v>130945.5666150379</v>
+        <v>131560.468553865</v>
       </c>
       <c r="E286">
-        <v>130233.1835789362</v>
+        <v>130596.0226873894</v>
       </c>
       <c r="F286">
-        <v>131657.9496511396</v>
+        <v>132524.9144203406</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6273,13 +6273,13 @@
         <v>14</v>
       </c>
       <c r="D287">
-        <v>130713.0914013983</v>
+        <v>131564.4991441671</v>
       </c>
       <c r="E287">
-        <v>129880.5820872376</v>
+        <v>130423.2439107722</v>
       </c>
       <c r="F287">
-        <v>131545.6007155591</v>
+        <v>132705.754377562</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6293,13 +6293,13 @@
         <v>14</v>
       </c>
       <c r="D288">
-        <v>130446.3848199094</v>
+        <v>131587.8720395806</v>
       </c>
       <c r="E288">
-        <v>129467.1722185605</v>
+        <v>130263.4745419824</v>
       </c>
       <c r="F288">
-        <v>131425.5974212583</v>
+        <v>132912.2695371788</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6313,13 +6313,13 @@
         <v>14</v>
       </c>
       <c r="D289">
-        <v>130159.8765347804</v>
+        <v>131579.2598312407</v>
       </c>
       <c r="E289">
-        <v>129009.1571776617</v>
+        <v>130068.0713385701</v>
       </c>
       <c r="F289">
-        <v>131310.5958918991</v>
+        <v>133090.4483239115</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6333,13 +6333,13 @@
         <v>14</v>
       </c>
       <c r="D290">
-        <v>129864.7983766322</v>
+        <v>131599.867602881</v>
       </c>
       <c r="E290">
-        <v>128524.1701748843</v>
+        <v>129904.9982112972</v>
       </c>
       <c r="F290">
-        <v>131205.4265783801</v>
+        <v>133294.7369944647</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6353,13 +6353,13 @@
         <v>14</v>
       </c>
       <c r="D291">
-        <v>129568.1795767604</v>
+        <v>131585.7900464652</v>
       </c>
       <c r="E291">
-        <v>128026.5976550786</v>
+        <v>129709.2649384991</v>
       </c>
       <c r="F291">
-        <v>131109.7614984421</v>
+        <v>133462.3151544314</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6773,13 +6773,13 @@
         <v>15</v>
       </c>
       <c r="D312">
-        <v>162423.4940127684</v>
+        <v>164297.7652859123</v>
       </c>
       <c r="E312">
-        <v>161564.4476867504</v>
+        <v>163745.0041509143</v>
       </c>
       <c r="F312">
-        <v>163282.5403387864</v>
+        <v>164850.5264209102</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6793,13 +6793,13 @@
         <v>15</v>
       </c>
       <c r="D313">
-        <v>160440.6303039804</v>
+        <v>163299.7063883533</v>
       </c>
       <c r="E313">
-        <v>159258.5107291957</v>
+        <v>162469.9361841305</v>
       </c>
       <c r="F313">
-        <v>161622.7498787652</v>
+        <v>164129.4765925762</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6813,13 +6813,13 @@
         <v>15</v>
       </c>
       <c r="D314">
-        <v>157998.5319208159</v>
+        <v>162446.7962351214</v>
       </c>
       <c r="E314">
-        <v>156588.8783199362</v>
+        <v>161391.8999680394</v>
       </c>
       <c r="F314">
-        <v>159408.1855216956</v>
+        <v>163501.6925022033</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6833,13 +6833,13 @@
         <v>15</v>
       </c>
       <c r="D315">
-        <v>155605.1655012509</v>
+        <v>161756.0250154966</v>
       </c>
       <c r="E315">
-        <v>154005.0370496906</v>
+        <v>160517.6945462504</v>
       </c>
       <c r="F315">
-        <v>157205.2939528112</v>
+        <v>162994.3554847428</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6853,13 +6853,13 @@
         <v>15</v>
       </c>
       <c r="D316">
-        <v>152760.0897394826</v>
+        <v>161573.1038528892</v>
       </c>
       <c r="E316">
-        <v>150998.050074988</v>
+        <v>160168.70449732</v>
       </c>
       <c r="F316">
-        <v>154522.1294039771</v>
+        <v>162977.5032084583</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6873,13 +6873,13 @@
         <v>15</v>
       </c>
       <c r="D317">
-        <v>150187.536442845</v>
+        <v>160917.8928166148</v>
       </c>
       <c r="E317">
-        <v>148288.2844018949</v>
+        <v>159351.2969622681</v>
       </c>
       <c r="F317">
-        <v>152086.788483795</v>
+        <v>162484.4886709614</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6893,13 +6893,13 @@
         <v>15</v>
       </c>
       <c r="D318">
-        <v>147343.6684109123</v>
+        <v>159930.2665712346</v>
       </c>
       <c r="E318">
-        <v>145314.3666863689</v>
+        <v>158215.0087003047</v>
       </c>
       <c r="F318">
-        <v>149372.9701354557</v>
+        <v>161645.5244421646</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6913,13 +6913,13 @@
         <v>15</v>
       </c>
       <c r="D319">
-        <v>144233.3825764327</v>
+        <v>159212.5529294729</v>
       </c>
       <c r="E319">
-        <v>142080.7476770172</v>
+        <v>157366.5371893463</v>
       </c>
       <c r="F319">
-        <v>146386.0174758483</v>
+        <v>161058.5686695995</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6933,13 +6933,13 @@
         <v>15</v>
       </c>
       <c r="D320">
-        <v>141224.9095531833</v>
+        <v>158743.1030653292</v>
       </c>
       <c r="E320">
-        <v>138955.2774425692</v>
+        <v>156772.1540178591</v>
       </c>
       <c r="F320">
-        <v>143494.5416637973</v>
+        <v>160714.0521127993</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7353,13 +7353,13 @@
         <v>16</v>
       </c>
       <c r="D341">
-        <v>110010.0194940706</v>
+        <v>110060.6450350253</v>
       </c>
       <c r="E341">
-        <v>109859.839967069</v>
+        <v>109902.4140481495</v>
       </c>
       <c r="F341">
-        <v>110160.1990210722</v>
+        <v>110218.8760219012</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7373,13 +7373,13 @@
         <v>16</v>
       </c>
       <c r="D342">
-        <v>109822.9565343241</v>
+        <v>109732.2743733318</v>
       </c>
       <c r="E342">
-        <v>109515.171828586</v>
+        <v>109430.7459099373</v>
       </c>
       <c r="F342">
-        <v>110130.7412400621</v>
+        <v>110033.8028367264</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7393,13 +7393,13 @@
         <v>16</v>
       </c>
       <c r="D343">
-        <v>109626.5254724182</v>
+        <v>109438.0796871371</v>
       </c>
       <c r="E343">
-        <v>109159.4098608147</v>
+        <v>109042.6960062577</v>
       </c>
       <c r="F343">
-        <v>110093.6410840218</v>
+        <v>109833.4633680166</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7413,13 +7413,13 @@
         <v>16</v>
       </c>
       <c r="D344">
-        <v>109567.534280991</v>
+        <v>109196.2674556579</v>
       </c>
       <c r="E344">
-        <v>108940.2109048459</v>
+        <v>108712.5463302838</v>
       </c>
       <c r="F344">
-        <v>110194.857657136</v>
+        <v>109679.988581032</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7433,13 +7433,13 @@
         <v>16</v>
       </c>
       <c r="D345">
-        <v>109425.1313155007</v>
+        <v>108839.775959244</v>
       </c>
       <c r="E345">
-        <v>108644.9696501158</v>
+        <v>108267.9144514222</v>
       </c>
       <c r="F345">
-        <v>110205.2929808856</v>
+        <v>109411.6374670657</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7453,13 +7453,13 @@
         <v>16</v>
       </c>
       <c r="D346">
-        <v>109349.5284846964</v>
+        <v>108460.5756669727</v>
       </c>
       <c r="E346">
-        <v>108421.563740697</v>
+        <v>107806.4118701687</v>
       </c>
       <c r="F346">
-        <v>110277.4932286959</v>
+        <v>109114.7394637766</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7473,13 +7473,13 @@
         <v>16</v>
       </c>
       <c r="D347">
-        <v>109247.6898799468</v>
+        <v>108021.0821743502</v>
       </c>
       <c r="E347">
-        <v>108180.6462758977</v>
+        <v>107280.5857326439</v>
       </c>
       <c r="F347">
-        <v>110314.7334839958</v>
+        <v>108761.5786160566</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7493,13 +7493,13 @@
         <v>16</v>
       </c>
       <c r="D348">
-        <v>109121.1673604115</v>
+        <v>107427.3958627148</v>
       </c>
       <c r="E348">
-        <v>107921.112514058</v>
+        <v>106604.7093657161</v>
       </c>
       <c r="F348">
-        <v>110321.222206765</v>
+        <v>108250.0823597134</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7513,13 +7513,13 @@
         <v>16</v>
       </c>
       <c r="D349">
-        <v>108956.7411040455</v>
+        <v>106752.7502372246</v>
       </c>
       <c r="E349">
-        <v>107631.6383382446</v>
+        <v>105843.4003927859</v>
       </c>
       <c r="F349">
-        <v>110281.8438698464</v>
+        <v>107662.1000816632</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7933,13 +7933,13 @@
         <v>17</v>
       </c>
       <c r="D370">
-        <v>30235.58840252708</v>
+        <v>30220.15692119006</v>
       </c>
       <c r="E370">
-        <v>30086.41352381305</v>
+        <v>30109.84116570276</v>
       </c>
       <c r="F370">
-        <v>30384.76328124111</v>
+        <v>30330.47267667737</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7953,13 +7953,13 @@
         <v>17</v>
       </c>
       <c r="D371">
-        <v>30131.87588724079</v>
+        <v>30255.51083137891</v>
       </c>
       <c r="E371">
-        <v>29910.99687798993</v>
+        <v>30022.52339947845</v>
       </c>
       <c r="F371">
-        <v>30352.75489649165</v>
+        <v>30488.49826327937</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7973,13 +7973,13 @@
         <v>17</v>
       </c>
       <c r="D372">
-        <v>29889.14593111708</v>
+        <v>30107.98233485493</v>
       </c>
       <c r="E372">
-        <v>29571.7778877004</v>
+        <v>29772.35711141631</v>
       </c>
       <c r="F372">
-        <v>30206.51397453377</v>
+        <v>30443.60755829355</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7993,13 +7993,13 @@
         <v>17</v>
       </c>
       <c r="D373">
-        <v>29914.64806496911</v>
+        <v>30188.25278014685</v>
       </c>
       <c r="E373">
-        <v>29501.90593164328</v>
+        <v>29743.21925665868</v>
       </c>
       <c r="F373">
-        <v>30327.39019829495</v>
+        <v>30633.28630363502</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8013,13 +8013,13 @@
         <v>17</v>
       </c>
       <c r="D374">
-        <v>29689.16073161973</v>
+        <v>30150.38440185048</v>
       </c>
       <c r="E374">
-        <v>29195.2535248926</v>
+        <v>29630.25348334892</v>
       </c>
       <c r="F374">
-        <v>30183.06793834687</v>
+        <v>30670.51532035204</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8033,13 +8033,13 @@
         <v>17</v>
       </c>
       <c r="D375">
-        <v>29687.30212817875</v>
+        <v>30191.55965090578</v>
       </c>
       <c r="E375">
-        <v>29095.87915561693</v>
+        <v>29605.94316588109</v>
       </c>
       <c r="F375">
-        <v>30278.72510074058</v>
+        <v>30777.17613593047</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8053,13 +8053,13 @@
         <v>17</v>
       </c>
       <c r="D376">
-        <v>29679.53042201384</v>
+        <v>30210.5271491251</v>
       </c>
       <c r="E376">
-        <v>28993.36844426162</v>
+        <v>29552.78725069763</v>
       </c>
       <c r="F376">
-        <v>30365.69239976605</v>
+        <v>30868.26704755258</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8073,13 +8073,13 @@
         <v>17</v>
       </c>
       <c r="D377">
-        <v>29580.9938366009</v>
+        <v>30236.46475034342</v>
       </c>
       <c r="E377">
-        <v>28809.93128747442</v>
+        <v>29525.20338591324</v>
       </c>
       <c r="F377">
-        <v>30352.05638572738</v>
+        <v>30947.72611477361</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8093,13 +8093,13 @@
         <v>17</v>
       </c>
       <c r="D378">
-        <v>29597.4610770851</v>
+        <v>30289.46109429961</v>
       </c>
       <c r="E378">
-        <v>28730.23151979926</v>
+        <v>29527.44670623216</v>
       </c>
       <c r="F378">
-        <v>30464.69063437094</v>
+        <v>31051.47548236707</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8513,13 +8513,13 @@
         <v>18</v>
       </c>
       <c r="D399">
-        <v>45140.64009617073</v>
+        <v>45205.39118186608</v>
       </c>
       <c r="E399">
-        <v>44890.15966858417</v>
+        <v>44951.94723679969</v>
       </c>
       <c r="F399">
-        <v>45391.12052375729</v>
+        <v>45458.83512693246</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8533,13 @@
         <v>18</v>
       </c>
       <c r="D400">
-        <v>44864.61498616282</v>
+        <v>44960.68298239422</v>
       </c>
       <c r="E400">
-        <v>44414.70007635479</v>
+        <v>44568.10363935198</v>
       </c>
       <c r="F400">
-        <v>45314.52989597085</v>
+        <v>45353.26232543646</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8553,13 @@
         <v>18</v>
       </c>
       <c r="D401">
-        <v>44540.70910500841</v>
+        <v>44816.37082302038</v>
       </c>
       <c r="E401">
-        <v>43881.9311826386</v>
+        <v>44310.34635546194</v>
       </c>
       <c r="F401">
-        <v>45199.48702737821</v>
+        <v>45322.39529057882</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8573,13 @@
         <v>18</v>
       </c>
       <c r="D402">
-        <v>44215.01862215946</v>
+        <v>44791.5345510799</v>
       </c>
       <c r="E402">
-        <v>43372.93545526906</v>
+        <v>44183.06063059984</v>
       </c>
       <c r="F402">
-        <v>45057.10178904986</v>
+        <v>45400.00847155997</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8593,13 @@
         <v>18</v>
       </c>
       <c r="D403">
-        <v>43963.58313883006</v>
+        <v>44824.36693847394</v>
       </c>
       <c r="E403">
-        <v>42945.80209282984</v>
+        <v>44122.29573519831</v>
       </c>
       <c r="F403">
-        <v>44981.36418483029</v>
+        <v>45526.43814174957</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8613,13 @@
         <v>18</v>
       </c>
       <c r="D404">
-        <v>43763.18090017378</v>
+        <v>44990.33063762775</v>
       </c>
       <c r="E404">
-        <v>42560.50225340815</v>
+        <v>44199.91281167343</v>
       </c>
       <c r="F404">
-        <v>44965.85954693941</v>
+        <v>45780.74846358207</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8633,13 +8633,13 @@
         <v>18</v>
       </c>
       <c r="D405">
-        <v>43538.22460673173</v>
+        <v>45219.91300810655</v>
       </c>
       <c r="E405">
-        <v>42153.68077713782</v>
+        <v>44347.28245781528</v>
       </c>
       <c r="F405">
-        <v>44922.76843632564</v>
+        <v>46092.54355839783</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8653,13 +8653,13 @@
         <v>18</v>
       </c>
       <c r="D406">
-        <v>43273.60979472745</v>
+        <v>45535.35762095381</v>
       </c>
       <c r="E406">
-        <v>41726.07357406772</v>
+        <v>44584.9904940701</v>
       </c>
       <c r="F406">
-        <v>44821.14601538719</v>
+        <v>46485.72474783751</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8673,13 +8673,13 @@
         <v>18</v>
       </c>
       <c r="D407">
-        <v>43059.96701939718</v>
+        <v>45927.72561086859</v>
       </c>
       <c r="E407">
-        <v>41360.5138192362</v>
+        <v>44905.42376547665</v>
       </c>
       <c r="F407">
-        <v>44759.42021955817</v>
+        <v>46950.02745626053</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -9093,13 +9093,13 @@
         <v>19</v>
       </c>
       <c r="D428">
-        <v>136520.4556382824</v>
+        <v>135832.9919231695</v>
       </c>
       <c r="E428">
-        <v>135750.2763103301</v>
+        <v>135144.6354526591</v>
       </c>
       <c r="F428">
-        <v>137290.6349662347</v>
+        <v>136521.3483936799</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9113,13 +9113,13 @@
         <v>19</v>
       </c>
       <c r="D429">
-        <v>135747.6680474117</v>
+        <v>134691.4892405201</v>
       </c>
       <c r="E429">
-        <v>134653.1297020558</v>
+        <v>133704.7907091146</v>
       </c>
       <c r="F429">
-        <v>136842.2063927675</v>
+        <v>135678.1877719256</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9133,13 +9133,13 @@
         <v>19</v>
       </c>
       <c r="D430">
-        <v>134589.7761734697</v>
+        <v>133151.63528699</v>
       </c>
       <c r="E430">
-        <v>133242.4397576653</v>
+        <v>131930.998161573</v>
       </c>
       <c r="F430">
-        <v>135937.1125892741</v>
+        <v>134372.2724124071</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9153,13 +9153,13 @@
         <v>19</v>
       </c>
       <c r="D431">
-        <v>133379.305473593</v>
+        <v>131385.2234701817</v>
       </c>
       <c r="E431">
-        <v>131827.1584280841</v>
+        <v>129983.6835206722</v>
       </c>
       <c r="F431">
-        <v>134931.452519102</v>
+        <v>132786.7634196912</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9173,13 +9173,13 @@
         <v>19</v>
       </c>
       <c r="D432">
-        <v>132500.8197599183</v>
+        <v>129992.6047136722</v>
       </c>
       <c r="E432">
-        <v>130762.8464936129</v>
+        <v>128417.9235723436</v>
       </c>
       <c r="F432">
-        <v>134238.7930262237</v>
+        <v>131567.2858550009</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9193,13 +9193,13 @@
         <v>19</v>
       </c>
       <c r="D433">
-        <v>130974.7043369197</v>
+        <v>128173.4160424656</v>
       </c>
       <c r="E433">
-        <v>129068.449458063</v>
+        <v>126447.5678139502</v>
       </c>
       <c r="F433">
-        <v>132880.9592157765</v>
+        <v>129899.264270981</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9213,13 +9213,13 @@
         <v>19</v>
       </c>
       <c r="D434">
-        <v>129767.04182892</v>
+        <v>125983.3065477612</v>
       </c>
       <c r="E434">
-        <v>127712.5494927094</v>
+        <v>124123.7099449595</v>
       </c>
       <c r="F434">
-        <v>131821.5341651306</v>
+        <v>127842.9031505629</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9233,13 +9233,13 @@
         <v>19</v>
       </c>
       <c r="D435">
-        <v>128529.6216101836</v>
+        <v>124417.1958028607</v>
       </c>
       <c r="E435">
-        <v>126326.664396173</v>
+        <v>122420.4509981532</v>
       </c>
       <c r="F435">
-        <v>130732.5788241943</v>
+        <v>126413.9406075683</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9253,13 +9253,13 @@
         <v>19</v>
       </c>
       <c r="D436">
-        <v>126920.1499547501</v>
+        <v>121891.1274998065</v>
       </c>
       <c r="E436">
-        <v>124588.8564486505</v>
+        <v>119780.1159715561</v>
       </c>
       <c r="F436">
-        <v>129251.4434608496</v>
+        <v>124002.1390280568</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9673,13 +9673,13 @@
         <v>20</v>
       </c>
       <c r="D457">
-        <v>48437.11673044704</v>
+        <v>48421.89649232661</v>
       </c>
       <c r="E457">
-        <v>48173.83168867175</v>
+        <v>48130.45312809646</v>
       </c>
       <c r="F457">
-        <v>48700.40177222232</v>
+        <v>48713.33985655676</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9693,13 +9693,13 @@
         <v>20</v>
       </c>
       <c r="D458">
-        <v>48066.05638781896</v>
+        <v>48060.47098407687</v>
       </c>
       <c r="E458">
-        <v>47526.3154995016</v>
+        <v>47471.96516768591</v>
       </c>
       <c r="F458">
-        <v>48605.79727613633</v>
+        <v>48648.97680046783</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9713,13 +9713,13 @@
         <v>20</v>
       </c>
       <c r="D459">
-        <v>47660.93770809925</v>
+        <v>47717.62608004345</v>
       </c>
       <c r="E459">
-        <v>46904.37719133397</v>
+        <v>46909.93840383389</v>
       </c>
       <c r="F459">
-        <v>48417.49822486453</v>
+        <v>48525.31375625302</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9733,13 +9733,13 @@
         <v>20</v>
       </c>
       <c r="D460">
-        <v>47177.80468748457</v>
+        <v>47307.98840802612</v>
       </c>
       <c r="E460">
-        <v>46217.90435047193</v>
+        <v>46295.19939631468</v>
       </c>
       <c r="F460">
-        <v>48137.70502449722</v>
+        <v>48320.77741973755</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9753,13 +9753,13 @@
         <v>20</v>
       </c>
       <c r="D461">
-        <v>46740.57244042969</v>
+        <v>46904.32483307621</v>
       </c>
       <c r="E461">
-        <v>45573.12014918797</v>
+        <v>45686.69769086637</v>
       </c>
       <c r="F461">
-        <v>47908.02473167142</v>
+        <v>48121.95197528606</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9773,13 +9773,13 @@
         <v>20</v>
       </c>
       <c r="D462">
-        <v>46281.33475660498</v>
+        <v>46512.14048615094</v>
       </c>
       <c r="E462">
-        <v>44941.73529917328</v>
+        <v>45125.73672941377</v>
       </c>
       <c r="F462">
-        <v>47620.93421403668</v>
+        <v>47898.54424288811</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9793,13 +9793,13 @@
         <v>20</v>
       </c>
       <c r="D463">
-        <v>45758.85394955501</v>
+        <v>46077.49404199548</v>
       </c>
       <c r="E463">
-        <v>44261.23878754398</v>
+        <v>44535.42352817752</v>
       </c>
       <c r="F463">
-        <v>47256.46911156603</v>
+        <v>47619.56455581344</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9813,13 +9813,13 @@
         <v>20</v>
       </c>
       <c r="D464">
-        <v>45244.13845616581</v>
+        <v>45617.82564858061</v>
       </c>
       <c r="E464">
-        <v>43588.33885794051</v>
+        <v>43923.76289347651</v>
       </c>
       <c r="F464">
-        <v>46899.93805439112</v>
+        <v>47311.8884036847</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -9833,13 +9833,13 @@
         <v>20</v>
       </c>
       <c r="D465">
-        <v>44694.34574954034</v>
+        <v>45148.65888166009</v>
       </c>
       <c r="E465">
-        <v>42901.14501562875</v>
+        <v>43320.79945984358</v>
       </c>
       <c r="F465">
-        <v>46487.54648345194</v>
+        <v>46976.51830347659</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -10253,13 +10253,13 @@
         <v>21</v>
       </c>
       <c r="D486">
-        <v>100851.1032779759</v>
+        <v>102278.559149657</v>
       </c>
       <c r="E486">
-        <v>100311.4882755651</v>
+        <v>101774.7275733069</v>
       </c>
       <c r="F486">
-        <v>101390.7182803867</v>
+        <v>102782.3907260071</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -10273,13 +10273,13 @@
         <v>21</v>
       </c>
       <c r="D487">
-        <v>98939.85994441286</v>
+        <v>102107.6174973439</v>
       </c>
       <c r="E487">
-        <v>98203.60686168139</v>
+        <v>101282.3653736036</v>
       </c>
       <c r="F487">
-        <v>99676.11302714434</v>
+        <v>102932.8696210842</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -10293,13 +10293,13 @@
         <v>21</v>
       </c>
       <c r="D488">
-        <v>96955.97250737119</v>
+        <v>102295.6174950106</v>
       </c>
       <c r="E488">
-        <v>96092.41751771678</v>
+        <v>101165.5342507966</v>
       </c>
       <c r="F488">
-        <v>97819.5274970256</v>
+        <v>103425.7007392246</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10313,13 +10313,13 @@
         <v>21</v>
       </c>
       <c r="D489">
-        <v>95043.40469185644</v>
+        <v>102027.725445338</v>
       </c>
       <c r="E489">
-        <v>94089.82825020238</v>
+        <v>100724.2759047418</v>
       </c>
       <c r="F489">
-        <v>95996.9811335105</v>
+        <v>103331.1749859342</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10333,13 +10333,13 @@
         <v>21</v>
       </c>
       <c r="D490">
-        <v>92819.68740713006</v>
+        <v>101776.0498218143</v>
       </c>
       <c r="E490">
-        <v>91795.94535143094</v>
+        <v>100320.0366305456</v>
       </c>
       <c r="F490">
-        <v>93843.42946282917</v>
+        <v>103232.063013083</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10353,13 +10353,13 @@
         <v>21</v>
       </c>
       <c r="D491">
-        <v>90599.97032173343</v>
+        <v>101379.6789610093</v>
       </c>
       <c r="E491">
-        <v>89510.3536313045</v>
+        <v>99748.32040043478</v>
       </c>
       <c r="F491">
-        <v>91689.58701216236</v>
+        <v>103011.0375215838</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10373,13 +10373,13 @@
         <v>21</v>
       </c>
       <c r="D492">
-        <v>88269.70493182645</v>
+        <v>101144.6696288609</v>
       </c>
       <c r="E492">
-        <v>87118.43436133559</v>
+        <v>99388.64008530877</v>
       </c>
       <c r="F492">
-        <v>89420.97550231731</v>
+        <v>102900.6991724131</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10393,13 +10393,13 @@
         <v>21</v>
       </c>
       <c r="D493">
-        <v>85994.33333386776</v>
+        <v>100959.9725448484</v>
       </c>
       <c r="E493">
-        <v>84783.70116310559</v>
+        <v>99072.76999602705</v>
       </c>
       <c r="F493">
-        <v>87204.96550462993</v>
+        <v>102847.1750936698</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10413,13 +10413,13 @@
         <v>21</v>
       </c>
       <c r="D494">
-        <v>83431.0058595482</v>
+        <v>100836.1483963345</v>
       </c>
       <c r="E494">
-        <v>82164.69788853489</v>
+        <v>98829.09345922184</v>
       </c>
       <c r="F494">
-        <v>84697.3138305615</v>
+        <v>102843.2033334471</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10833,13 +10833,13 @@
         <v>22</v>
       </c>
       <c r="D515">
-        <v>277376.3299446683</v>
+        <v>277193.3542251217</v>
       </c>
       <c r="E515">
-        <v>276344.6045705811</v>
+        <v>276390.6680261543</v>
       </c>
       <c r="F515">
-        <v>278408.0553187556</v>
+        <v>277996.0404240892</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -10853,13 +10853,13 @@
         <v>22</v>
       </c>
       <c r="D516">
-        <v>276396.4658089589</v>
+        <v>275855.2880563001</v>
       </c>
       <c r="E516">
-        <v>274922.8312343513</v>
+        <v>274698.0855321726</v>
       </c>
       <c r="F516">
-        <v>277870.1003835664</v>
+        <v>277012.4905804277</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -10873,13 +10873,13 @@
         <v>22</v>
       </c>
       <c r="D517">
-        <v>275339.3103125905</v>
+        <v>274716.6446123928</v>
       </c>
       <c r="E517">
-        <v>273521.4584635631</v>
+        <v>273288.6893959209</v>
       </c>
       <c r="F517">
-        <v>277157.1621616179</v>
+        <v>276144.5998288647</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -10893,13 +10893,13 @@
         <v>22</v>
       </c>
       <c r="D518">
-        <v>274666.2763965572</v>
+        <v>273264.9072307137</v>
       </c>
       <c r="E518">
-        <v>272573.5804719126</v>
+        <v>271615.1515354723</v>
       </c>
       <c r="F518">
-        <v>276758.9723212018</v>
+        <v>274914.6629259551</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -10913,13 +10913,13 @@
         <v>22</v>
       </c>
       <c r="D519">
-        <v>273829.4235236168</v>
+        <v>271952.88139293</v>
       </c>
       <c r="E519">
-        <v>271488.8208875771</v>
+        <v>270097.2759798115</v>
       </c>
       <c r="F519">
-        <v>276170.0261596565</v>
+        <v>273808.4868060485</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10933,13 +10933,13 @@
         <v>22</v>
       </c>
       <c r="D520">
-        <v>272636.0823681393</v>
+        <v>270783.9117892003</v>
       </c>
       <c r="E520">
-        <v>270055.3749206967</v>
+        <v>268737.9614010979</v>
       </c>
       <c r="F520">
-        <v>275216.7898155819</v>
+        <v>272829.8621773027</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10953,13 +10953,13 @@
         <v>22</v>
       </c>
       <c r="D521">
-        <v>271863.5295662688</v>
+        <v>269328.021444081</v>
       </c>
       <c r="E521">
-        <v>269065.9597583407</v>
+        <v>267108.3417105026</v>
       </c>
       <c r="F521">
-        <v>274661.099374197</v>
+        <v>271547.7011776595</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10973,13 +10973,13 @@
         <v>22</v>
       </c>
       <c r="D522">
-        <v>270881.1783643879</v>
+        <v>267816.2718107689</v>
       </c>
       <c r="E522">
-        <v>267882.0496423811</v>
+        <v>265436.8896679046</v>
       </c>
       <c r="F522">
-        <v>273880.3070863946</v>
+        <v>270195.6539536331</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10993,13 +10993,13 @@
         <v>22</v>
       </c>
       <c r="D523">
-        <v>269884.9439338951</v>
+        <v>266168.514050492</v>
       </c>
       <c r="E523">
-        <v>266697.9250923686</v>
+        <v>263639.6505244618</v>
       </c>
       <c r="F523">
-        <v>273071.9627754217</v>
+        <v>268697.3775765221</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -11413,13 +11413,13 @@
         <v>23</v>
       </c>
       <c r="D544">
-        <v>200995.7682883042</v>
+        <v>200859.2204937977</v>
       </c>
       <c r="E544">
-        <v>200324.6071786307</v>
+        <v>200343.5601874214</v>
       </c>
       <c r="F544">
-        <v>201666.9293979778</v>
+        <v>201374.8808001739</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11433,13 +11433,13 @@
         <v>23</v>
       </c>
       <c r="D545">
-        <v>200858.1846478112</v>
+        <v>200439.5445284111</v>
       </c>
       <c r="E545">
-        <v>199896.2791894532</v>
+        <v>199653.9200580276</v>
       </c>
       <c r="F545">
-        <v>201820.0901061692</v>
+        <v>201225.1689987947</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -11453,13 +11453,13 @@
         <v>23</v>
       </c>
       <c r="D546">
-        <v>200719.4331690476</v>
+        <v>200047.8495449822</v>
       </c>
       <c r="E546">
-        <v>199519.4639765977</v>
+        <v>199080.1705266394</v>
       </c>
       <c r="F546">
-        <v>201919.4023614975</v>
+        <v>201015.528563325</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11473,13 +11473,13 @@
         <v>23</v>
       </c>
       <c r="D547">
-        <v>200598.187017926</v>
+        <v>199620.9268403976</v>
       </c>
       <c r="E547">
-        <v>199193.6217575535</v>
+        <v>198511.2546412114</v>
       </c>
       <c r="F547">
-        <v>202002.7522782985</v>
+        <v>200730.5990395839</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -11493,13 +11493,13 @@
         <v>23</v>
       </c>
       <c r="D548">
-        <v>200563.8226136002</v>
+        <v>199240.8456447274</v>
       </c>
       <c r="E548">
-        <v>198973.2282738733</v>
+        <v>197981.4008325188</v>
       </c>
       <c r="F548">
-        <v>202154.4169533271</v>
+        <v>200500.2904569361</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11513,13 +11513,13 @@
         <v>23</v>
       </c>
       <c r="D549">
-        <v>200504.8309068903</v>
+        <v>199019.7121110466</v>
       </c>
       <c r="E549">
-        <v>198744.176795555</v>
+        <v>197649.6578873494</v>
       </c>
       <c r="F549">
-        <v>202265.4850182256</v>
+        <v>200389.7663347439</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -11533,13 +11533,13 @@
         <v>23</v>
       </c>
       <c r="D550">
-        <v>200472.3385860583</v>
+        <v>198440.3927529749</v>
       </c>
       <c r="E550">
-        <v>198552.8228686258</v>
+        <v>196953.9151435569</v>
       </c>
       <c r="F550">
-        <v>202391.8543034907</v>
+        <v>199926.8703623929</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11553,13 +11553,13 @@
         <v>23</v>
       </c>
       <c r="D551">
-        <v>200436.9977106029</v>
+        <v>198118.154780393</v>
       </c>
       <c r="E551">
-        <v>198368.7349976249</v>
+        <v>196526.5206518748</v>
       </c>
       <c r="F551">
-        <v>202505.260423581</v>
+        <v>199709.7889089112</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11573,13 +11573,13 @@
         <v>23</v>
       </c>
       <c r="D552">
-        <v>200406.3834077864</v>
+        <v>197443.8397023341</v>
       </c>
       <c r="E552">
-        <v>198197.357971037</v>
+        <v>195759.7466744899</v>
       </c>
       <c r="F552">
-        <v>202615.4088445358</v>
+        <v>199127.9327301783</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11993,13 +11993,13 @@
         <v>24</v>
       </c>
       <c r="D573">
-        <v>126406.1728383695</v>
+        <v>126915.6607846443</v>
       </c>
       <c r="E573">
-        <v>126134.2692387127</v>
+        <v>126587.6619575955</v>
       </c>
       <c r="F573">
-        <v>126678.0764380264</v>
+        <v>127243.659611693</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -12013,13 +12013,13 @@
         <v>24</v>
       </c>
       <c r="D574">
-        <v>125310.289474522</v>
+        <v>126031.1419859775</v>
       </c>
       <c r="E574">
-        <v>124925.5928140027</v>
+        <v>125539.0921834989</v>
       </c>
       <c r="F574">
-        <v>125694.9861350412</v>
+        <v>126523.1917884561</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -12033,13 +12033,13 @@
         <v>24</v>
       </c>
       <c r="D575">
-        <v>124085.4612163845</v>
+        <v>125485.9085594836</v>
       </c>
       <c r="E575">
-        <v>123621.641994154</v>
+        <v>124847.6364006305</v>
       </c>
       <c r="F575">
-        <v>124549.2804386151</v>
+        <v>126124.1807183366</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -12053,13 +12053,13 @@
         <v>24</v>
       </c>
       <c r="D576">
-        <v>122819.8712166447</v>
+        <v>124732.4526026178</v>
       </c>
       <c r="E576">
-        <v>122283.8365349801</v>
+        <v>123994.1002448871</v>
       </c>
       <c r="F576">
-        <v>123355.9058983093</v>
+        <v>125470.8049603484</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -12073,13 +12073,13 @@
         <v>24</v>
       </c>
       <c r="D577">
-        <v>121556.5448388918</v>
+        <v>123955.8633470663</v>
       </c>
       <c r="E577">
-        <v>120961.0685335793</v>
+        <v>123120.9214015361</v>
       </c>
       <c r="F577">
-        <v>122152.0211442043</v>
+        <v>124790.8052925964</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -12093,13 +12093,13 @@
         <v>24</v>
       </c>
       <c r="D578">
-        <v>120094.5003207311</v>
+        <v>123331.61826058</v>
       </c>
       <c r="E578">
-        <v>119441.5246769629</v>
+        <v>122409.3399889455</v>
       </c>
       <c r="F578">
-        <v>120747.4759644994</v>
+        <v>124253.8965322145</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -12113,13 +12113,13 @@
         <v>24</v>
       </c>
       <c r="D579">
-        <v>118753.2697362282</v>
+        <v>122439.5946597949</v>
       </c>
       <c r="E579">
-        <v>118050.4490351887</v>
+        <v>121445.4668680135</v>
       </c>
       <c r="F579">
-        <v>119456.0904372676</v>
+        <v>123433.7224515764</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -12133,13 +12133,13 @@
         <v>24</v>
       </c>
       <c r="D580">
-        <v>117206.8293325346</v>
+        <v>121745.4041306617</v>
       </c>
       <c r="E580">
-        <v>116454.8813131927</v>
+        <v>120673.2607754866</v>
       </c>
       <c r="F580">
-        <v>117958.7773518765</v>
+        <v>122817.5474858367</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -12153,13 +12153,13 @@
         <v>24</v>
       </c>
       <c r="D581">
-        <v>115694.9027575732</v>
+        <v>120923.9006686566</v>
       </c>
       <c r="E581">
-        <v>114899.1079560661</v>
+        <v>119788.5940083317</v>
       </c>
       <c r="F581">
-        <v>116490.6975590802</v>
+        <v>122059.2073289816</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12573,13 +12573,13 @@
         <v>25</v>
       </c>
       <c r="D602">
-        <v>60508.5164359452</v>
+        <v>59955.81317779716</v>
       </c>
       <c r="E602">
-        <v>60470.50610417924</v>
+        <v>59270.4646599814</v>
       </c>
       <c r="F602">
-        <v>60546.52676771115</v>
+        <v>60641.16169561293</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -12593,13 +12593,13 @@
         <v>25</v>
       </c>
       <c r="D603">
-        <v>60403.43695819067</v>
+        <v>58629.48053141354</v>
       </c>
       <c r="E603">
-        <v>60315.21325669574</v>
+        <v>57709.44477300939</v>
       </c>
       <c r="F603">
-        <v>60491.66065968561</v>
+        <v>59549.5162898177</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -12613,13 +12613,13 @@
         <v>25</v>
       </c>
       <c r="D604">
-        <v>60528.64409372336</v>
+        <v>57240.50475958557</v>
       </c>
       <c r="E604">
-        <v>60359.86444181727</v>
+        <v>56158.59098290192</v>
       </c>
       <c r="F604">
-        <v>60697.42374562944</v>
+        <v>58322.41853626922</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -12633,13 +12633,13 @@
         <v>25</v>
       </c>
       <c r="D605">
-        <v>61666.11298169887</v>
+        <v>55796.28199435444</v>
       </c>
       <c r="E605">
-        <v>61384.40648581691</v>
+        <v>54585.73630450867</v>
       </c>
       <c r="F605">
-        <v>61947.81947758083</v>
+        <v>57006.8276842002</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -12653,13 +12653,13 @@
         <v>25</v>
       </c>
       <c r="D606">
-        <v>63351.59695876882</v>
+        <v>54285.57147743073</v>
       </c>
       <c r="E606">
-        <v>62932.43418262294</v>
+        <v>52965.6326590567</v>
       </c>
       <c r="F606">
-        <v>63770.75973491471</v>
+        <v>55605.51029580476</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -12673,13 +12673,13 @@
         <v>25</v>
       </c>
       <c r="D607">
-        <v>66176.30832230375</v>
+        <v>52716.29077708302</v>
       </c>
       <c r="E607">
-        <v>65580.45746870329</v>
+        <v>51298.81480995639</v>
       </c>
       <c r="F607">
-        <v>66772.15917590422</v>
+        <v>54133.76674420965</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -12693,13 +12693,13 @@
         <v>25</v>
       </c>
       <c r="D608">
-        <v>70063.23253634636</v>
+        <v>51074.46292113258</v>
       </c>
       <c r="E608">
-        <v>69266.07360737675</v>
+        <v>49567.99494255603</v>
       </c>
       <c r="F608">
-        <v>70860.39146531597</v>
+        <v>52580.93089970913</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -12713,13 +12713,13 @@
         <v>25</v>
       </c>
       <c r="D609">
-        <v>75036.34368780117</v>
+        <v>49376.30850637058</v>
       </c>
       <c r="E609">
-        <v>74000.52438403794</v>
+        <v>47786.83376969575</v>
       </c>
       <c r="F609">
-        <v>76072.1629915644</v>
+        <v>50965.78324304541</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -12733,13 +12733,13 @@
         <v>25</v>
       </c>
       <c r="D610">
-        <v>81612.93052716998</v>
+        <v>47600.92454192093</v>
       </c>
       <c r="E610">
-        <v>80309.89266408855</v>
+        <v>45933.41158119664</v>
       </c>
       <c r="F610">
-        <v>82915.96839025142</v>
+        <v>49268.43750264523</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -13153,13 +13153,13 @@
         <v>26</v>
       </c>
       <c r="D631">
-        <v>44787.08291923263</v>
+        <v>44801.06217967506</v>
       </c>
       <c r="E631">
-        <v>44598.14772943855</v>
+        <v>44614.38545896753</v>
       </c>
       <c r="F631">
-        <v>44976.01810902672</v>
+        <v>44987.7389003826</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -13173,13 +13173,13 @@
         <v>26</v>
       </c>
       <c r="D632">
-        <v>44722.09621835312</v>
+        <v>44755.65878639327</v>
       </c>
       <c r="E632">
-        <v>44378.9065884986</v>
+        <v>44411.89026091414</v>
       </c>
       <c r="F632">
-        <v>45065.28584820764</v>
+        <v>45099.42731187241</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -13193,13 +13193,13 @@
         <v>26</v>
       </c>
       <c r="D633">
-        <v>44642.48466963425</v>
+        <v>44712.24058154128</v>
       </c>
       <c r="E633">
-        <v>44163.10229172634</v>
+        <v>44235.23968956763</v>
       </c>
       <c r="F633">
-        <v>45121.86704754216</v>
+        <v>45189.24147351493</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -13213,13 +13213,13 @@
         <v>26</v>
       </c>
       <c r="D634">
-        <v>44580.59996452603</v>
+        <v>44674.71070744767</v>
       </c>
       <c r="E634">
-        <v>43954.15852554123</v>
+        <v>44065.43259315212</v>
       </c>
       <c r="F634">
-        <v>45207.04140351083</v>
+        <v>45283.98882174322</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -13233,13 +13233,13 @@
         <v>26</v>
       </c>
       <c r="D635">
-        <v>44525.715149335</v>
+        <v>44649.27194373948</v>
       </c>
       <c r="E635">
-        <v>43758.39665498211</v>
+        <v>43907.3968847552</v>
       </c>
       <c r="F635">
-        <v>45293.03364368789</v>
+        <v>45391.14700272375</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -13253,13 +13253,13 @@
         <v>26</v>
       </c>
       <c r="D636">
-        <v>44468.30677317278</v>
+        <v>44630.40828830888</v>
       </c>
       <c r="E636">
-        <v>43567.28040908191</v>
+        <v>43761.10786705239</v>
       </c>
       <c r="F636">
-        <v>45369.33313726365</v>
+        <v>45499.70870956537</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -13273,13 +13273,13 @@
         <v>26</v>
       </c>
       <c r="D637">
-        <v>44416.32052934916</v>
+        <v>44615.94429192556</v>
       </c>
       <c r="E637">
-        <v>43386.16813325343</v>
+        <v>43625.09594263874</v>
       </c>
       <c r="F637">
-        <v>45446.47292544488</v>
+        <v>45606.79264121238</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -13293,13 +13293,13 @@
         <v>26</v>
       </c>
       <c r="D638">
-        <v>44366.04349972574</v>
+        <v>44605.53968433928</v>
       </c>
       <c r="E638">
-        <v>43213.25146663876</v>
+        <v>43498.30657497331</v>
       </c>
       <c r="F638">
-        <v>45518.83553281272</v>
+        <v>45712.77279370525</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -13313,13 +13313,13 @@
         <v>26</v>
       </c>
       <c r="D639">
-        <v>44314.96761678121</v>
+        <v>44598.64746722344</v>
       </c>
       <c r="E639">
-        <v>43045.52651472372</v>
+        <v>43380.14339994425</v>
       </c>
       <c r="F639">
-        <v>45584.40871883871</v>
+        <v>45817.15153450263</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -13733,13 +13733,13 @@
         <v>27</v>
       </c>
       <c r="D660">
-        <v>167175.9245604273</v>
+        <v>166979.2895330391</v>
       </c>
       <c r="E660">
-        <v>166209.7486119679</v>
+        <v>166014.8076997477</v>
       </c>
       <c r="F660">
-        <v>168142.1005088867</v>
+        <v>167943.7713663305</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -13753,13 +13753,13 @@
         <v>27</v>
       </c>
       <c r="D661">
-        <v>167269.3807023302</v>
+        <v>166889.2978271386</v>
       </c>
       <c r="E661">
-        <v>165886.3998397757</v>
+        <v>165496.4845886596</v>
       </c>
       <c r="F661">
-        <v>168652.3615648848</v>
+        <v>168282.1110656176</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -13773,13 +13773,13 @@
         <v>27</v>
       </c>
       <c r="D662">
-        <v>167232.1766273492</v>
+        <v>166756.5353748923</v>
       </c>
       <c r="E662">
-        <v>165526.2245381571</v>
+        <v>165039.9481590924</v>
       </c>
       <c r="F662">
-        <v>168938.1287165413</v>
+        <v>168473.1225906922</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -13793,13 +13793,13 @@
         <v>27</v>
       </c>
       <c r="D663">
-        <v>167301.2455009462</v>
+        <v>166697.8078066683</v>
       </c>
       <c r="E663">
-        <v>165309.5139114459</v>
+        <v>164696.53685861</v>
       </c>
       <c r="F663">
-        <v>169292.9770904465</v>
+        <v>168699.0787547267</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -13813,13 +13813,13 @@
         <v>27</v>
       </c>
       <c r="D664">
-        <v>167304.1364194145</v>
+        <v>166676.8402462591</v>
       </c>
       <c r="E664">
-        <v>165053.7084185658</v>
+        <v>164427.3124760427</v>
       </c>
       <c r="F664">
-        <v>169554.5644202633</v>
+        <v>168926.3680164755</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -13833,13 +13833,13 @@
         <v>27</v>
       </c>
       <c r="D665">
-        <v>167298.4088658538</v>
+        <v>166703.0409304291</v>
       </c>
       <c r="E665">
-        <v>164810.6282700457</v>
+        <v>164223.3509049472</v>
       </c>
       <c r="F665">
-        <v>169786.1894616619</v>
+        <v>169182.7309559109</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -13853,13 +13853,13 @@
         <v>27</v>
       </c>
       <c r="D666">
-        <v>167241.481971257</v>
+        <v>166714.2288255352</v>
       </c>
       <c r="E666">
-        <v>164533.5449064488</v>
+        <v>164024.5116609487</v>
       </c>
       <c r="F666">
-        <v>169949.4190360653</v>
+        <v>169403.9459901216</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -13873,13 +13873,13 @@
         <v>27</v>
       </c>
       <c r="D667">
-        <v>167146.3344508994</v>
+        <v>166776.13180576</v>
       </c>
       <c r="E667">
-        <v>164232.5157410263</v>
+        <v>163887.9692394109</v>
       </c>
       <c r="F667">
-        <v>170060.1531607725</v>
+        <v>169664.2943721091</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -13893,13 +13893,13 @@
         <v>27</v>
       </c>
       <c r="D668">
-        <v>167127.6744409963</v>
+        <v>166899.6031297788</v>
       </c>
       <c r="E668">
-        <v>164020.0665427214</v>
+        <v>163826.1468450816</v>
       </c>
       <c r="F668">
-        <v>170235.2823392713</v>
+        <v>169973.0594144759</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -14313,13 +14313,13 @@
         <v>28</v>
       </c>
       <c r="D689">
-        <v>57611.91641756384</v>
+        <v>57592.20208063196</v>
       </c>
       <c r="E689">
-        <v>57366.31520249241</v>
+        <v>57333.23585561297</v>
       </c>
       <c r="F689">
-        <v>57857.51763263527</v>
+        <v>57851.16830565096</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -14333,13 +14333,13 @@
         <v>28</v>
       </c>
       <c r="D690">
-        <v>57558.83895642264</v>
+        <v>57546.95229811833</v>
       </c>
       <c r="E690">
-        <v>57171.36264267013</v>
+        <v>57141.26231126006</v>
       </c>
       <c r="F690">
-        <v>57946.31527017515</v>
+        <v>57952.64228497659</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -14353,13 +14353,13 @@
         <v>28</v>
       </c>
       <c r="D691">
-        <v>57488.8940117748</v>
+        <v>57464.61699090322</v>
       </c>
       <c r="E691">
-        <v>56988.17330678285</v>
+        <v>56950.29265005424</v>
       </c>
       <c r="F691">
-        <v>57989.61471676674</v>
+        <v>57978.9413317522</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -14373,13 +14373,13 @@
         <v>28</v>
       </c>
       <c r="D692">
-        <v>57462.88692191682</v>
+        <v>57406.10310928741</v>
       </c>
       <c r="E692">
-        <v>56886.33179261152</v>
+        <v>56818.99184636443</v>
       </c>
       <c r="F692">
-        <v>58039.44205122212</v>
+        <v>57993.21437221039</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -14393,13 +14393,13 @@
         <v>28</v>
       </c>
       <c r="D693">
-        <v>57410.86629184279</v>
+        <v>57328.91147541155</v>
       </c>
       <c r="E693">
-        <v>56785.59969748245</v>
+        <v>56691.8998541835</v>
       </c>
       <c r="F693">
-        <v>58036.13288620314</v>
+        <v>57965.9230966396</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -14413,13 +14413,13 @@
         <v>28</v>
       </c>
       <c r="D694">
-        <v>57300.61459701139</v>
+        <v>57214.72881205088</v>
       </c>
       <c r="E694">
-        <v>56617.20759272454</v>
+        <v>56518.54457819639</v>
       </c>
       <c r="F694">
-        <v>57984.02160129825</v>
+        <v>57910.91304590538</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -14433,13 +14433,13 @@
         <v>28</v>
       </c>
       <c r="D695">
-        <v>57260.97481025832</v>
+        <v>57133.5592536167</v>
       </c>
       <c r="E695">
-        <v>56519.1052131784</v>
+        <v>56378.39857656466</v>
       </c>
       <c r="F695">
-        <v>58002.84440733823</v>
+        <v>57888.71993066875</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -14453,13 +14453,13 @@
         <v>28</v>
       </c>
       <c r="D696">
-        <v>57186.93443078611</v>
+        <v>57057.42960682517</v>
       </c>
       <c r="E696">
-        <v>56400.77024751522</v>
+        <v>56257.46931873068</v>
       </c>
       <c r="F696">
-        <v>57973.098614057</v>
+        <v>57857.38989491966</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -14473,13 +14473,13 @@
         <v>28</v>
       </c>
       <c r="D697">
-        <v>57095.96909218124</v>
+        <v>56946.70369570371</v>
       </c>
       <c r="E697">
-        <v>56263.39788937609</v>
+        <v>56100.35000273471</v>
       </c>
       <c r="F697">
-        <v>57928.5402949864</v>
+        <v>57793.05738867271</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -14893,13 +14893,13 @@
         <v>29</v>
       </c>
       <c r="D718">
-        <v>39449.6671808598</v>
+        <v>39465.70784158575</v>
       </c>
       <c r="E718">
-        <v>39375.83865829153</v>
+        <v>39387.9364801535</v>
       </c>
       <c r="F718">
-        <v>39523.49570342807</v>
+        <v>39543.47920301799</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -14913,13 +14913,13 @@
         <v>29</v>
       </c>
       <c r="D719">
-        <v>39273.79430194767</v>
+        <v>39282.19268749141</v>
       </c>
       <c r="E719">
-        <v>39066.70366338016</v>
+        <v>39067.36507399761</v>
       </c>
       <c r="F719">
-        <v>39480.88494051517</v>
+        <v>39497.02030098522</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -14933,13 +14933,13 @@
         <v>29</v>
       </c>
       <c r="D720">
-        <v>39036.90365479597</v>
+        <v>39031.64053760013</v>
       </c>
       <c r="E720">
-        <v>38704.41479100849</v>
+        <v>38688.04069232485</v>
       </c>
       <c r="F720">
-        <v>39369.39251858345</v>
+        <v>39375.2403828754</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -14953,13 +14953,13 @@
         <v>29</v>
       </c>
       <c r="D721">
-        <v>38775.52355874547</v>
+        <v>38774.76533518676</v>
       </c>
       <c r="E721">
-        <v>38329.08497394208</v>
+        <v>38316.3581685131</v>
       </c>
       <c r="F721">
-        <v>39221.96214354885</v>
+        <v>39233.17250186043</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -14973,13 +14973,13 @@
         <v>29</v>
       </c>
       <c r="D722">
-        <v>38477.35866055691</v>
+        <v>38473.98249797574</v>
       </c>
       <c r="E722">
-        <v>37928.19827010799</v>
+        <v>37912.43985142359</v>
       </c>
       <c r="F722">
-        <v>39026.51905100582</v>
+        <v>39035.52514452788</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -14993,13 +14993,13 @@
         <v>29</v>
       </c>
       <c r="D723">
-        <v>38168.05761630496</v>
+        <v>38173.48933405599</v>
       </c>
       <c r="E723">
-        <v>37526.82133211825</v>
+        <v>37520.10339108921</v>
       </c>
       <c r="F723">
-        <v>38809.29390049166</v>
+        <v>38826.87527702277</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -15013,13 +15013,13 @@
         <v>29</v>
       </c>
       <c r="D724">
-        <v>37834.24589599704</v>
+        <v>37846.83933836364</v>
       </c>
       <c r="E724">
-        <v>37108.95352827197</v>
+        <v>37109.93800667599</v>
       </c>
       <c r="F724">
-        <v>38559.53826372211</v>
+        <v>38583.74067005129</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -15033,13 +15033,13 @@
         <v>29</v>
       </c>
       <c r="D725">
-        <v>37494.8231784313</v>
+        <v>37526.32956836373</v>
       </c>
       <c r="E725">
-        <v>36693.0908667317</v>
+        <v>36713.39312769842</v>
       </c>
       <c r="F725">
-        <v>38296.55549013091</v>
+        <v>38339.26600902903</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -15053,13 +15053,13 @@
         <v>29</v>
       </c>
       <c r="D726">
-        <v>37139.12919918545</v>
+        <v>37180.96100570413</v>
       </c>
       <c r="E726">
-        <v>36266.34436024357</v>
+        <v>36297.69500046068</v>
       </c>
       <c r="F726">
-        <v>38011.91403812733</v>
+        <v>38064.22701094757</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -15473,13 +15473,13 @@
         <v>30</v>
       </c>
       <c r="D747">
-        <v>100231.823435187</v>
+        <v>100491.8742892836</v>
       </c>
       <c r="E747">
-        <v>99991.30241389846</v>
+        <v>100332.7503823181</v>
       </c>
       <c r="F747">
-        <v>100472.3444564756</v>
+        <v>100650.9981962491</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15493,13 +15493,13 @@
         <v>30</v>
       </c>
       <c r="D748">
-        <v>99806.34229797473</v>
+        <v>100154.6267784939</v>
       </c>
       <c r="E748">
-        <v>99454.05138161874</v>
+        <v>99880.83906441824</v>
       </c>
       <c r="F748">
-        <v>100158.6332143307</v>
+        <v>100428.4144925696</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -15513,13 +15513,13 @@
         <v>30</v>
       </c>
       <c r="D749">
-        <v>99463.64045194363</v>
+        <v>100019.2638024387</v>
       </c>
       <c r="E749">
-        <v>99014.21958932484</v>
+        <v>99628.57088767791</v>
       </c>
       <c r="F749">
-        <v>99913.06131456242</v>
+        <v>100409.9567171995</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -15533,13 +15533,13 @@
         <v>30</v>
       </c>
       <c r="D750">
-        <v>99097.40534403591</v>
+        <v>99899.14100646897</v>
       </c>
       <c r="E750">
-        <v>98557.56703093444</v>
+        <v>99402.6953859163</v>
       </c>
       <c r="F750">
-        <v>99637.24365713738</v>
+        <v>100395.5866270216</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -15553,13 +15553,13 @@
         <v>30</v>
       </c>
       <c r="D751">
-        <v>98785.21190097394</v>
+        <v>99665.16843753397</v>
       </c>
       <c r="E751">
-        <v>98156.61158233925</v>
+        <v>99070.53602716188</v>
       </c>
       <c r="F751">
-        <v>99413.81221960863</v>
+        <v>100259.8008479061</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -15573,13 +15573,13 @@
         <v>30</v>
       </c>
       <c r="D752">
-        <v>98454.54513726136</v>
+        <v>99649.4785797299</v>
       </c>
       <c r="E752">
-        <v>97739.55393004307</v>
+        <v>98955.43325887439</v>
       </c>
       <c r="F752">
-        <v>99169.53634447965</v>
+        <v>100343.5239005854</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -15593,13 +15593,13 @@
         <v>30</v>
       </c>
       <c r="D753">
-        <v>98159.76479560211</v>
+        <v>99431.13024717777</v>
       </c>
       <c r="E753">
-        <v>97359.21227144446</v>
+        <v>98647.71506394507</v>
       </c>
       <c r="F753">
-        <v>98960.31731975976</v>
+        <v>100214.5454304105</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -15613,13 +15613,13 @@
         <v>30</v>
       </c>
       <c r="D754">
-        <v>97836.04973710989</v>
+        <v>99337.89541851261</v>
       </c>
       <c r="E754">
-        <v>96952.90986088195</v>
+        <v>98463.28515641882</v>
       </c>
       <c r="F754">
-        <v>98719.18961333783</v>
+        <v>100212.5056806064</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -15633,13 +15633,13 @@
         <v>30</v>
       </c>
       <c r="D755">
-        <v>97530.81026257924</v>
+        <v>99260.1705680148</v>
       </c>
       <c r="E755">
-        <v>96567.40002281361</v>
+        <v>98298.84088785034</v>
       </c>
       <c r="F755">
-        <v>98494.22050234486</v>
+        <v>100221.5002481793</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>31</v>
       </c>
       <c r="D776">
-        <v>38315.61942026629</v>
+        <v>38340.51936677804</v>
       </c>
       <c r="E776">
-        <v>38212.19395664419</v>
+        <v>38227.05867598148</v>
       </c>
       <c r="F776">
-        <v>38419.04488388839</v>
+        <v>38453.9800575746</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16073,13 +16073,13 @@
         <v>31</v>
       </c>
       <c r="D777">
-        <v>38238.73130332309</v>
+        <v>38269.3077326411</v>
       </c>
       <c r="E777">
-        <v>37999.39091190267</v>
+        <v>38025.98754052052</v>
       </c>
       <c r="F777">
-        <v>38478.07169474351</v>
+        <v>38512.62792476168</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -16093,13 +16093,13 @@
         <v>31</v>
       </c>
       <c r="D778">
-        <v>38187.79003951456</v>
+        <v>38219.28946104164</v>
       </c>
       <c r="E778">
-        <v>37827.95383414443</v>
+        <v>37867.3449775482</v>
       </c>
       <c r="F778">
-        <v>38547.62624488468</v>
+        <v>38571.23394453508</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -16113,13 +16113,13 @@
         <v>31</v>
       </c>
       <c r="D779">
-        <v>38137.65113079173</v>
+        <v>38193.47372724056</v>
       </c>
       <c r="E779">
-        <v>37641.85017424849</v>
+        <v>37716.6888012599</v>
       </c>
       <c r="F779">
-        <v>38633.45208733498</v>
+        <v>38670.25865322122</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -16133,13 +16133,13 @@
         <v>31</v>
       </c>
       <c r="D780">
-        <v>38117.48742825599</v>
+        <v>38182.09298657353</v>
       </c>
       <c r="E780">
-        <v>37499.19052714139</v>
+        <v>37589.44870985606</v>
       </c>
       <c r="F780">
-        <v>38735.78432937059</v>
+        <v>38774.737263291</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -16153,13 +16153,13 @@
         <v>31</v>
       </c>
       <c r="D781">
-        <v>38074.83277945001</v>
+        <v>38185.44583541712</v>
       </c>
       <c r="E781">
-        <v>37346.70765551374</v>
+        <v>37484.85613287301</v>
       </c>
       <c r="F781">
-        <v>38802.95790338629</v>
+        <v>38886.03553796124</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -16173,13 +16173,13 @@
         <v>31</v>
       </c>
       <c r="D782">
-        <v>38063.87885555027</v>
+        <v>38198.23845300252</v>
       </c>
       <c r="E782">
-        <v>37230.03817633388</v>
+        <v>37397.1812310243</v>
       </c>
       <c r="F782">
-        <v>38897.71953476666</v>
+        <v>38999.29567498074</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -16193,13 +16193,13 @@
         <v>31</v>
       </c>
       <c r="D783">
-        <v>38041.70607369142</v>
+        <v>38215.96002066385</v>
       </c>
       <c r="E783">
-        <v>37114.24392755481</v>
+        <v>37325.69188219353</v>
       </c>
       <c r="F783">
-        <v>38969.16821982803</v>
+        <v>39106.22815913417</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -16213,13 +16213,13 @@
         <v>31</v>
       </c>
       <c r="D784">
-        <v>38016.71661454115</v>
+        <v>38238.65478751079</v>
       </c>
       <c r="E784">
-        <v>37001.08976234054</v>
+        <v>37268.63775278709</v>
       </c>
       <c r="F784">
-        <v>39032.34346674175</v>
+        <v>39208.6718222345</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>32</v>
       </c>
       <c r="D805">
-        <v>23649.41875678159</v>
+        <v>23689.05950196031</v>
       </c>
       <c r="E805">
-        <v>23574.23263379448</v>
+        <v>23612.69477594969</v>
       </c>
       <c r="F805">
-        <v>23724.6048797687</v>
+        <v>23765.42422797092</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>32</v>
       </c>
       <c r="D806">
-        <v>23559.43779090189</v>
+        <v>23618.31535883241</v>
       </c>
       <c r="E806">
-        <v>23412.97784076824</v>
+        <v>23477.81633138952</v>
       </c>
       <c r="F806">
-        <v>23705.89774103555</v>
+        <v>23758.81438627529</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>32</v>
       </c>
       <c r="D807">
-        <v>23573.75834655551</v>
+        <v>23603.88727601308</v>
       </c>
       <c r="E807">
-        <v>23328.22301945763</v>
+        <v>23369.00803524492</v>
       </c>
       <c r="F807">
-        <v>23819.2936736534</v>
+        <v>23838.76651678123</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -16693,13 +16693,13 @@
         <v>32</v>
       </c>
       <c r="D808">
-        <v>23611.23335741887</v>
+        <v>23575.58801014354</v>
       </c>
       <c r="E808">
-        <v>23308.69891679615</v>
+        <v>23286.64612853679</v>
       </c>
       <c r="F808">
-        <v>23913.76779804159</v>
+        <v>23864.5298917503</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -16713,13 +16713,13 @@
         <v>32</v>
       </c>
       <c r="D809">
-        <v>23660.41594360932</v>
+        <v>23575.83445253672</v>
       </c>
       <c r="E809">
-        <v>23308.32149701166</v>
+        <v>23238.97058394713</v>
       </c>
       <c r="F809">
-        <v>24012.51039020698</v>
+        <v>23912.69832112632</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -16733,13 +16733,13 @@
         <v>32</v>
       </c>
       <c r="D810">
-        <v>23666.57010954638</v>
+        <v>23579.28865461303</v>
       </c>
       <c r="E810">
-        <v>23292.86979098056</v>
+        <v>23218.87300401754</v>
       </c>
       <c r="F810">
-        <v>24040.2704281122</v>
+        <v>23939.70430520852</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -16753,13 +16753,13 @@
         <v>32</v>
       </c>
       <c r="D811">
-        <v>23709.42278328861</v>
+        <v>23587.37678057376</v>
       </c>
       <c r="E811">
-        <v>23324.44329433298</v>
+        <v>23216.55674082804</v>
       </c>
       <c r="F811">
-        <v>24094.40227224425</v>
+        <v>23958.19682031947</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -16773,13 +16773,13 @@
         <v>32</v>
       </c>
       <c r="D812">
-        <v>23775.50512011233</v>
+        <v>23598.63134901106</v>
       </c>
       <c r="E812">
-        <v>23389.72665684627</v>
+        <v>23226.40327572715</v>
       </c>
       <c r="F812">
-        <v>24161.28358337838</v>
+        <v>23970.85942229497</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -16793,13 +16793,13 @@
         <v>32</v>
       </c>
       <c r="D813">
-        <v>23836.95569054012</v>
+        <v>23603.78249806037</v>
       </c>
       <c r="E813">
-        <v>23452.74030954752</v>
+        <v>23233.50964437404</v>
       </c>
       <c r="F813">
-        <v>24221.17107153272</v>
+        <v>23974.0553517467</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>33</v>
       </c>
       <c r="D834">
-        <v>198891.9939896084</v>
+        <v>198663.4410585809</v>
       </c>
       <c r="E834">
-        <v>198038.2263067965</v>
+        <v>197859.4759313629</v>
       </c>
       <c r="F834">
-        <v>199745.7616724203</v>
+        <v>199467.4061857988</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>33</v>
       </c>
       <c r="D835">
-        <v>197745.5416932004</v>
+        <v>197469.2728807715</v>
       </c>
       <c r="E835">
-        <v>196512.8902340856</v>
+        <v>196278.0477994054</v>
       </c>
       <c r="F835">
-        <v>198978.1931523152</v>
+        <v>198660.4979621376</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>33</v>
       </c>
       <c r="D836">
-        <v>198090.7637741855</v>
+        <v>197250.5413350906</v>
       </c>
       <c r="E836">
-        <v>196579.6670968788</v>
+        <v>195762.8934394183</v>
       </c>
       <c r="F836">
-        <v>199601.8604514922</v>
+        <v>198738.1892307629</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>33</v>
       </c>
       <c r="D837">
-        <v>198511.7048485601</v>
+        <v>197435.8693930559</v>
       </c>
       <c r="E837">
-        <v>196766.0339162309</v>
+        <v>195708.7166480774</v>
       </c>
       <c r="F837">
-        <v>200257.3757808893</v>
+        <v>199163.0221380344</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>33</v>
       </c>
       <c r="D838">
-        <v>198530.9648593782</v>
+        <v>196905.5909090064</v>
       </c>
       <c r="E838">
-        <v>196577.8578367399</v>
+        <v>194967.931180778</v>
       </c>
       <c r="F838">
-        <v>200484.0718820165</v>
+        <v>198843.2506372348</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17313,13 +17313,13 @@
         <v>33</v>
       </c>
       <c r="D839">
-        <v>198274.1773858769</v>
+        <v>196940.6875430735</v>
       </c>
       <c r="E839">
-        <v>196129.9080852442</v>
+        <v>194807.9234460498</v>
       </c>
       <c r="F839">
-        <v>200418.4466865096</v>
+        <v>199073.4516400972</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -17333,13 +17333,13 @@
         <v>33</v>
       </c>
       <c r="D840">
-        <v>199186.5112608987</v>
+        <v>196270.2128084915</v>
       </c>
       <c r="E840">
-        <v>196876.3222745429</v>
+        <v>193966.7432208754</v>
       </c>
       <c r="F840">
-        <v>201496.7002472545</v>
+        <v>198573.6823961077</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -17353,13 +17353,13 @@
         <v>33</v>
       </c>
       <c r="D841">
-        <v>198638.5672810279</v>
+        <v>196575.6782737925</v>
       </c>
       <c r="E841">
-        <v>196160.5064486956</v>
+        <v>194106.1141451699</v>
       </c>
       <c r="F841">
-        <v>201116.6281133602</v>
+        <v>199045.2424024152</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -17373,13 +17373,13 @@
         <v>33</v>
       </c>
       <c r="D842">
-        <v>199452.8372474228</v>
+        <v>196268.5356548788</v>
       </c>
       <c r="E842">
-        <v>196829.8132613047</v>
+        <v>193647.0834394918</v>
       </c>
       <c r="F842">
-        <v>202075.8612335409</v>
+        <v>198889.9878702659</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -17793,13 +17793,13 @@
         <v>34</v>
       </c>
       <c r="D863">
-        <v>295833.2023065714</v>
+        <v>293411.9722260925</v>
       </c>
       <c r="E863">
-        <v>294991.9272470624</v>
+        <v>291506.6227678356</v>
       </c>
       <c r="F863">
-        <v>296674.4773660803</v>
+        <v>295317.3216843494</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -17813,13 +17813,13 @@
         <v>34</v>
       </c>
       <c r="D864">
-        <v>296699.730461737</v>
+        <v>289400.6638552273</v>
       </c>
       <c r="E864">
-        <v>295513.8503498358</v>
+        <v>286707.4807506205</v>
       </c>
       <c r="F864">
-        <v>297885.6105736383</v>
+        <v>292093.846959834</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -17833,13 +17833,13 @@
         <v>34</v>
       </c>
       <c r="D865">
-        <v>296605.9634062066</v>
+        <v>286753.5397525379</v>
       </c>
       <c r="E865">
-        <v>295150.8137449445</v>
+        <v>283458.293427609</v>
       </c>
       <c r="F865">
-        <v>298061.1130674687</v>
+        <v>290048.7860774667</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -17853,13 +17853,13 @@
         <v>34</v>
       </c>
       <c r="D866">
-        <v>296837.0620417067</v>
+        <v>283038.6543178804</v>
       </c>
       <c r="E866">
-        <v>295160.686340401</v>
+        <v>279234.3194640521</v>
       </c>
       <c r="F866">
-        <v>298513.4377430124</v>
+        <v>286842.9891717087</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -17873,13 +17873,13 @@
         <v>34</v>
       </c>
       <c r="D867">
-        <v>297779.0312062553</v>
+        <v>280481.4290102629</v>
       </c>
       <c r="E867">
-        <v>295904.0196811189</v>
+        <v>276226.6511534768</v>
       </c>
       <c r="F867">
-        <v>299654.0427313916</v>
+        <v>284736.206867049</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -17893,13 +17893,13 @@
         <v>34</v>
       </c>
       <c r="D868">
-        <v>298090.5946598849</v>
+        <v>276054.6656989278</v>
       </c>
       <c r="E868">
-        <v>296032.1525981713</v>
+        <v>271393.8542097966</v>
       </c>
       <c r="F868">
-        <v>300149.0367215986</v>
+        <v>280715.4771880589</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -17913,13 +17913,13 @@
         <v>34</v>
       </c>
       <c r="D869">
-        <v>297614.5185041441</v>
+        <v>273284.704027469</v>
       </c>
       <c r="E869">
-        <v>295390.314862693</v>
+        <v>268251.9075175174</v>
       </c>
       <c r="F869">
-        <v>299838.7221455952</v>
+        <v>278317.5005374206</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -17933,13 +17933,13 @@
         <v>34</v>
       </c>
       <c r="D870">
-        <v>297080.5952292482</v>
+        <v>269134.1155844799</v>
       </c>
       <c r="E870">
-        <v>294705.5264192709</v>
+        <v>263753.9633476316</v>
       </c>
       <c r="F870">
-        <v>299455.6640392256</v>
+        <v>274514.2678213282</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -17953,13 +17953,13 @@
         <v>34</v>
       </c>
       <c r="D871">
-        <v>297430.1515263918</v>
+        <v>266227.7465460916</v>
       </c>
       <c r="E871">
-        <v>294910.8106142496</v>
+        <v>260520.252033688</v>
       </c>
       <c r="F871">
-        <v>299949.492438534</v>
+        <v>271935.2410584951</v>
       </c>
     </row>
     <row r="872" spans="1:6">
@@ -18373,13 +18373,13 @@
         <v>35</v>
       </c>
       <c r="D892">
-        <v>153833.7700831205</v>
+        <v>154099.3938271623</v>
       </c>
       <c r="E892">
-        <v>152938.8592204865</v>
+        <v>153197.9491534653</v>
       </c>
       <c r="F892">
-        <v>154728.6809457544</v>
+        <v>155000.8385008592</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18393,13 +18393,13 @@
         <v>35</v>
       </c>
       <c r="D893">
-        <v>153461.9216593544</v>
+        <v>153837.8680390113</v>
       </c>
       <c r="E893">
-        <v>152226.0454233095</v>
+        <v>152592.9624622655</v>
       </c>
       <c r="F893">
-        <v>154697.7978953993</v>
+        <v>155082.7736157571</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18413,13 +18413,13 @@
         <v>35</v>
       </c>
       <c r="D894">
-        <v>152969.8216368526</v>
+        <v>153621.3149279052</v>
       </c>
       <c r="E894">
-        <v>151490.8894852489</v>
+        <v>152131.5706958205</v>
       </c>
       <c r="F894">
-        <v>154448.7537884563</v>
+        <v>155111.0591599898</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18433,13 +18433,13 @@
         <v>35</v>
       </c>
       <c r="D895">
-        <v>152537.470672456</v>
+        <v>153397.83881708</v>
       </c>
       <c r="E895">
-        <v>150867.9741719277</v>
+        <v>151716.1295849492</v>
       </c>
       <c r="F895">
-        <v>154206.9671729843</v>
+        <v>155079.5480492108</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18453,13 +18453,13 @@
         <v>35</v>
       </c>
       <c r="D896">
-        <v>152080.4168369904</v>
+        <v>153194.9647403178</v>
       </c>
       <c r="E896">
-        <v>150254.6657836171</v>
+        <v>151355.8501297401</v>
       </c>
       <c r="F896">
-        <v>153906.1678903637</v>
+        <v>155034.0793508955</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18473,13 +18473,13 @@
         <v>35</v>
       </c>
       <c r="D897">
-        <v>151595.5780090507</v>
+        <v>152998.9848489827</v>
       </c>
       <c r="E897">
-        <v>149638.2691799085</v>
+        <v>151027.3415831385</v>
       </c>
       <c r="F897">
-        <v>153552.8868381928</v>
+        <v>154970.6281148269</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18493,13 +18493,13 @@
         <v>35</v>
       </c>
       <c r="D898">
-        <v>151171.7560449002</v>
+        <v>152811.5380812743</v>
       </c>
       <c r="E898">
-        <v>149101.7140580986</v>
+        <v>150726.3280595376</v>
       </c>
       <c r="F898">
-        <v>153241.7980317018</v>
+        <v>154896.748103011</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18513,13 +18513,13 @@
         <v>35</v>
       </c>
       <c r="D899">
-        <v>150677.0544771935</v>
+        <v>152636.8555397143</v>
       </c>
       <c r="E899">
-        <v>148509.1806806</v>
+        <v>150453.0888941976</v>
       </c>
       <c r="F899">
-        <v>152844.928273787</v>
+        <v>154820.622185231</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18533,13 +18533,13 @@
         <v>35</v>
       </c>
       <c r="D900">
-        <v>150257.3655216927</v>
+        <v>152464.4129209262</v>
       </c>
       <c r="E900">
-        <v>148003.7752128921</v>
+        <v>150194.2934981092</v>
       </c>
       <c r="F900">
-        <v>152510.9558304934</v>
+        <v>154734.5323437432</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18953,13 +18953,13 @@
         <v>36</v>
       </c>
       <c r="D921">
-        <v>122975.6798509325</v>
+        <v>123206.7365399476</v>
       </c>
       <c r="E921">
-        <v>122467.5880113731</v>
+        <v>122549.2864512351</v>
       </c>
       <c r="F921">
-        <v>123483.7716904918</v>
+        <v>123864.1866286602</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -18973,13 +18973,13 @@
         <v>36</v>
       </c>
       <c r="D922">
-        <v>123184.4304518776</v>
+        <v>123507.7268857811</v>
       </c>
       <c r="E922">
-        <v>122484.1384878701</v>
+        <v>122599.4189073903</v>
       </c>
       <c r="F922">
-        <v>123884.7224158851</v>
+        <v>124416.034864172</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18993,13 @@
         <v>36</v>
       </c>
       <c r="D923">
-        <v>123639.7893436949</v>
+        <v>124074.9669819062</v>
       </c>
       <c r="E923">
-        <v>122801.8189118916</v>
+        <v>122971.3603023676</v>
       </c>
       <c r="F923">
-        <v>124477.7597754983</v>
+        <v>125178.5736614449</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +19013,13 @@
         <v>36</v>
       </c>
       <c r="D924">
-        <v>124095.8648816402</v>
+        <v>124625.850233835</v>
       </c>
       <c r="E924">
-        <v>123151.2644480957</v>
+        <v>123356.7046630745</v>
       </c>
       <c r="F924">
-        <v>125040.4653151846</v>
+        <v>125894.9958045956</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +19033,13 @@
         <v>36</v>
       </c>
       <c r="D925">
-        <v>124535.881879247</v>
+        <v>125172.9044906711</v>
       </c>
       <c r="E925">
-        <v>123497.9428133367</v>
+        <v>123757.3993557113</v>
       </c>
       <c r="F925">
-        <v>125573.8209451573</v>
+        <v>126588.4096256309</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +19053,13 @@
         <v>36</v>
       </c>
       <c r="D926">
-        <v>125125.9162871109</v>
+        <v>125828.8081944779</v>
       </c>
       <c r="E926">
-        <v>124009.3624971417</v>
+        <v>124280.7650503916</v>
       </c>
       <c r="F926">
-        <v>126242.4700770801</v>
+        <v>127376.8513385643</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +19073,13 @@
         <v>36</v>
       </c>
       <c r="D927">
-        <v>125485.6235140271</v>
+        <v>126358.2008014569</v>
       </c>
       <c r="E927">
-        <v>124288.813631152</v>
+        <v>124688.0625224291</v>
       </c>
       <c r="F927">
-        <v>126682.4333969021</v>
+        <v>128028.3390804846</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19093,13 @@
         <v>36</v>
       </c>
       <c r="D928">
-        <v>126040.7119857209</v>
+        <v>126984.923198215</v>
       </c>
       <c r="E928">
-        <v>124768.2243906909</v>
+        <v>125201.0665133539</v>
       </c>
       <c r="F928">
-        <v>127313.199580751</v>
+        <v>128768.7798830761</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19113,13 @@
         <v>36</v>
       </c>
       <c r="D929">
-        <v>126528.0105960037</v>
+        <v>127599.6358250972</v>
       </c>
       <c r="E929">
-        <v>125184.4393013174</v>
+        <v>125708.8505503896</v>
       </c>
       <c r="F929">
-        <v>127871.58189069</v>
+        <v>129490.4210998049</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19533,13 +19533,13 @@
         <v>37</v>
       </c>
       <c r="D950">
-        <v>212143.0431343724</v>
+        <v>212186.8729464927</v>
       </c>
       <c r="E950">
-        <v>211251.287840537</v>
+        <v>211311.371772842</v>
       </c>
       <c r="F950">
-        <v>213034.7984282079</v>
+        <v>213062.3741201434</v>
       </c>
     </row>
     <row r="951" spans="1:6">
@@ -19553,13 +19553,13 @@
         <v>37</v>
       </c>
       <c r="D951">
-        <v>212043.6029977726</v>
+        <v>212110.1881581935</v>
       </c>
       <c r="E951">
-        <v>210797.1364280235</v>
+        <v>210888.1686182949</v>
       </c>
       <c r="F951">
-        <v>213290.0695675218</v>
+        <v>213332.2076980921</v>
       </c>
     </row>
     <row r="952" spans="1:6">
@@ -19573,13 +19573,13 @@
         <v>37</v>
       </c>
       <c r="D952">
-        <v>211976.3578653665</v>
+        <v>212063.7187839574</v>
       </c>
       <c r="E952">
-        <v>210465.3067880114</v>
+        <v>210583.4675547522</v>
       </c>
       <c r="F952">
-        <v>213487.4089427216</v>
+        <v>213543.9700131627</v>
       </c>
     </row>
     <row r="953" spans="1:6">
@@ -19593,13 +19593,13 @@
         <v>37</v>
       </c>
       <c r="D953">
-        <v>211940.1568495925</v>
+        <v>212048.4514936065</v>
       </c>
       <c r="E953">
-        <v>210209.3380137401</v>
+        <v>210353.5364260921</v>
       </c>
       <c r="F953">
-        <v>213670.9756854449</v>
+        <v>213743.3665611209</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19613,13 @@
         <v>37</v>
       </c>
       <c r="D954">
-        <v>211950.7217396239</v>
+        <v>212066.4690833357</v>
       </c>
       <c r="E954">
-        <v>210025.4682173352</v>
+        <v>210182.2717250891</v>
       </c>
       <c r="F954">
-        <v>213875.9752619127</v>
+        <v>213950.6664415823</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19633,13 @@
         <v>37</v>
       </c>
       <c r="D955">
-        <v>212000.2237114876</v>
+        <v>212118.6601327344</v>
       </c>
       <c r="E955">
-        <v>209898.3746003109</v>
+        <v>210061.930432372</v>
       </c>
       <c r="F955">
-        <v>214102.0728226644</v>
+        <v>214175.3898330967</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19653,13 @@
         <v>37</v>
       </c>
       <c r="D956">
-        <v>212084.7450284985</v>
+        <v>212198.6642266905</v>
       </c>
       <c r="E956">
-        <v>209819.9802971889</v>
+        <v>209982.4517273862</v>
       </c>
       <c r="F956">
-        <v>214349.5097598081</v>
+        <v>214414.8767259947</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19673,13 @@
         <v>37</v>
       </c>
       <c r="D957">
-        <v>212185.8627643991</v>
+        <v>212296.5757139611</v>
       </c>
       <c r="E957">
-        <v>209769.1316708434</v>
+        <v>209931.6128006033</v>
       </c>
       <c r="F957">
-        <v>214602.5938579548</v>
+        <v>214661.5386273189</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19693,13 @@
         <v>37</v>
       </c>
       <c r="D958">
-        <v>212294.1215717504</v>
+        <v>212401.8186207368</v>
       </c>
       <c r="E958">
-        <v>209734.4304857758</v>
+        <v>209896.9785644151</v>
       </c>
       <c r="F958">
-        <v>214853.8126577251</v>
+        <v>214906.6586770584</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -20113,13 +20113,7 @@
         <v>38</v>
       </c>
       <c r="D979">
-        <v>18058.06554261291</v>
-      </c>
-      <c r="E979">
-        <v>17907.0603491877</v>
-      </c>
-      <c r="F979">
-        <v>18209.07073603811</v>
+        <v>-12976827173636.91</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -20133,13 +20127,7 @@
         <v>38</v>
       </c>
       <c r="D980">
-        <v>17691.30639305867</v>
-      </c>
-      <c r="E980">
-        <v>17381.56583195954</v>
-      </c>
-      <c r="F980">
-        <v>18001.04695415779</v>
+        <v>-14703958041948.01</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -20153,13 +20141,7 @@
         <v>38</v>
       </c>
       <c r="D981">
-        <v>17302.35687245309</v>
-      </c>
-      <c r="E981">
-        <v>16886.21495775615</v>
-      </c>
-      <c r="F981">
-        <v>17718.49878715003</v>
+        <v>-16575860584803.14</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -20173,13 +20155,7 @@
         <v>38</v>
       </c>
       <c r="D982">
-        <v>16878.02025655959</v>
-      </c>
-      <c r="E982">
-        <v>16361.45338854015</v>
-      </c>
-      <c r="F982">
-        <v>17394.58712457904</v>
+        <v>-18595731839156.78</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -20193,13 +20169,7 @@
         <v>38</v>
       </c>
       <c r="D983">
-        <v>16433.10902791479</v>
-      </c>
-      <c r="E983">
-        <v>15831.13848822364</v>
-      </c>
-      <c r="F983">
-        <v>17035.07956760595</v>
+        <v>-20771493536954.41</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -20213,13 +20183,7 @@
         <v>38</v>
       </c>
       <c r="D984">
-        <v>15972.15971099325</v>
-      </c>
-      <c r="E984">
-        <v>15296.58328026547</v>
-      </c>
-      <c r="F984">
-        <v>16647.73614172102</v>
+        <v>-23106339404744.54</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20233,13 +20197,7 @@
         <v>38</v>
       </c>
       <c r="D985">
-        <v>15485.03928483119</v>
-      </c>
-      <c r="E985">
-        <v>14739.06573105394</v>
-      </c>
-      <c r="F985">
-        <v>16231.01283860843</v>
+        <v>-25608187819072.49</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20253,13 +20211,7 @@
         <v>38</v>
       </c>
       <c r="D986">
-        <v>14986.32569331588</v>
-      </c>
-      <c r="E986">
-        <v>14179.27208783908</v>
-      </c>
-      <c r="F986">
-        <v>15793.37929879269</v>
+        <v>-28280229105847.33</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20273,13 +20225,7 @@
         <v>38</v>
       </c>
       <c r="D987">
-        <v>14467.33180159923</v>
-      </c>
-      <c r="E987">
-        <v>13601.19564389808</v>
-      </c>
-      <c r="F987">
-        <v>15333.46795930038</v>
+        <v>-31130378195833.35</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20693,13 +20639,13 @@
         <v>39</v>
       </c>
       <c r="D1008">
-        <v>157180.2465362438</v>
+        <v>157434.4361739723</v>
       </c>
       <c r="E1008">
-        <v>156582.351939328</v>
+        <v>156951.5308353975</v>
       </c>
       <c r="F1008">
-        <v>157778.1411331595</v>
+        <v>157917.3415125472</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -20713,13 +20659,13 @@
         <v>39</v>
       </c>
       <c r="D1009">
-        <v>156528.7074832169</v>
+        <v>156888.3595907351</v>
       </c>
       <c r="E1009">
-        <v>155706.7241024066</v>
+        <v>156222.1774247355</v>
       </c>
       <c r="F1009">
-        <v>157350.6908640272</v>
+        <v>157554.5417567348</v>
       </c>
     </row>
     <row r="1010" spans="1:6">
@@ -20733,13 +20679,13 @@
         <v>39</v>
       </c>
       <c r="D1010">
-        <v>155844.2575840336</v>
+        <v>156412.6604065384</v>
       </c>
       <c r="E1010">
-        <v>154852.2128784357</v>
+        <v>155609.6141345807</v>
       </c>
       <c r="F1010">
-        <v>156836.3022896315</v>
+        <v>157215.7066784962</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -20753,13 +20699,13 @@
         <v>39</v>
       </c>
       <c r="D1011">
-        <v>155125.7307731582</v>
+        <v>155881.6701814859</v>
       </c>
       <c r="E1011">
-        <v>153990.682531757</v>
+        <v>154957.7473220778</v>
       </c>
       <c r="F1011">
-        <v>156260.7790145594</v>
+        <v>156805.5930408939</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -20773,13 +20719,13 @@
         <v>39</v>
       </c>
       <c r="D1012">
-        <v>154376.4835806435</v>
+        <v>155308.5197184237</v>
       </c>
       <c r="E1012">
-        <v>153114.5289845314</v>
+        <v>154279.3576699172</v>
       </c>
       <c r="F1012">
-        <v>155638.4381767556</v>
+        <v>156337.6817669302</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
@@ -20793,13 +20739,13 @@
         <v>39</v>
       </c>
       <c r="D1013">
-        <v>153596.4300927266</v>
+        <v>154779.5507237786</v>
       </c>
       <c r="E1013">
-        <v>152219.1764536283</v>
+        <v>153655.611001122</v>
       </c>
       <c r="F1013">
-        <v>154973.6837318248</v>
+        <v>155903.4904464352</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -20813,13 +20759,13 @@
         <v>39</v>
       </c>
       <c r="D1014">
-        <v>152785.4254873288</v>
+        <v>154141.9058699908</v>
       </c>
       <c r="E1014">
-        <v>151301.7950869205</v>
+        <v>152928.4427566896</v>
       </c>
       <c r="F1014">
-        <v>154269.0558877372</v>
+        <v>155355.368983292</v>
       </c>
     </row>
     <row r="1015" spans="1:6">
@@ -20833,13 +20779,13 @@
         <v>39</v>
       </c>
       <c r="D1015">
-        <v>151943.3206975953</v>
+        <v>153568.630977169</v>
       </c>
       <c r="E1015">
-        <v>150360.4460925662</v>
+        <v>152274.5566531761</v>
       </c>
       <c r="F1015">
-        <v>153526.1953026245</v>
+        <v>154862.7053011618</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -20853,13 +20799,13 @@
         <v>39</v>
       </c>
       <c r="D1016">
-        <v>151070.0136791435</v>
+        <v>152910.7101146403</v>
       </c>
       <c r="E1016">
-        <v>149393.7607191301</v>
+        <v>151538.1867316465</v>
       </c>
       <c r="F1016">
-        <v>152746.2666391569</v>
+        <v>154283.2334976341</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -21273,13 +21219,13 @@
         <v>40</v>
       </c>
       <c r="D1037">
-        <v>41788.84700406165</v>
+        <v>42229.65638336939</v>
       </c>
       <c r="E1037">
-        <v>41562.73787342916</v>
+        <v>42019.62468563595</v>
       </c>
       <c r="F1037">
-        <v>42014.95613469415</v>
+        <v>42439.68808110282</v>
       </c>
     </row>
     <row r="1038" spans="1:6">
@@ -21293,13 +21239,13 @@
         <v>40</v>
       </c>
       <c r="D1038">
-        <v>41432.0522431538</v>
+        <v>42409.48979079832</v>
       </c>
       <c r="E1038">
-        <v>41037.61971089258</v>
+        <v>42042.16805889418</v>
       </c>
       <c r="F1038">
-        <v>41826.48477541503</v>
+        <v>42776.81152270245</v>
       </c>
     </row>
     <row r="1039" spans="1:6">
@@ -21313,13 +21259,13 @@
         <v>40</v>
       </c>
       <c r="D1039">
-        <v>40729.53968715455</v>
+        <v>42407.47225930705</v>
       </c>
       <c r="E1039">
-        <v>40143.86188260965</v>
+        <v>41861.32116403522</v>
       </c>
       <c r="F1039">
-        <v>41315.21749169944</v>
+        <v>42953.62335457888</v>
       </c>
     </row>
     <row r="1040" spans="1:6">
@@ -21333,13 +21279,13 @@
         <v>40</v>
       </c>
       <c r="D1040">
-        <v>40031.04456479382</v>
+        <v>42336.99639604073</v>
       </c>
       <c r="E1040">
-        <v>39349.19615264665</v>
+        <v>41702.73931581554</v>
       </c>
       <c r="F1040">
-        <v>40712.89297694099</v>
+        <v>42971.25347626593</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -21353,13 +21299,13 @@
         <v>40</v>
       </c>
       <c r="D1041">
-        <v>39396.91915460328</v>
+        <v>42234.83813919291</v>
       </c>
       <c r="E1041">
-        <v>38667.07210992162</v>
+        <v>41562.76829067614</v>
       </c>
       <c r="F1041">
-        <v>40126.76619928494</v>
+        <v>42906.90798770969</v>
       </c>
     </row>
     <row r="1042" spans="1:6">
@@ -21373,13 +21319,13 @@
         <v>40</v>
       </c>
       <c r="D1042">
-        <v>38783.35337347925</v>
+        <v>42178.98915068594</v>
       </c>
       <c r="E1042">
-        <v>38010.12519919581</v>
+        <v>41476.66355088334</v>
       </c>
       <c r="F1042">
-        <v>39556.58154776269</v>
+        <v>42881.31475048855</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -21393,13 +21339,13 @@
         <v>40</v>
       </c>
       <c r="D1043">
-        <v>38107.12019181278</v>
+        <v>42200.67495968538</v>
       </c>
       <c r="E1043">
-        <v>37280.36295208324</v>
+        <v>41457.2727655393</v>
       </c>
       <c r="F1043">
-        <v>38933.87743154231</v>
+        <v>42944.07715383145</v>
       </c>
     </row>
     <row r="1044" spans="1:6">
@@ -21413,13 +21359,13 @@
         <v>40</v>
       </c>
       <c r="D1044">
-        <v>37323.81719204747</v>
+        <v>42215.96264368475</v>
       </c>
       <c r="E1044">
-        <v>36439.92811404156</v>
+        <v>41422.77703515907</v>
       </c>
       <c r="F1044">
-        <v>38207.70627005338</v>
+        <v>43009.14825221042</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -21433,13 +21379,13 @@
         <v>40</v>
       </c>
       <c r="D1045">
-        <v>36474.33332462011</v>
+        <v>42243.35586141917</v>
       </c>
       <c r="E1045">
-        <v>35539.13961292167</v>
+        <v>41403.51963261407</v>
       </c>
       <c r="F1045">
-        <v>37409.52703631854</v>
+        <v>43083.19209022427</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -21853,13 +21799,13 @@
         <v>41</v>
       </c>
       <c r="D1066">
-        <v>95077.20727264504</v>
+        <v>95163.0242146887</v>
       </c>
       <c r="E1066">
-        <v>94848.61756332948</v>
+        <v>94911.51937492314</v>
       </c>
       <c r="F1066">
-        <v>95305.79698196061</v>
+        <v>95414.52905445427</v>
       </c>
     </row>
     <row r="1067" spans="1:6">
@@ -21873,13 +21819,13 @@
         <v>41</v>
       </c>
       <c r="D1067">
-        <v>94556.14449535296</v>
+        <v>94777.33795938327</v>
       </c>
       <c r="E1067">
-        <v>94217.2180188788</v>
+        <v>94417.72644260999</v>
       </c>
       <c r="F1067">
-        <v>94895.07097182711</v>
+        <v>95136.94947615654</v>
       </c>
     </row>
     <row r="1068" spans="1:6">
@@ -21893,13 +21839,13 @@
         <v>41</v>
       </c>
       <c r="D1068">
-        <v>93941.96602115163</v>
+        <v>94333.19332399723</v>
       </c>
       <c r="E1068">
-        <v>93529.07846431527</v>
+        <v>93892.23654564917</v>
       </c>
       <c r="F1068">
-        <v>94354.85357798799</v>
+        <v>94774.15010234529</v>
       </c>
     </row>
     <row r="1069" spans="1:6">
@@ -21913,13 +21859,13 @@
         <v>41</v>
       </c>
       <c r="D1069">
-        <v>93278.15011555684</v>
+        <v>93826.57646513967</v>
       </c>
       <c r="E1069">
-        <v>92798.09248928199</v>
+        <v>93318.94584709042</v>
       </c>
       <c r="F1069">
-        <v>93758.20774183169</v>
+        <v>94334.20708318893</v>
       </c>
     </row>
     <row r="1070" spans="1:6">
@@ -21933,13 +21879,13 @@
         <v>41</v>
       </c>
       <c r="D1070">
-        <v>92575.4572464446</v>
+        <v>93336.97954206035</v>
       </c>
       <c r="E1070">
-        <v>92034.52864042489</v>
+        <v>92768.35344142228</v>
       </c>
       <c r="F1070">
-        <v>93116.3858524643</v>
+        <v>93905.60564269841</v>
       </c>
     </row>
     <row r="1071" spans="1:6">
@@ -21953,13 +21899,13 @@
         <v>41</v>
       </c>
       <c r="D1071">
-        <v>91839.63028973283</v>
+        <v>92848.40059067799</v>
       </c>
       <c r="E1071">
-        <v>91244.34302736646</v>
+        <v>92223.06948535325</v>
       </c>
       <c r="F1071">
-        <v>92434.9175520992</v>
+        <v>93473.73169600274</v>
       </c>
     </row>
     <row r="1072" spans="1:6">
@@ -21973,13 +21919,13 @@
         <v>41</v>
       </c>
       <c r="D1072">
-        <v>91057.7590722973</v>
+        <v>92332.11300837256</v>
       </c>
       <c r="E1072">
-        <v>90412.6500010504</v>
+        <v>91656.31072040983</v>
       </c>
       <c r="F1072">
-        <v>91702.8681435442</v>
+        <v>93007.91529633528</v>
       </c>
     </row>
     <row r="1073" spans="1:6">
@@ -21993,13 +21939,13 @@
         <v>41</v>
       </c>
       <c r="D1073">
-        <v>90266.08043545911</v>
+        <v>91764.66210681248</v>
       </c>
       <c r="E1073">
-        <v>89574.6208994117</v>
+        <v>91043.35028434814</v>
       </c>
       <c r="F1073">
-        <v>90957.53997150651</v>
+        <v>92485.97392927682</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -22013,13 +21959,13 @@
         <v>41</v>
       </c>
       <c r="D1074">
-        <v>89433.60918559872</v>
+        <v>91180.01360323257</v>
       </c>
       <c r="E1074">
-        <v>88698.7003984695</v>
+        <v>90414.8214754889</v>
       </c>
       <c r="F1074">
-        <v>90168.51797272793</v>
+        <v>91945.20573097623</v>
       </c>
     </row>
     <row r="1075" spans="1:6">
@@ -22433,13 +22379,13 @@
         <v>42</v>
       </c>
       <c r="D1095">
-        <v>79031.88993579005</v>
+        <v>79084.33449457544</v>
       </c>
       <c r="E1095">
-        <v>78904.28433154595</v>
+        <v>78828.019575244</v>
       </c>
       <c r="F1095">
-        <v>79159.49554003416</v>
+        <v>79340.64941390687</v>
       </c>
     </row>
     <row r="1096" spans="1:6">
@@ -22453,13 +22399,13 @@
         <v>42</v>
       </c>
       <c r="D1096">
-        <v>78030.0415844965</v>
+        <v>78055.05263845403</v>
       </c>
       <c r="E1096">
-        <v>77859.28494774975</v>
+        <v>77678.14764520412</v>
       </c>
       <c r="F1096">
-        <v>78200.79822124325</v>
+        <v>78431.95763170393</v>
       </c>
     </row>
     <row r="1097" spans="1:6">
@@ -22473,13 +22419,13 @@
         <v>42</v>
       </c>
       <c r="D1097">
-        <v>77150.94417408999</v>
+        <v>77000.67005956202</v>
       </c>
       <c r="E1097">
-        <v>76886.40971211957</v>
+        <v>76540.69325279933</v>
       </c>
       <c r="F1097">
-        <v>77415.47863606042</v>
+        <v>77460.64686632471</v>
       </c>
     </row>
     <row r="1098" spans="1:6">
@@ -22493,13 +22439,13 @@
         <v>42</v>
       </c>
       <c r="D1098">
-        <v>76136.7329782444</v>
+        <v>75861.78408600563</v>
       </c>
       <c r="E1098">
-        <v>75789.85450309236</v>
+        <v>75322.52436235169</v>
       </c>
       <c r="F1098">
-        <v>76483.61145339644</v>
+        <v>76401.04380965958</v>
       </c>
     </row>
     <row r="1099" spans="1:6">
@@ -22513,13 +22459,13 @@
         <v>42</v>
       </c>
       <c r="D1099">
-        <v>75057.75166616224</v>
+        <v>74652.95890483748</v>
       </c>
       <c r="E1099">
-        <v>74606.20573839545</v>
+        <v>74049.23064066397</v>
       </c>
       <c r="F1099">
-        <v>75509.29759392902</v>
+        <v>75256.68716901098</v>
       </c>
     </row>
     <row r="1100" spans="1:6">
@@ -22533,13 +22479,13 @@
         <v>42</v>
       </c>
       <c r="D1100">
-        <v>73733.7904215848</v>
+        <v>73416.06647887257</v>
       </c>
       <c r="E1100">
-        <v>73189.19353251187</v>
+        <v>72747.73724837329</v>
       </c>
       <c r="F1100">
-        <v>74278.38731065772</v>
+        <v>74084.39570937185</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -22553,13 +22499,13 @@
         <v>42</v>
       </c>
       <c r="D1101">
-        <v>72766.40573017197</v>
+        <v>72121.85736372776</v>
       </c>
       <c r="E1101">
-        <v>72125.66486679629</v>
+        <v>71397.69176394207</v>
       </c>
       <c r="F1101">
-        <v>73407.14659354766</v>
+        <v>72846.02296351345</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -22573,13 +22519,13 @@
         <v>42</v>
       </c>
       <c r="D1102">
-        <v>71516.35135434296</v>
+        <v>70755.7231833433</v>
       </c>
       <c r="E1102">
-        <v>70766.36977723292</v>
+        <v>69974.94064014705</v>
       </c>
       <c r="F1102">
-        <v>72266.332931453</v>
+        <v>71536.50572653956</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
@@ -22593,13 +22539,13 @@
         <v>42</v>
       </c>
       <c r="D1103">
-        <v>70332.57919739668</v>
+        <v>69316.19986415334</v>
       </c>
       <c r="E1103">
-        <v>69481.93149018539</v>
+        <v>68484.7260589103</v>
       </c>
       <c r="F1103">
-        <v>71183.22690460797</v>
+        <v>70147.67366939639</v>
       </c>
     </row>
     <row r="1104" spans="1:6">
@@ -23013,13 +22959,13 @@
         <v>43</v>
       </c>
       <c r="D1124">
-        <v>147255.6940724885</v>
+        <v>146675.5974730255</v>
       </c>
       <c r="E1124">
-        <v>146434.3444829655</v>
+        <v>146214.6794037712</v>
       </c>
       <c r="F1124">
-        <v>148077.0436620115</v>
+        <v>147136.5155422797</v>
       </c>
     </row>
     <row r="1125" spans="1:6">
@@ -23033,13 +22979,13 @@
         <v>43</v>
       </c>
       <c r="D1125">
-        <v>147395.3601283491</v>
+        <v>146418.0094342305</v>
       </c>
       <c r="E1125">
-        <v>146230.4538011813</v>
+        <v>145754.6040704046</v>
       </c>
       <c r="F1125">
-        <v>148560.266455517</v>
+        <v>147081.4147980563</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -23053,13 +22999,13 @@
         <v>43</v>
       </c>
       <c r="D1126">
-        <v>148021.0086810608</v>
+        <v>146330.7379177865</v>
       </c>
       <c r="E1126">
-        <v>146595.6263065404</v>
+        <v>145499.030074257</v>
       </c>
       <c r="F1126">
-        <v>149446.3910555813</v>
+        <v>147162.445761316</v>
       </c>
     </row>
     <row r="1127" spans="1:6">
@@ -23073,13 +23019,13 @@
         <v>43</v>
       </c>
       <c r="D1127">
-        <v>148174.2682236053</v>
+        <v>146034.7594624717</v>
       </c>
       <c r="E1127">
-        <v>146526.8416272585</v>
+        <v>145055.9405402108</v>
       </c>
       <c r="F1127">
-        <v>149821.6948199521</v>
+        <v>147013.5783847326</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -23093,13 +23039,13 @@
         <v>43</v>
       </c>
       <c r="D1128">
-        <v>148862.0214963296</v>
+        <v>145907.4432174838</v>
       </c>
       <c r="E1128">
-        <v>147021.1484825592</v>
+        <v>144789.7379101985</v>
       </c>
       <c r="F1128">
-        <v>150702.8945101</v>
+        <v>147025.1485247691</v>
       </c>
     </row>
     <row r="1129" spans="1:6">
@@ -23113,13 +23059,13 @@
         <v>43</v>
       </c>
       <c r="D1129">
-        <v>149023.0138596844</v>
+        <v>145556.6843639696</v>
       </c>
       <c r="E1129">
-        <v>147005.3362586593</v>
+        <v>144309.8232132368</v>
       </c>
       <c r="F1129">
-        <v>151040.6914607095</v>
+        <v>146803.5455147024</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -23133,13 +23079,13 @@
         <v>43</v>
       </c>
       <c r="D1130">
-        <v>149769.0842333031</v>
+        <v>145386.1600987322</v>
       </c>
       <c r="E1130">
-        <v>147590.5730908643</v>
+        <v>144012.934099285</v>
       </c>
       <c r="F1130">
-        <v>151947.5953757418</v>
+        <v>146759.3860981793</v>
       </c>
     </row>
     <row r="1131" spans="1:6">
@@ -23153,13 +23099,13 @@
         <v>43</v>
       </c>
       <c r="D1131">
-        <v>149937.6782240494</v>
+        <v>144981.7881277032</v>
       </c>
       <c r="E1131">
-        <v>147607.8644398391</v>
+        <v>143488.283135567</v>
       </c>
       <c r="F1131">
-        <v>152267.4920082597</v>
+        <v>146475.2931198395</v>
       </c>
     </row>
     <row r="1132" spans="1:6">
@@ -23173,13 +23119,13 @@
         <v>43</v>
       </c>
       <c r="D1132">
-        <v>150741.4810138718</v>
+        <v>144750.3485576623</v>
       </c>
       <c r="E1132">
-        <v>148271.0545366791</v>
+        <v>143137.3041148632</v>
       </c>
       <c r="F1132">
-        <v>153211.9074910646</v>
+        <v>146363.3930004614</v>
       </c>
     </row>
     <row r="1133" spans="1:6">
@@ -23593,13 +23539,13 @@
         <v>44</v>
       </c>
       <c r="D1153">
-        <v>90524.64475086654</v>
+        <v>89717.34981199417</v>
       </c>
       <c r="E1153">
-        <v>90511.27014343815</v>
+        <v>89354.44287530534</v>
       </c>
       <c r="F1153">
-        <v>90538.01935829494</v>
+        <v>90080.25674868299</v>
       </c>
     </row>
     <row r="1154" spans="1:6">
@@ -23613,13 +23559,13 @@
         <v>44</v>
       </c>
       <c r="D1154">
-        <v>91261.11809341211</v>
+        <v>89440.6070586885</v>
       </c>
       <c r="E1154">
-        <v>91215.23099623328</v>
+        <v>88941.11812461098</v>
       </c>
       <c r="F1154">
-        <v>91307.00519059093</v>
+        <v>89940.09599276603</v>
       </c>
     </row>
     <row r="1155" spans="1:6">
@@ -23633,13 +23579,13 @@
         <v>44</v>
       </c>
       <c r="D1155">
-        <v>92127.71099820649</v>
+        <v>89078.3467131747</v>
       </c>
       <c r="E1155">
-        <v>92041.56366307869</v>
+        <v>88459.18452030468</v>
       </c>
       <c r="F1155">
-        <v>92213.85833333428</v>
+        <v>89697.50890604472</v>
       </c>
     </row>
     <row r="1156" spans="1:6">
@@ -23653,13 +23599,13 @@
         <v>44</v>
       </c>
       <c r="D1156">
-        <v>93126.91858249664</v>
+        <v>88682.04856770672</v>
       </c>
       <c r="E1156">
-        <v>93001.93631014151</v>
+        <v>87953.78979269035</v>
       </c>
       <c r="F1156">
-        <v>93251.90085485177</v>
+        <v>89410.30734272308</v>
       </c>
     </row>
     <row r="1157" spans="1:6">
@@ -23673,13 +23619,13 @@
         <v>44</v>
       </c>
       <c r="D1157">
-        <v>94094.27534350628</v>
+        <v>88216.42735915726</v>
       </c>
       <c r="E1157">
-        <v>93930.7403103102</v>
+        <v>87384.997693274</v>
       </c>
       <c r="F1157">
-        <v>94257.81037670236</v>
+        <v>89047.85702504052</v>
       </c>
     </row>
     <row r="1158" spans="1:6">
@@ -23693,13 +23639,13 @@
         <v>44</v>
       </c>
       <c r="D1158">
-        <v>94748.25820329673</v>
+        <v>87697.94190946558</v>
       </c>
       <c r="E1158">
-        <v>94546.51687048007</v>
+        <v>86767.11146963829</v>
       </c>
       <c r="F1158">
-        <v>94949.99953611339</v>
+        <v>88628.77234929286</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -23713,13 +23659,13 @@
         <v>44</v>
       </c>
       <c r="D1159">
-        <v>95294.29156311387</v>
+        <v>87113.37954491792</v>
       </c>
       <c r="E1159">
-        <v>95063.68162648736</v>
+        <v>86085.6347831758</v>
       </c>
       <c r="F1159">
-        <v>95524.90149974039</v>
+        <v>88141.12430666003</v>
       </c>
     </row>
     <row r="1160" spans="1:6">
@@ -23733,13 +23679,13 @@
         <v>44</v>
       </c>
       <c r="D1160">
-        <v>95629.88923347872</v>
+        <v>86468.16787006511</v>
       </c>
       <c r="E1160">
-        <v>95382.6869901021</v>
+        <v>85345.18280635224</v>
       </c>
       <c r="F1160">
-        <v>95877.09147685535</v>
+        <v>87591.15293377798</v>
       </c>
     </row>
     <row r="1161" spans="1:6">
@@ -23753,13 +23699,13 @@
         <v>44</v>
       </c>
       <c r="D1161">
-        <v>95740.90356389954</v>
+        <v>85756.81714683965</v>
       </c>
       <c r="E1161">
-        <v>95484.95758016959</v>
+        <v>84539.71867782554</v>
       </c>
       <c r="F1161">
-        <v>95996.84954762949</v>
+        <v>86973.91561585375</v>
       </c>
     </row>
     <row r="1162" spans="1:6">
@@ -24173,13 +24119,13 @@
         <v>45</v>
       </c>
       <c r="D1182">
-        <v>156315.9516249368</v>
+        <v>156196.3446783907</v>
       </c>
       <c r="E1182">
-        <v>155839.3127836617</v>
+        <v>155699.6870231345</v>
       </c>
       <c r="F1182">
-        <v>156792.5904662119</v>
+        <v>156693.0023336469</v>
       </c>
     </row>
     <row r="1183" spans="1:6">
@@ -24193,13 +24139,13 @@
         <v>45</v>
       </c>
       <c r="D1183">
-        <v>155557.4071444515</v>
+        <v>155447.1678813544</v>
       </c>
       <c r="E1183">
-        <v>154927.4217023084</v>
+        <v>154787.6085550437</v>
       </c>
       <c r="F1183">
-        <v>156187.3925865945</v>
+        <v>156106.727207665</v>
       </c>
     </row>
     <row r="1184" spans="1:6">
@@ -24213,13 +24159,13 @@
         <v>45</v>
       </c>
       <c r="D1184">
-        <v>154731.8911547131</v>
+        <v>154596.1282525189</v>
       </c>
       <c r="E1184">
-        <v>153997.771246301</v>
+        <v>153825.1874483756</v>
       </c>
       <c r="F1184">
-        <v>155466.0110631251</v>
+        <v>155367.0690566622</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -24233,13 +24179,13 @@
         <v>45</v>
       </c>
       <c r="D1185">
-        <v>153870.0100485103</v>
+        <v>153786.1740594385</v>
       </c>
       <c r="E1185">
-        <v>153056.319870683</v>
+        <v>152929.4741533711</v>
       </c>
       <c r="F1185">
-        <v>154683.7002263376</v>
+        <v>154642.8739655059</v>
       </c>
     </row>
     <row r="1186" spans="1:6">
@@ -24253,13 +24199,13 @@
         <v>45</v>
       </c>
       <c r="D1186">
-        <v>153095.5554815493</v>
+        <v>152875.0971264267</v>
       </c>
       <c r="E1186">
-        <v>152214.5733703557</v>
+        <v>151945.6037187828</v>
       </c>
       <c r="F1186">
-        <v>153976.5375927429</v>
+        <v>153804.5905340707</v>
       </c>
     </row>
     <row r="1187" spans="1:6">
@@ -24273,13 +24219,13 @@
         <v>45</v>
       </c>
       <c r="D1187">
-        <v>152242.9403430461</v>
+        <v>151998.6747308086</v>
       </c>
       <c r="E1187">
-        <v>151293.8745660215</v>
+        <v>150996.5783521431</v>
       </c>
       <c r="F1187">
-        <v>153192.0061200707</v>
+        <v>153000.7711094741</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -24293,13 +24239,13 @@
         <v>45</v>
       </c>
       <c r="D1188">
-        <v>151433.5504280121</v>
+        <v>151018.3202689216</v>
       </c>
       <c r="E1188">
-        <v>150420.5195969134</v>
+        <v>149948.0527089867</v>
       </c>
       <c r="F1188">
-        <v>152446.5812591109</v>
+        <v>152088.5878288566</v>
       </c>
     </row>
     <row r="1189" spans="1:6">
@@ -24313,13 +24259,13 @@
         <v>45</v>
       </c>
       <c r="D1189">
-        <v>150472.680965142</v>
+        <v>150074.8270159985</v>
       </c>
       <c r="E1189">
-        <v>149399.2367863892</v>
+        <v>148940.2330080551</v>
       </c>
       <c r="F1189">
-        <v>151546.1251438949</v>
+        <v>151209.4210239419</v>
       </c>
     </row>
     <row r="1190" spans="1:6">
@@ -24333,13 +24279,13 @@
         <v>45</v>
       </c>
       <c r="D1190">
-        <v>149478.9976224965</v>
+        <v>149027.6584475244</v>
       </c>
       <c r="E1190">
-        <v>148348.6683757973</v>
+        <v>147832.4486068549</v>
       </c>
       <c r="F1190">
-        <v>150609.3268691956</v>
+        <v>150222.8682881939</v>
       </c>
     </row>
     <row r="1191" spans="1:6">
@@ -24753,13 +24699,13 @@
         <v>46</v>
       </c>
       <c r="D1211">
-        <v>3745099.370001487</v>
+        <v>3700814.020711027</v>
       </c>
       <c r="E1211">
-        <v>3713405.147381631</v>
+        <v>3682139.885178135</v>
       </c>
       <c r="F1211">
-        <v>3776793.592621342</v>
+        <v>3719488.156243919</v>
       </c>
     </row>
     <row r="1212" spans="1:6">
@@ -24773,13 +24719,13 @@
         <v>46</v>
       </c>
       <c r="D1212">
-        <v>3745346.45583917</v>
+        <v>3678933.68173477</v>
       </c>
       <c r="E1212">
-        <v>3700443.104262857</v>
+        <v>3652469.249993102</v>
       </c>
       <c r="F1212">
-        <v>3790249.807415483</v>
+        <v>3705398.113476438</v>
       </c>
     </row>
     <row r="1213" spans="1:6">
@@ -24793,13 +24739,13 @@
         <v>46</v>
       </c>
       <c r="D1213">
-        <v>3754637.793472702</v>
+        <v>3656463.697273292</v>
       </c>
       <c r="E1213">
-        <v>3699512.931412899</v>
+        <v>3623991.722259082</v>
       </c>
       <c r="F1213">
-        <v>3809762.655532504</v>
+        <v>3688935.672287501</v>
       </c>
     </row>
     <row r="1214" spans="1:6">
@@ -24813,13 +24759,13 @@
         <v>46</v>
       </c>
       <c r="D1214">
-        <v>3753119.025415862</v>
+        <v>3629841.281502183</v>
       </c>
       <c r="E1214">
-        <v>3689351.736320197</v>
+        <v>3592280.410007379</v>
       </c>
       <c r="F1214">
-        <v>3816886.314511528</v>
+        <v>3667402.152996987</v>
       </c>
     </row>
     <row r="1215" spans="1:6">
@@ -24833,13 +24779,13 @@
         <v>46</v>
       </c>
       <c r="D1215">
-        <v>3762356.887203916</v>
+        <v>3602301.890492512</v>
       </c>
       <c r="E1215">
-        <v>3690992.197877682</v>
+        <v>3560264.318482028</v>
       </c>
       <c r="F1215">
-        <v>3833721.576530149</v>
+        <v>3644339.462502996</v>
       </c>
     </row>
     <row r="1216" spans="1:6">
@@ -24853,13 +24799,13 @@
         <v>46</v>
       </c>
       <c r="D1216">
-        <v>3761202.891711545</v>
+        <v>3571428.253900385</v>
       </c>
       <c r="E1216">
-        <v>3682998.629899131</v>
+        <v>3525362.435098334</v>
       </c>
       <c r="F1216">
-        <v>3839407.153523959</v>
+        <v>3617494.072702436</v>
       </c>
     </row>
     <row r="1217" spans="1:6">
@@ -24873,13 +24819,13 @@
         <v>46</v>
       </c>
       <c r="D1217">
-        <v>3768551.590236661</v>
+        <v>3540638.778272233</v>
       </c>
       <c r="E1217">
-        <v>3684078.296246505</v>
+        <v>3490886.736732101</v>
       </c>
       <c r="F1217">
-        <v>3853024.884226817</v>
+        <v>3590390.819812365</v>
       </c>
     </row>
     <row r="1218" spans="1:6">
@@ -24893,13 +24839,13 @@
         <v>46</v>
       </c>
       <c r="D1218">
-        <v>3766648.986006969</v>
+        <v>3506776.281074221</v>
       </c>
       <c r="E1218">
-        <v>3676346.964378668</v>
+        <v>3453594.22155168</v>
       </c>
       <c r="F1218">
-        <v>3856951.007635269</v>
+        <v>3559958.340596762</v>
       </c>
     </row>
     <row r="1219" spans="1:6">
@@ -24913,13 +24859,13 @@
         <v>46</v>
       </c>
       <c r="D1219">
-        <v>3772398.416608418</v>
+        <v>3472298.563412487</v>
       </c>
       <c r="E1219">
-        <v>3676618.409112925</v>
+        <v>3415887.556086529</v>
       </c>
       <c r="F1219">
-        <v>3868178.424103912</v>
+        <v>3528709.570738445</v>
       </c>
     </row>
     <row r="1220" spans="1:6">
@@ -25333,13 +25279,13 @@
         <v>47</v>
       </c>
       <c r="D1240">
-        <v>129710.5123609495</v>
+        <v>116295.7952309695</v>
       </c>
       <c r="E1240">
-        <v>125955.1932269274</v>
+        <v>112247.9797287321</v>
       </c>
       <c r="F1240">
-        <v>133465.8314949716</v>
+        <v>120343.6107332069</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25353,13 +25299,13 @@
         <v>47</v>
       </c>
       <c r="D1241">
-        <v>128756.521221135</v>
+        <v>114646.7156125444</v>
       </c>
       <c r="E1241">
-        <v>124189.2734032531</v>
+        <v>108432.2323875657</v>
       </c>
       <c r="F1241">
-        <v>133323.7690390168</v>
+        <v>120861.198837523</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25373,13 +25319,13 @@
         <v>47</v>
       </c>
       <c r="D1242">
-        <v>139532.7794068072</v>
+        <v>114628.3300115675</v>
       </c>
       <c r="E1242">
-        <v>134231.8403493701</v>
+        <v>108342.6330175349</v>
       </c>
       <c r="F1242">
-        <v>144833.7184642444</v>
+        <v>120914.0270056001</v>
       </c>
     </row>
     <row r="1243" spans="1:6">
@@ -25393,13 +25339,13 @@
         <v>47</v>
       </c>
       <c r="D1243">
-        <v>144602.4615680308</v>
+        <v>113332.5880196437</v>
       </c>
       <c r="E1243">
-        <v>139292.9039943315</v>
+        <v>106924.1282686619</v>
       </c>
       <c r="F1243">
-        <v>149912.01914173</v>
+        <v>119741.0477706255</v>
       </c>
     </row>
     <row r="1244" spans="1:6">
@@ -25413,13 +25359,13 @@
         <v>47</v>
       </c>
       <c r="D1244">
-        <v>148075.1505649603</v>
+        <v>115554.0732806246</v>
       </c>
       <c r="E1244">
-        <v>142717.4770276768</v>
+        <v>109136.779636596</v>
       </c>
       <c r="F1244">
-        <v>153432.8241022438</v>
+        <v>121971.3669246533</v>
       </c>
     </row>
     <row r="1245" spans="1:6">
@@ -25433,13 +25379,13 @@
         <v>47</v>
       </c>
       <c r="D1245">
-        <v>155498.1816402912</v>
+        <v>113251.4668359117</v>
       </c>
       <c r="E1245">
-        <v>150132.3691146087</v>
+        <v>106833.5313974725</v>
       </c>
       <c r="F1245">
-        <v>160863.9941659737</v>
+        <v>119669.4022743509</v>
       </c>
     </row>
     <row r="1246" spans="1:6">
@@ -25453,13 +25399,13 @@
         <v>47</v>
       </c>
       <c r="D1246">
-        <v>158190.959217381</v>
+        <v>112637.7099375466</v>
       </c>
       <c r="E1246">
-        <v>152712.7131521579</v>
+        <v>106219.7278399202</v>
       </c>
       <c r="F1246">
-        <v>163669.2052826041</v>
+        <v>119055.6920351731</v>
       </c>
     </row>
     <row r="1247" spans="1:6">
@@ -25473,13 +25419,13 @@
         <v>47</v>
       </c>
       <c r="D1247">
-        <v>160896.059280113</v>
+        <v>110999.7589459981</v>
       </c>
       <c r="E1247">
-        <v>155315.6813474486</v>
+        <v>104581.7734560268</v>
       </c>
       <c r="F1247">
-        <v>166476.4372127774</v>
+        <v>117417.7444359695</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -25493,13 +25439,13 @@
         <v>47</v>
       </c>
       <c r="D1248">
-        <v>171007.9713832785</v>
+        <v>110355.7234367324</v>
       </c>
       <c r="E1248">
-        <v>165246.6233157865</v>
+        <v>103937.7377001205</v>
       </c>
       <c r="F1248">
-        <v>176769.3194507706</v>
+        <v>116773.7091733443</v>
       </c>
     </row>
     <row r="1249" spans="1:6">
@@ -25913,13 +25859,13 @@
         <v>48</v>
       </c>
       <c r="D1269">
-        <v>49552.11336743073</v>
+        <v>53007.46147143712</v>
       </c>
       <c r="E1269">
-        <v>46568.49212702505</v>
+        <v>49383.18047913881</v>
       </c>
       <c r="F1269">
-        <v>52535.73460783642</v>
+        <v>56631.74246373543</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25933,13 +25879,13 @@
         <v>48</v>
       </c>
       <c r="D1270">
-        <v>50566.53114671805</v>
+        <v>56263.71099608948</v>
       </c>
       <c r="E1270">
-        <v>47402.60612950804</v>
+        <v>52639.28384295292</v>
       </c>
       <c r="F1270">
-        <v>53730.45616392806</v>
+        <v>59888.13814922604</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -25953,13 +25899,13 @@
         <v>48</v>
       </c>
       <c r="D1271">
-        <v>47293.81292869906</v>
+        <v>56556.79167695954</v>
       </c>
       <c r="E1271">
-        <v>44108.20853169516</v>
+        <v>52855.66766711279</v>
       </c>
       <c r="F1271">
-        <v>50479.41732570296</v>
+        <v>60257.91568680629</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -25973,13 +25919,13 @@
         <v>48</v>
       </c>
       <c r="D1272">
-        <v>51433.18089916748</v>
+        <v>59764.45022069674</v>
       </c>
       <c r="E1272">
-        <v>47510.58426243564</v>
+        <v>56031.52029668696</v>
       </c>
       <c r="F1272">
-        <v>55355.77753589932</v>
+        <v>63497.38014470653</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -25993,13 +25939,13 @@
         <v>48</v>
       </c>
       <c r="D1273">
-        <v>53505.70560213138</v>
+        <v>60810.13353286916</v>
       </c>
       <c r="E1273">
-        <v>49147.20053887486</v>
+        <v>57048.73340508765</v>
       </c>
       <c r="F1273">
-        <v>57864.21066538791</v>
+        <v>64571.53366065068</v>
       </c>
     </row>
     <row r="1274" spans="1:6">
@@ -26013,13 +25959,13 @@
         <v>48</v>
       </c>
       <c r="D1274">
-        <v>54382.71613685074</v>
+        <v>63763.94177081722</v>
       </c>
       <c r="E1274">
-        <v>49747.63707595776</v>
+        <v>59982.02581241312</v>
       </c>
       <c r="F1274">
-        <v>59017.79519774371</v>
+        <v>67545.85772922132</v>
       </c>
     </row>
     <row r="1275" spans="1:6">
@@ -26033,13 +25979,13 @@
         <v>48</v>
       </c>
       <c r="D1275">
-        <v>54463.57134649467</v>
+        <v>65250.36191206292</v>
       </c>
       <c r="E1275">
-        <v>49647.14792218868</v>
+        <v>61452.77482708386</v>
       </c>
       <c r="F1275">
-        <v>59279.99477080067</v>
+        <v>69047.94899704198</v>
       </c>
     </row>
     <row r="1276" spans="1:6">
@@ -26053,13 +25999,13 @@
         <v>48</v>
       </c>
       <c r="D1276">
-        <v>53851.79876699821</v>
+        <v>68163.98499394266</v>
       </c>
       <c r="E1276">
-        <v>48914.29154972914</v>
+        <v>64354.59287287737</v>
       </c>
       <c r="F1276">
-        <v>58789.30598426728</v>
+        <v>71973.37711500797</v>
       </c>
     </row>
     <row r="1277" spans="1:6">
@@ -26073,13 +26019,13 @@
         <v>48</v>
       </c>
       <c r="D1277">
-        <v>56398.96062316854</v>
+        <v>69778.94280534791</v>
       </c>
       <c r="E1277">
-        <v>51379.71825645044</v>
+        <v>65960.61439247416</v>
       </c>
       <c r="F1277">
-        <v>61418.20298988664</v>
+        <v>73597.27121822165</v>
       </c>
     </row>
     <row r="1278" spans="1:6">
@@ -26493,13 +26439,13 @@
         <v>49</v>
       </c>
       <c r="D1298">
-        <v>64968.50606911878</v>
+        <v>60058.8521358147</v>
       </c>
       <c r="E1298">
-        <v>59453.87634380849</v>
+        <v>54492.9669863446</v>
       </c>
       <c r="F1298">
-        <v>70483.13579442905</v>
+        <v>65624.73728528479</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -26513,13 +26459,13 @@
         <v>49</v>
       </c>
       <c r="D1299">
-        <v>61688.58296713886</v>
+        <v>58810.10276982058</v>
       </c>
       <c r="E1299">
-        <v>56165.18396065995</v>
+        <v>52845.40920465035</v>
       </c>
       <c r="F1299">
-        <v>67211.98197361777</v>
+        <v>64774.79633499081</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -26533,13 +26479,13 @@
         <v>49</v>
       </c>
       <c r="D1300">
-        <v>65570.48247443025</v>
+        <v>58690.2414270169</v>
       </c>
       <c r="E1300">
-        <v>59931.2021465487</v>
+        <v>52275.26702109051</v>
       </c>
       <c r="F1300">
-        <v>71209.7628023118</v>
+        <v>65105.21583294329</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -26553,13 +26499,13 @@
         <v>49</v>
       </c>
       <c r="D1301">
-        <v>66863.49167372086</v>
+        <v>57786.87702620892</v>
       </c>
       <c r="E1301">
-        <v>61125.16201584414</v>
+        <v>51188.09153488721</v>
       </c>
       <c r="F1301">
-        <v>72601.82133159757</v>
+        <v>64385.66251753064</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -26573,13 +26519,13 @@
         <v>49</v>
       </c>
       <c r="D1302">
-        <v>70219.6600630983</v>
+        <v>58116.99671991679</v>
       </c>
       <c r="E1302">
-        <v>64478.27728248906</v>
+        <v>51506.67338377165</v>
       </c>
       <c r="F1302">
-        <v>75961.04284370755</v>
+        <v>64727.32005606194</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -26593,13 +26539,13 @@
         <v>49</v>
       </c>
       <c r="D1303">
-        <v>71484.931122832</v>
+        <v>57490.68651679636</v>
       </c>
       <c r="E1303">
-        <v>65694.00841609079</v>
+        <v>50860.25408390723</v>
       </c>
       <c r="F1303">
-        <v>77275.85382957321</v>
+        <v>64121.11894968549</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -26613,13 +26559,13 @@
         <v>49</v>
       </c>
       <c r="D1304">
-        <v>72679.69853331269</v>
+        <v>57962.81520924722</v>
       </c>
       <c r="E1304">
-        <v>66785.05810034106</v>
+        <v>51271.73466616453</v>
       </c>
       <c r="F1304">
-        <v>78574.33896628433</v>
+        <v>64653.89575232992</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -26633,13 +26579,13 @@
         <v>49</v>
       </c>
       <c r="D1305">
-        <v>72937.12795214268</v>
+        <v>57514.01235041665</v>
       </c>
       <c r="E1305">
-        <v>67011.60669569545</v>
+        <v>50777.17219217689</v>
       </c>
       <c r="F1305">
-        <v>78862.64920858991</v>
+        <v>64250.8525086564</v>
       </c>
     </row>
     <row r="1306" spans="1:6">
@@ -26653,13 +26599,13 @@
         <v>49</v>
       </c>
       <c r="D1306">
-        <v>73974.73500938625</v>
+        <v>58181.735022646</v>
       </c>
       <c r="E1306">
-        <v>68041.54107895039</v>
+        <v>51433.50127681441</v>
       </c>
       <c r="F1306">
-        <v>79907.9289398221</v>
+        <v>64929.9687684776</v>
       </c>
     </row>
     <row r="1307" spans="1:6">
@@ -27073,13 +27019,13 @@
         <v>50</v>
       </c>
       <c r="D1327">
-        <v>224794.0220614157</v>
+        <v>224827.828873234</v>
       </c>
       <c r="E1327">
-        <v>222273.22478539</v>
+        <v>222293.7813480554</v>
       </c>
       <c r="F1327">
-        <v>227314.8193374413</v>
+        <v>227361.8763984126</v>
       </c>
     </row>
     <row r="1328" spans="1:6">
@@ -27093,13 +27039,13 @@
         <v>50</v>
       </c>
       <c r="D1328">
-        <v>228382.6123467354</v>
+        <v>228416.2901200045</v>
       </c>
       <c r="E1328">
-        <v>224813.6915285097</v>
+        <v>224828.8105067614</v>
       </c>
       <c r="F1328">
-        <v>231951.5331649611</v>
+        <v>232003.7697332476</v>
       </c>
     </row>
     <row r="1329" spans="1:6">
@@ -27113,13 +27059,13 @@
         <v>50</v>
       </c>
       <c r="D1329">
-        <v>232234.2795643724</v>
+        <v>232269.1792053957</v>
       </c>
       <c r="E1329">
-        <v>227862.1056069116</v>
+        <v>227873.5581861111</v>
       </c>
       <c r="F1329">
-        <v>236606.4535218333</v>
+        <v>236664.8002246803</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -27133,13 +27079,13 @@
         <v>50</v>
       </c>
       <c r="D1330">
-        <v>236067.4091038693</v>
+        <v>236126.7746628748</v>
       </c>
       <c r="E1330">
-        <v>231018.1901272206</v>
+        <v>231050.067437496</v>
       </c>
       <c r="F1330">
-        <v>241116.628080518</v>
+        <v>241203.4818882537</v>
       </c>
     </row>
     <row r="1331" spans="1:6">
@@ -27153,13 +27099,13 @@
         <v>50</v>
       </c>
       <c r="D1331">
-        <v>240130.8863930474</v>
+        <v>240199.5509332369</v>
       </c>
       <c r="E1331">
-        <v>234485.2401429122</v>
+        <v>234522.8943096653</v>
       </c>
       <c r="F1331">
-        <v>245776.5326431826</v>
+        <v>245876.2075568084</v>
       </c>
     </row>
     <row r="1332" spans="1:6">
@@ -27173,13 +27119,13 @@
         <v>50</v>
       </c>
       <c r="D1332">
-        <v>244106.2949285062</v>
+        <v>244167.6765111311</v>
       </c>
       <c r="E1332">
-        <v>237921.4724782224</v>
+        <v>237948.6812121304</v>
       </c>
       <c r="F1332">
-        <v>250291.11737879</v>
+        <v>250386.6718101318</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -27193,13 +27139,13 @@
         <v>50</v>
       </c>
       <c r="D1333">
-        <v>248363.6590842953</v>
+        <v>248415.755865724</v>
       </c>
       <c r="E1333">
-        <v>241683.0350079808</v>
+        <v>241698.0645436476</v>
       </c>
       <c r="F1333">
-        <v>255044.2831606098</v>
+        <v>255133.4471878005</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -27213,13 +27159,13 @@
         <v>50</v>
       </c>
       <c r="D1334">
-        <v>252619.6855570868</v>
+        <v>252672.0721594918</v>
       </c>
       <c r="E1334">
-        <v>245477.5958622622</v>
+        <v>245490.2305568266</v>
       </c>
       <c r="F1334">
-        <v>259761.7752519114</v>
+        <v>259853.913762157</v>
       </c>
     </row>
     <row r="1335" spans="1:6">
@@ -27233,13 +27179,13 @@
         <v>50</v>
       </c>
       <c r="D1335">
-        <v>257238.4517328681</v>
+        <v>257310.5504153332</v>
       </c>
       <c r="E1335">
-        <v>249662.9547513889</v>
+        <v>249692.786768733</v>
       </c>
       <c r="F1335">
-        <v>264813.9487143473</v>
+        <v>264928.3140619334</v>
       </c>
     </row>
     <row r="1336" spans="1:6">
@@ -27653,13 +27599,13 @@
         <v>51</v>
       </c>
       <c r="D1356">
-        <v>126546.1969434883</v>
+        <v>126573.9636269519</v>
       </c>
       <c r="E1356">
-        <v>126389.591789176</v>
+        <v>126420.6019804896</v>
       </c>
       <c r="F1356">
-        <v>126702.8020978007</v>
+        <v>126727.3252734142</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -27673,13 +27619,13 @@
         <v>51</v>
       </c>
       <c r="D1357">
-        <v>126594.179574419</v>
+        <v>126626.9543660585</v>
       </c>
       <c r="E1357">
-        <v>126336.7225705903</v>
+        <v>126368.8756074666</v>
       </c>
       <c r="F1357">
-        <v>126851.6365782476</v>
+        <v>126885.0331246504</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -27693,13 +27639,13 @@
         <v>51</v>
       </c>
       <c r="D1358">
-        <v>126473.3751243004</v>
+        <v>126474.0661737836</v>
       </c>
       <c r="E1358">
-        <v>126007.8577637691</v>
+        <v>126011.7757568397</v>
       </c>
       <c r="F1358">
-        <v>126938.8924848317</v>
+        <v>126936.3565907275</v>
       </c>
     </row>
     <row r="1359" spans="1:6">
@@ -27713,13 +27659,13 @@
         <v>51</v>
       </c>
       <c r="D1359">
-        <v>126329.9213630625</v>
+        <v>126316.1180487314</v>
       </c>
       <c r="E1359">
-        <v>125684.2442651689</v>
+        <v>125676.6488794673</v>
       </c>
       <c r="F1359">
-        <v>126975.598460956</v>
+        <v>126955.5872179954</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -27733,13 +27679,13 @@
         <v>51</v>
       </c>
       <c r="D1360">
-        <v>126137.9354264278</v>
+        <v>126141.8839811131</v>
       </c>
       <c r="E1360">
-        <v>125323.9661900621</v>
+        <v>125342.4106329649</v>
       </c>
       <c r="F1360">
-        <v>126951.9046627936</v>
+        <v>126941.3573292612</v>
       </c>
     </row>
     <row r="1361" spans="1:6">
@@ -27753,13 +27699,13 @@
         <v>51</v>
       </c>
       <c r="D1361">
-        <v>125943.1880754523</v>
+        <v>125925.4033972752</v>
       </c>
       <c r="E1361">
-        <v>124976.5694759494</v>
+        <v>124970.3976269394</v>
       </c>
       <c r="F1361">
-        <v>126909.8066749553</v>
+        <v>126880.4091676111</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -27773,13 +27719,13 @@
         <v>51</v>
       </c>
       <c r="D1362">
-        <v>125717.3173747565</v>
+        <v>125704.467322659</v>
       </c>
       <c r="E1362">
-        <v>124612.2943053052</v>
+        <v>124612.4063154152</v>
       </c>
       <c r="F1362">
-        <v>126822.3404442078</v>
+        <v>126796.5283299028</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -27793,13 +27739,13 @@
         <v>51</v>
       </c>
       <c r="D1363">
-        <v>125494.4441334515</v>
+        <v>125468.4425882547</v>
       </c>
       <c r="E1363">
-        <v>124262.0351156661</v>
+        <v>124246.8311858799</v>
       </c>
       <c r="F1363">
-        <v>126726.8531512369</v>
+        <v>126690.0539906295</v>
       </c>
     </row>
     <row r="1364" spans="1:6">
@@ -27813,13 +27759,13 @@
         <v>51</v>
       </c>
       <c r="D1364">
-        <v>125260.8278915376</v>
+        <v>125214.3111870872</v>
       </c>
       <c r="E1364">
-        <v>123911.4909723572</v>
+        <v>123873.5813176054</v>
       </c>
       <c r="F1364">
-        <v>126610.1648107181</v>
+        <v>126555.041056569</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -28233,13 +28179,13 @@
         <v>52</v>
       </c>
       <c r="D1385">
-        <v>316184.5414649916</v>
+        <v>315831.6447085559</v>
       </c>
       <c r="E1385">
-        <v>315160.4945852564</v>
+        <v>314660.2619408309</v>
       </c>
       <c r="F1385">
-        <v>317208.5883447268</v>
+        <v>317003.027476281</v>
       </c>
     </row>
     <row r="1386" spans="1:6">
@@ -28253,13 +28199,13 @@
         <v>52</v>
       </c>
       <c r="D1386">
-        <v>316968.7386319357</v>
+        <v>316189.4602777529</v>
       </c>
       <c r="E1386">
-        <v>315507.5015057632</v>
+        <v>314521.7559775819</v>
       </c>
       <c r="F1386">
-        <v>318429.9757581083</v>
+        <v>317857.1645779239</v>
       </c>
     </row>
     <row r="1387" spans="1:6">
@@ -28273,13 +28219,13 @@
         <v>52</v>
       </c>
       <c r="D1387">
-        <v>317905.8981995674</v>
+        <v>316608.7980760208</v>
       </c>
       <c r="E1387">
-        <v>316098.083215497</v>
+        <v>314551.4413352532</v>
       </c>
       <c r="F1387">
-        <v>319713.7131836378</v>
+        <v>318666.1548167884</v>
       </c>
     </row>
     <row r="1388" spans="1:6">
@@ -28293,13 +28239,13 @@
         <v>52</v>
       </c>
       <c r="D1388">
-        <v>318886.4256492912</v>
+        <v>316964.4819804818</v>
       </c>
       <c r="E1388">
-        <v>316777.6315754356</v>
+        <v>314569.8807927784</v>
       </c>
       <c r="F1388">
-        <v>320995.2197231468</v>
+        <v>319359.0831681853</v>
       </c>
     </row>
     <row r="1389" spans="1:6">
@@ -28313,13 +28259,13 @@
         <v>52</v>
       </c>
       <c r="D1389">
-        <v>319938.3335977648</v>
+        <v>317337.2598665489</v>
       </c>
       <c r="E1389">
-        <v>317548.0298874598</v>
+        <v>314632.0468617856</v>
       </c>
       <c r="F1389">
-        <v>322328.6373080697</v>
+        <v>320042.4728713122</v>
       </c>
     </row>
     <row r="1390" spans="1:6">
@@ -28333,13 +28279,13 @@
         <v>52</v>
       </c>
       <c r="D1390">
-        <v>321088.9986800111</v>
+        <v>317678.1404102537</v>
       </c>
       <c r="E1390">
-        <v>318433.601236564</v>
+        <v>314682.0420462557</v>
       </c>
       <c r="F1390">
-        <v>323744.3961234581</v>
+        <v>320674.2387742517</v>
       </c>
     </row>
     <row r="1391" spans="1:6">
@@ -28353,13 +28299,13 @@
         <v>52</v>
       </c>
       <c r="D1391">
-        <v>322264.3358174193</v>
+        <v>318011.1030562808</v>
       </c>
       <c r="E1391">
-        <v>319358.0154931546</v>
+        <v>314739.7069203407</v>
       </c>
       <c r="F1391">
-        <v>325170.6561416839</v>
+        <v>321282.4991922209</v>
       </c>
     </row>
     <row r="1392" spans="1:6">
@@ -28373,13 +28319,13 @@
         <v>52</v>
       </c>
       <c r="D1392">
-        <v>323524.4729445069</v>
+        <v>318318.2740626769</v>
       </c>
       <c r="E1392">
-        <v>320379.6765161925</v>
+        <v>314784.4380419653</v>
       </c>
       <c r="F1392">
-        <v>326669.2693728212</v>
+        <v>321852.1100833886</v>
       </c>
     </row>
     <row r="1393" spans="1:6">
@@ -28393,13 +28339,13 @@
         <v>52</v>
       </c>
       <c r="D1393">
-        <v>324779.8816616744</v>
+        <v>318605.4379883989</v>
       </c>
       <c r="E1393">
-        <v>321407.5307115676</v>
+        <v>314820.0634607982</v>
       </c>
       <c r="F1393">
-        <v>328152.2326117812</v>
+        <v>322390.8125159997</v>
       </c>
     </row>
     <row r="1394" spans="1:6">
@@ -28813,13 +28759,13 @@
         <v>53</v>
       </c>
       <c r="D1414">
-        <v>73309.47541731605</v>
+        <v>73253.21860048021</v>
       </c>
       <c r="E1414">
-        <v>73152.92569447172</v>
+        <v>73110.60189224235</v>
       </c>
       <c r="F1414">
-        <v>73466.02514016037</v>
+        <v>73395.83530871806</v>
       </c>
     </row>
     <row r="1415" spans="1:6">
@@ -28833,13 +28779,13 @@
         <v>53</v>
       </c>
       <c r="D1415">
-        <v>73147.84892003442</v>
+        <v>72993.11323013139</v>
       </c>
       <c r="E1415">
-        <v>72867.21161664823</v>
+        <v>72732.34316460407</v>
       </c>
       <c r="F1415">
-        <v>73428.48622342061</v>
+        <v>73253.88329565871</v>
       </c>
     </row>
     <row r="1416" spans="1:6">
@@ -28853,13 +28799,13 @@
         <v>53</v>
       </c>
       <c r="D1416">
-        <v>72959.15135927068</v>
+        <v>72682.71130816684</v>
       </c>
       <c r="E1416">
-        <v>72560.9288260897</v>
+        <v>72328.14444691323</v>
       </c>
       <c r="F1416">
-        <v>73357.37389245165</v>
+        <v>73037.27816942045</v>
       </c>
     </row>
     <row r="1417" spans="1:6">
@@ -28873,13 +28819,13 @@
         <v>53</v>
       </c>
       <c r="D1417">
-        <v>72803.30095881816</v>
+        <v>72388.15221554622</v>
       </c>
       <c r="E1417">
-        <v>72294.33697783551</v>
+        <v>71935.96266850232</v>
       </c>
       <c r="F1417">
-        <v>73312.26493980081</v>
+        <v>72840.34176259011</v>
       </c>
     </row>
     <row r="1418" spans="1:6">
@@ -28893,13 +28839,13 @@
         <v>53</v>
       </c>
       <c r="D1418">
-        <v>72621.69845588143</v>
+        <v>72050.518161296</v>
       </c>
       <c r="E1418">
-        <v>72008.76799575319</v>
+        <v>71512.9668025049</v>
       </c>
       <c r="F1418">
-        <v>73234.62891600966</v>
+        <v>72588.0695200871</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -28913,13 +28859,13 @@
         <v>53</v>
       </c>
       <c r="D1419">
-        <v>72484.81475302231</v>
+        <v>71723.77492109581</v>
       </c>
       <c r="E1419">
-        <v>71774.36133164488</v>
+        <v>71102.08608427743</v>
       </c>
       <c r="F1419">
-        <v>73195.26817439974</v>
+        <v>72345.4637579142</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -28933,13 +28879,13 @@
         <v>53</v>
       </c>
       <c r="D1420">
-        <v>72312.27120345792</v>
+        <v>71359.24843104197</v>
       </c>
       <c r="E1420">
-        <v>71510.27536974291</v>
+        <v>70661.52478747966</v>
       </c>
       <c r="F1420">
-        <v>73114.26703717292</v>
+        <v>72056.97207460427</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -28953,13 +28899,13 @@
         <v>53</v>
       </c>
       <c r="D1421">
-        <v>72178.06604109098</v>
+        <v>71001.50659357634</v>
       </c>
       <c r="E1421">
-        <v>71289.99249716039</v>
+        <v>70230.37125999769</v>
       </c>
       <c r="F1421">
-        <v>73066.13958502156</v>
+        <v>71772.641927155</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -28973,13 +28919,13 @@
         <v>53</v>
       </c>
       <c r="D1422">
-        <v>72011.13542985929</v>
+        <v>70610.04220045917</v>
       </c>
       <c r="E1422">
-        <v>71041.92846780363</v>
+        <v>69771.17291044416</v>
       </c>
       <c r="F1422">
-        <v>72980.34239191495</v>
+        <v>71448.91149047417</v>
       </c>
     </row>
     <row r="1423" spans="1:6">
@@ -29393,13 +29339,13 @@
         <v>54</v>
       </c>
       <c r="D1443">
-        <v>87842.86259541099</v>
+        <v>87818.91199666537</v>
       </c>
       <c r="E1443">
-        <v>87536.73193056196</v>
+        <v>87511.52061400235</v>
       </c>
       <c r="F1443">
-        <v>88148.99326026002</v>
+        <v>88126.30337932838</v>
       </c>
     </row>
     <row r="1444" spans="1:6">
@@ -29413,13 +29359,13 @@
         <v>54</v>
       </c>
       <c r="D1444">
-        <v>87870.10900845745</v>
+        <v>87902.98472803987</v>
       </c>
       <c r="E1444">
-        <v>87378.07293963579</v>
+        <v>87409.38416325088</v>
       </c>
       <c r="F1444">
-        <v>88362.14507727911</v>
+        <v>88396.58529282885</v>
       </c>
     </row>
     <row r="1445" spans="1:6">
@@ -29433,13 +29379,13 @@
         <v>54</v>
       </c>
       <c r="D1445">
-        <v>87886.98424317499</v>
+        <v>88008.22993235574</v>
       </c>
       <c r="E1445">
-        <v>87215.99455626635</v>
+        <v>87335.55598531416</v>
       </c>
       <c r="F1445">
-        <v>88557.97393008362</v>
+        <v>88680.90387939732</v>
       </c>
     </row>
     <row r="1446" spans="1:6">
@@ -29453,13 +29399,13 @@
         <v>54</v>
       </c>
       <c r="D1446">
-        <v>87958.55370122894</v>
+        <v>88111.97406842595</v>
       </c>
       <c r="E1446">
-        <v>87109.67608561</v>
+        <v>87261.37810996802</v>
       </c>
       <c r="F1446">
-        <v>88807.43131684788</v>
+        <v>88962.57002688387</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -29473,13 +29419,13 @@
         <v>54</v>
       </c>
       <c r="D1447">
-        <v>87979.48508331712</v>
+        <v>88214.67708589141</v>
       </c>
       <c r="E1447">
-        <v>86952.9506747351</v>
+        <v>87186.43227478558</v>
       </c>
       <c r="F1447">
-        <v>89006.01949189915</v>
+        <v>89242.92189699724</v>
       </c>
     </row>
     <row r="1448" spans="1:6">
@@ -29493,13 +29439,13 @@
         <v>54</v>
       </c>
       <c r="D1448">
-        <v>88044.09294427562</v>
+        <v>88319.70486504141</v>
       </c>
       <c r="E1448">
-        <v>86840.37338037021</v>
+        <v>87114.3011300466</v>
       </c>
       <c r="F1448">
-        <v>89247.81250818103</v>
+        <v>89525.10860003621</v>
       </c>
     </row>
     <row r="1449" spans="1:6">
@@ -29513,13 +29459,13 @@
         <v>54</v>
       </c>
       <c r="D1449">
-        <v>88076.87160580668</v>
+        <v>88392.62040346842</v>
       </c>
       <c r="E1449">
-        <v>86696.91736791289</v>
+        <v>87011.01251257448</v>
       </c>
       <c r="F1449">
-        <v>89456.82584370047</v>
+        <v>89774.22829436236</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -29533,13 +29479,13 @@
         <v>54</v>
       </c>
       <c r="D1450">
-        <v>88164.71715130827</v>
+        <v>88438.85889889984</v>
       </c>
       <c r="E1450">
-        <v>86609.96247776231</v>
+        <v>86882.47684256539</v>
       </c>
       <c r="F1450">
-        <v>89719.47182485423</v>
+        <v>89995.24095523429</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -29553,13 +29499,13 @@
         <v>54</v>
       </c>
       <c r="D1451">
-        <v>88227.06546632417</v>
+        <v>88507.81673757661</v>
       </c>
       <c r="E1451">
-        <v>86499.36492277599</v>
+        <v>86778.50563499605</v>
       </c>
       <c r="F1451">
-        <v>89954.76600987236</v>
+        <v>90237.12784015716</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -29973,13 +29919,13 @@
         <v>55</v>
       </c>
       <c r="D1472">
-        <v>160190.9587306599</v>
+        <v>160321.4052784061</v>
       </c>
       <c r="E1472">
-        <v>159897.1004314068</v>
+        <v>160117.9960374235</v>
       </c>
       <c r="F1472">
-        <v>160484.817029913</v>
+        <v>160524.8145193888</v>
       </c>
     </row>
     <row r="1473" spans="1:6">
@@ -29993,13 +29939,13 @@
         <v>55</v>
       </c>
       <c r="D1473">
-        <v>160396.4565784879</v>
+        <v>160518.1950254343</v>
       </c>
       <c r="E1473">
-        <v>159947.2738492493</v>
+        <v>160157.7875792674</v>
       </c>
       <c r="F1473">
-        <v>160845.6393077265</v>
+        <v>160878.6024716011</v>
       </c>
     </row>
     <row r="1474" spans="1:6">
@@ -30013,13 +29959,13 @@
         <v>55</v>
       </c>
       <c r="D1474">
-        <v>160744.8822772299</v>
+        <v>160789.5850388173</v>
       </c>
       <c r="E1474">
-        <v>160162.608996676</v>
+        <v>160262.2676785937</v>
       </c>
       <c r="F1474">
-        <v>161327.1555577838</v>
+        <v>161316.902399041</v>
       </c>
     </row>
     <row r="1475" spans="1:6">
@@ -30033,13 +29979,13 @@
         <v>55</v>
       </c>
       <c r="D1475">
-        <v>161057.911445234</v>
+        <v>160999.7976785412</v>
       </c>
       <c r="E1475">
-        <v>160355.3042838033</v>
+        <v>160319.9921248743</v>
       </c>
       <c r="F1475">
-        <v>161760.5186066648</v>
+        <v>161679.603232208</v>
       </c>
     </row>
     <row r="1476" spans="1:6">
@@ -30053,13 +29999,13 @@
         <v>55</v>
       </c>
       <c r="D1476">
-        <v>161336.3470298111</v>
+        <v>161189.759972808</v>
       </c>
       <c r="E1476">
-        <v>160489.5374591882</v>
+        <v>160336.3813945609</v>
       </c>
       <c r="F1476">
-        <v>162183.1566004341</v>
+        <v>162043.138551055</v>
       </c>
     </row>
     <row r="1477" spans="1:6">
@@ -30073,13 +30019,13 @@
         <v>55</v>
       </c>
       <c r="D1477">
-        <v>161603.3713483259</v>
+        <v>161396.9202393994</v>
       </c>
       <c r="E1477">
-        <v>160592.6939436174</v>
+        <v>160376.3551050087</v>
       </c>
       <c r="F1477">
-        <v>162614.0487530345</v>
+        <v>162417.4853737901</v>
       </c>
     </row>
     <row r="1478" spans="1:6">
@@ -30093,13 +30039,13 @@
         <v>55</v>
       </c>
       <c r="D1478">
-        <v>161833.8781014038</v>
+        <v>161588.9529521993</v>
       </c>
       <c r="E1478">
-        <v>160630.8324767026</v>
+        <v>160403.0268461814</v>
       </c>
       <c r="F1478">
-        <v>163036.923726105</v>
+        <v>162774.8790582172</v>
       </c>
     </row>
     <row r="1479" spans="1:6">
@@ -30113,13 +30059,13 @@
         <v>55</v>
       </c>
       <c r="D1479">
-        <v>161981.2674093942</v>
+        <v>161738.3758548624</v>
       </c>
       <c r="E1479">
-        <v>160575.4151502319</v>
+        <v>160381.4782007111</v>
       </c>
       <c r="F1479">
-        <v>163387.1196685565</v>
+        <v>163095.2735090137</v>
       </c>
     </row>
     <row r="1480" spans="1:6">
@@ -30133,13 +30079,13 @@
         <v>55</v>
       </c>
       <c r="D1480">
-        <v>162070.6444735675</v>
+        <v>161861.7941988518</v>
       </c>
       <c r="E1480">
-        <v>160453.6427143718</v>
+        <v>160340.9914455492</v>
       </c>
       <c r="F1480">
-        <v>163687.6462327633</v>
+        <v>163382.5969521544</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/unrolled_population_sarimax_timeseries.xlsx
+++ b/data/final_data/unrolled_population_sarimax_timeseries.xlsx
@@ -2133,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="D80">
-        <v>109003.0908916607</v>
+        <v>108924.1938282106</v>
       </c>
       <c r="E80">
-        <v>108596.8706273342</v>
+        <v>108551.1286289667</v>
       </c>
       <c r="F80">
-        <v>109409.3111559872</v>
+        <v>109297.2590274544</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2153,13 +2153,13 @@
         <v>7</v>
       </c>
       <c r="D81">
-        <v>108612.6923283402</v>
+        <v>108455.1032841268</v>
       </c>
       <c r="E81">
-        <v>108025.7431840015</v>
+        <v>107917.2978352018</v>
       </c>
       <c r="F81">
-        <v>109199.6414726789</v>
+        <v>108992.9087330518</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2173,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="D82">
-        <v>108307.9655982245</v>
+        <v>108057.8628420032</v>
       </c>
       <c r="E82">
-        <v>107566.8661781432</v>
+        <v>107379.4132234203</v>
       </c>
       <c r="F82">
-        <v>109049.0650183057</v>
+        <v>108736.3124605862</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2193,13 +2193,13 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>108104.6573048416</v>
+        <v>107746.1368322747</v>
       </c>
       <c r="E83">
-        <v>107216.145582534</v>
+        <v>106932.3743729059</v>
       </c>
       <c r="F83">
-        <v>108993.1690271492</v>
+        <v>108559.8992916435</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2213,13 +2213,13 @@
         <v>7</v>
       </c>
       <c r="D84">
-        <v>108004.4079960344</v>
+        <v>107528.7777311399</v>
       </c>
       <c r="E84">
-        <v>106967.786633934</v>
+        <v>106577.8221029753</v>
       </c>
       <c r="F84">
-        <v>109041.0293581347</v>
+        <v>108479.7333593045</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2233,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>108008.7689504131</v>
+        <v>107409.7277851471</v>
       </c>
       <c r="E85">
-        <v>106820.2855157674</v>
+        <v>106316.6062844191</v>
       </c>
       <c r="F85">
-        <v>109197.2523850588</v>
+        <v>108502.8492858751</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>108111.6868101614</v>
+        <v>107388.1528744078</v>
       </c>
       <c r="E86">
-        <v>106766.7796262088</v>
+        <v>106146.9512775815</v>
       </c>
       <c r="F86">
-        <v>109456.593994114</v>
+        <v>108629.3544712341</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>108303.7658182123</v>
+        <v>107458.7875450395</v>
       </c>
       <c r="E87">
-        <v>106798.4235284141</v>
+        <v>106063.9892525144</v>
       </c>
       <c r="F87">
-        <v>109809.1081080104</v>
+        <v>108853.5858375647</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>108571.382218804</v>
+        <v>107612.4617781148</v>
       </c>
       <c r="E88">
-        <v>106903.0008405737</v>
+        <v>106059.8266129212</v>
       </c>
       <c r="F88">
-        <v>110239.7635970342</v>
+        <v>109165.0969433084</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="D225">
-        <v>81550.30094658192</v>
+        <v>79374.17407319127</v>
       </c>
       <c r="E225">
-        <v>76104.68311921686</v>
+        <v>78582.63041259552</v>
       </c>
       <c r="F225">
-        <v>86995.91877394698</v>
+        <v>80165.71773378702</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5053,13 +5053,13 @@
         <v>12</v>
       </c>
       <c r="D226">
-        <v>80215.56159400771</v>
+        <v>79372.42122698102</v>
       </c>
       <c r="E226">
-        <v>72139.7112793001</v>
+        <v>77636.55168354798</v>
       </c>
       <c r="F226">
-        <v>88291.41190871532</v>
+        <v>81108.29077041407</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5073,13 +5073,13 @@
         <v>12</v>
       </c>
       <c r="D227">
-        <v>76485.45122102035</v>
+        <v>79370.66857962029</v>
       </c>
       <c r="E227">
-        <v>67514.83425406531</v>
+        <v>77046.94187586059</v>
       </c>
       <c r="F227">
-        <v>85456.0681879754</v>
+        <v>81694.39528338</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5093,13 +5093,13 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>78908.26831669953</v>
+        <v>79368.91613109913</v>
       </c>
       <c r="E228">
-        <v>69751.60199726926</v>
+        <v>76578.58827287145</v>
       </c>
       <c r="F228">
-        <v>88064.93463612979</v>
+        <v>82159.24398932682</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5113,13 +5113,13 @@
         <v>12</v>
       </c>
       <c r="D229">
-        <v>79719.67589197838</v>
+        <v>79367.16388140758</v>
       </c>
       <c r="E229">
-        <v>70521.87325270749</v>
+        <v>76177.82000160216</v>
       </c>
       <c r="F229">
-        <v>88917.47853124926</v>
+        <v>82556.50776121301</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5133,13 +5133,13 @@
         <v>12</v>
       </c>
       <c r="D230">
-        <v>76452.48593692452</v>
+        <v>79365.4118305357</v>
       </c>
       <c r="E230">
-        <v>67259.04383898094</v>
+        <v>75821.73290892848</v>
       </c>
       <c r="F230">
-        <v>85645.92803486811</v>
+        <v>82909.09075214292</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5153,13 +5153,13 @@
         <v>12</v>
       </c>
       <c r="D231">
-        <v>76910.73581803049</v>
+        <v>79363.65997847352</v>
       </c>
       <c r="E231">
-        <v>67694.97790574636</v>
+        <v>75498.02066165967</v>
       </c>
       <c r="F231">
-        <v>86126.49373031461</v>
+        <v>83229.29929528736</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5173,13 +5173,13 @@
         <v>12</v>
       </c>
       <c r="D232">
-        <v>76667.02359688657</v>
+        <v>79361.90832521109</v>
       </c>
       <c r="E232">
-        <v>67431.59266746734</v>
+        <v>75199.16457951481</v>
       </c>
       <c r="F232">
-        <v>85902.45452630581</v>
+        <v>83524.65207090737</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5193,13 +5193,13 @@
         <v>12</v>
       </c>
       <c r="D233">
-        <v>77621.04692276381</v>
+        <v>79360.15687073844</v>
       </c>
       <c r="E233">
-        <v>68385.34045736633</v>
+        <v>74920.17209404489</v>
       </c>
       <c r="F233">
-        <v>86856.75338816129</v>
+        <v>83800.141647432</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6193,13 +6193,13 @@
         <v>14</v>
       </c>
       <c r="D283">
-        <v>131450.5693963149</v>
+        <v>131207.4017240762</v>
       </c>
       <c r="E283">
-        <v>131056.4160019974</v>
+        <v>130602.6869206938</v>
       </c>
       <c r="F283">
-        <v>131844.7227906323</v>
+        <v>131812.1165274587</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6213,13 +6213,13 @@
         <v>14</v>
       </c>
       <c r="D284">
-        <v>131420.8337958496</v>
+        <v>130873.9709449479</v>
       </c>
       <c r="E284">
-        <v>130812.6513227946</v>
+        <v>130017.0415106267</v>
       </c>
       <c r="F284">
-        <v>132029.0162689047</v>
+        <v>131730.9003792691</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6233,13 +6233,13 @@
         <v>14</v>
       </c>
       <c r="D285">
-        <v>131561.5588421191</v>
+        <v>130592.9743116166</v>
       </c>
       <c r="E285">
-        <v>130760.3648926441</v>
+        <v>129530.6972959558</v>
       </c>
       <c r="F285">
-        <v>132362.752791594</v>
+        <v>131655.2513272774</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6253,13 +6253,13 @@
         <v>14</v>
       </c>
       <c r="D286">
-        <v>131560.468553865</v>
+        <v>130226.6846836311</v>
       </c>
       <c r="E286">
-        <v>130596.0226873894</v>
+        <v>128978.1640231162</v>
       </c>
       <c r="F286">
-        <v>132524.9144203406</v>
+        <v>131475.2053441459</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6273,13 +6273,13 @@
         <v>14</v>
       </c>
       <c r="D287">
-        <v>131564.4991441671</v>
+        <v>129939.1287813312</v>
       </c>
       <c r="E287">
-        <v>130423.2439107722</v>
+        <v>128508.9976301169</v>
       </c>
       <c r="F287">
-        <v>132705.754377562</v>
+        <v>131369.2599325455</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6293,13 +6293,13 @@
         <v>14</v>
       </c>
       <c r="D288">
-        <v>131587.8720395806</v>
+        <v>129589.4635560909</v>
       </c>
       <c r="E288">
-        <v>130263.4745419824</v>
+        <v>127978.4599012046</v>
       </c>
       <c r="F288">
-        <v>132912.2695371788</v>
+        <v>131200.4672109771</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6313,13 +6313,13 @@
         <v>14</v>
       </c>
       <c r="D289">
-        <v>131579.2598312407</v>
+        <v>129337.6762649084</v>
       </c>
       <c r="E289">
-        <v>130068.0713385701</v>
+        <v>127541.6265001084</v>
       </c>
       <c r="F289">
-        <v>133090.4483239115</v>
+        <v>131133.7260297084</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6333,13 +6333,13 @@
         <v>14</v>
       </c>
       <c r="D290">
-        <v>131599.867602881</v>
+        <v>129039.3596481078</v>
       </c>
       <c r="E290">
-        <v>129904.9982112972</v>
+        <v>127054.728339356</v>
       </c>
       <c r="F290">
-        <v>133294.7369944647</v>
+        <v>131023.9909568596</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6353,13 +6353,13 @@
         <v>14</v>
       </c>
       <c r="D291">
-        <v>131585.7900464652</v>
+        <v>128850.3335394837</v>
       </c>
       <c r="E291">
-        <v>129709.2649384991</v>
+        <v>126671.7689164727</v>
       </c>
       <c r="F291">
-        <v>133462.3151544314</v>
+        <v>131028.8981624947</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -8513,13 +8513,13 @@
         <v>18</v>
       </c>
       <c r="D399">
-        <v>45205.39118186608</v>
+        <v>45008.06974993138</v>
       </c>
       <c r="E399">
-        <v>44951.94723679969</v>
+        <v>44842.00615922043</v>
       </c>
       <c r="F399">
-        <v>45458.83512693246</v>
+        <v>45174.13334064232</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8533,13 @@
         <v>18</v>
       </c>
       <c r="D400">
-        <v>44960.68298239422</v>
+        <v>44550.41070360797</v>
       </c>
       <c r="E400">
-        <v>44568.10363935198</v>
+        <v>44182.71385234928</v>
       </c>
       <c r="F400">
-        <v>45353.26232543646</v>
+        <v>44918.10755486667</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8553,13 @@
         <v>18</v>
       </c>
       <c r="D401">
-        <v>44816.37082302038</v>
+        <v>44150.04648009359</v>
       </c>
       <c r="E401">
-        <v>44310.34635546194</v>
+        <v>43537.92383197785</v>
       </c>
       <c r="F401">
-        <v>45322.39529057882</v>
+        <v>44762.16912820933</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8573,13 @@
         <v>18</v>
       </c>
       <c r="D402">
-        <v>44791.5345510799</v>
+        <v>43812.90583372093</v>
       </c>
       <c r="E402">
-        <v>44183.06063059984</v>
+        <v>42920.26701303427</v>
       </c>
       <c r="F402">
-        <v>45400.00847155997</v>
+        <v>44705.54465440758</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8593,13 @@
         <v>18</v>
       </c>
       <c r="D403">
-        <v>44824.36693847394</v>
+        <v>43544.81179538936</v>
       </c>
       <c r="E403">
-        <v>44122.29573519831</v>
+        <v>42340.26795195933</v>
       </c>
       <c r="F403">
-        <v>45526.43814174957</v>
+        <v>44749.35563881939</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8613,13 @@
         <v>18</v>
       </c>
       <c r="D404">
-        <v>44990.33063762775</v>
+        <v>43351.47300018818</v>
       </c>
       <c r="E404">
-        <v>44199.91281167343</v>
+        <v>41807.19175364993</v>
       </c>
       <c r="F404">
-        <v>45780.74846358207</v>
+        <v>44895.75424672644</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8633,13 +8633,13 @@
         <v>18</v>
       </c>
       <c r="D405">
-        <v>45219.91300810655</v>
+        <v>43238.47516005545</v>
       </c>
       <c r="E405">
-        <v>44347.28245781528</v>
+        <v>41329.48341138097</v>
       </c>
       <c r="F405">
-        <v>46092.54355839783</v>
+        <v>45147.46690872993</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8653,13 +8653,13 @@
         <v>18</v>
       </c>
       <c r="D406">
-        <v>45535.35762095381</v>
+        <v>43211.27273813983</v>
       </c>
       <c r="E406">
-        <v>44584.9904940701</v>
+        <v>40915.00154412129</v>
       </c>
       <c r="F406">
-        <v>46485.72474783751</v>
+        <v>45507.54393215837</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8673,13 +8673,13 @@
         <v>18</v>
       </c>
       <c r="D407">
-        <v>45927.72561086859</v>
+        <v>43275.18083630699</v>
       </c>
       <c r="E407">
-        <v>44905.42376547665</v>
+        <v>40571.15165801808</v>
       </c>
       <c r="F407">
-        <v>46950.02745626053</v>
+        <v>45979.21001459591</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -12573,13 +12573,13 @@
         <v>25</v>
       </c>
       <c r="D602">
-        <v>59955.81317779716</v>
+        <v>60419.3989479357</v>
       </c>
       <c r="E602">
-        <v>59270.4646599814</v>
+        <v>60201.78360022166</v>
       </c>
       <c r="F602">
-        <v>60641.16169561293</v>
+        <v>60637.01429564974</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -12593,13 +12593,13 @@
         <v>25</v>
       </c>
       <c r="D603">
-        <v>58629.48053141354</v>
+        <v>59611.4183036191</v>
       </c>
       <c r="E603">
-        <v>57709.44477300939</v>
+        <v>59151.14882111102</v>
       </c>
       <c r="F603">
-        <v>59549.5162898177</v>
+        <v>60071.68778612717</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -12613,13 +12613,13 @@
         <v>25</v>
       </c>
       <c r="D604">
-        <v>57240.50475958557</v>
+        <v>58818.65799690287</v>
       </c>
       <c r="E604">
-        <v>56158.59098290192</v>
+        <v>58087.64415851692</v>
       </c>
       <c r="F604">
-        <v>58322.41853626922</v>
+        <v>59549.67183528881</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -12633,13 +12633,13 @@
         <v>25</v>
       </c>
       <c r="D605">
-        <v>55796.28199435444</v>
+        <v>58039.04487558364</v>
       </c>
       <c r="E605">
-        <v>54585.73630450867</v>
+        <v>57021.28227265935</v>
       </c>
       <c r="F605">
-        <v>57006.8276842002</v>
+        <v>59056.80747850793</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -12653,13 +12653,13 @@
         <v>25</v>
       </c>
       <c r="D606">
-        <v>54285.57147743073</v>
+        <v>57270.78817531067</v>
       </c>
       <c r="E606">
-        <v>52965.6326590567</v>
+        <v>55957.97242250744</v>
       </c>
       <c r="F606">
-        <v>55605.51029580476</v>
+        <v>58583.6039281139</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -12673,13 +12673,13 @@
         <v>25</v>
       </c>
       <c r="D607">
-        <v>52716.29077708302</v>
+        <v>56512.34105501973</v>
       </c>
       <c r="E607">
-        <v>51298.81480995639</v>
+        <v>54901.27275852091</v>
       </c>
       <c r="F607">
-        <v>54133.76674420965</v>
+        <v>58123.40935151855</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -12693,13 +12693,13 @@
         <v>25</v>
       </c>
       <c r="D608">
-        <v>51074.46292113258</v>
+        <v>55762.36737169597</v>
       </c>
       <c r="E608">
-        <v>49567.99494255603</v>
+        <v>53853.31655793301</v>
       </c>
       <c r="F608">
-        <v>52580.93089970913</v>
+        <v>57671.41818545894</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -12713,13 +12713,13 @@
         <v>25</v>
       </c>
       <c r="D609">
-        <v>49376.30850637058</v>
+        <v>55019.71298080705</v>
       </c>
       <c r="E609">
-        <v>47786.83376969575</v>
+        <v>52815.33040473333</v>
       </c>
       <c r="F609">
-        <v>50965.78324304541</v>
+        <v>57224.09555688076</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -12733,13 +12733,13 @@
         <v>25</v>
       </c>
       <c r="D610">
-        <v>47600.92454192093</v>
+        <v>54283.38094595684</v>
       </c>
       <c r="E610">
-        <v>45933.41158119664</v>
+        <v>51787.9461260867</v>
       </c>
       <c r="F610">
-        <v>49268.43750264523</v>
+        <v>56778.81576582698</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>31</v>
       </c>
       <c r="D776">
-        <v>38340.51936677804</v>
+        <v>38284.21509777889</v>
       </c>
       <c r="E776">
-        <v>38227.05867598148</v>
+        <v>38049.98831135514</v>
       </c>
       <c r="F776">
-        <v>38453.9800575746</v>
+        <v>38518.44188420264</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16073,13 +16073,13 @@
         <v>31</v>
       </c>
       <c r="D777">
-        <v>38269.3077326411</v>
+        <v>38075.66248458168</v>
       </c>
       <c r="E777">
-        <v>38025.98754052052</v>
+        <v>37361.26963542955</v>
       </c>
       <c r="F777">
-        <v>38512.62792476168</v>
+        <v>38790.05533373382</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -16093,13 +16093,13 @@
         <v>31</v>
       </c>
       <c r="D778">
-        <v>38219.28946104164</v>
+        <v>37935.51167734501</v>
       </c>
       <c r="E778">
-        <v>37867.3449775482</v>
+        <v>36432.70179425956</v>
       </c>
       <c r="F778">
-        <v>38571.23394453508</v>
+        <v>39438.32156043047</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -16113,13 +16113,13 @@
         <v>31</v>
       </c>
       <c r="D779">
-        <v>38193.47372724056</v>
+        <v>37867.89116196953</v>
       </c>
       <c r="E779">
-        <v>37716.6888012599</v>
+        <v>35397.33119298487</v>
       </c>
       <c r="F779">
-        <v>38670.25865322122</v>
+        <v>40338.45113095418</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -16133,13 +16133,13 @@
         <v>31</v>
       </c>
       <c r="D780">
-        <v>38182.09298657353</v>
+        <v>37876.77297216733</v>
       </c>
       <c r="E780">
-        <v>37589.44870985606</v>
+        <v>34297.15463675155</v>
       </c>
       <c r="F780">
-        <v>38774.737263291</v>
+        <v>41456.39130758312</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -16153,13 +16153,13 @@
         <v>31</v>
       </c>
       <c r="D781">
-        <v>38185.44583541712</v>
+        <v>37965.96780510528</v>
       </c>
       <c r="E781">
-        <v>37484.85613287301</v>
+        <v>33158.16219093026</v>
       </c>
       <c r="F781">
-        <v>38886.03553796124</v>
+        <v>42773.7734192803</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -16173,13 +16173,13 @@
         <v>31</v>
       </c>
       <c r="D782">
-        <v>38198.23845300252</v>
+        <v>38139.12044366467</v>
       </c>
       <c r="E782">
-        <v>37397.1812310243</v>
+        <v>31999.9553905728</v>
       </c>
       <c r="F782">
-        <v>38999.29567498074</v>
+        <v>44278.28549675654</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -16193,13 +16193,13 @@
         <v>31</v>
       </c>
       <c r="D783">
-        <v>38215.96002066385</v>
+        <v>38399.70548973038</v>
       </c>
       <c r="E783">
-        <v>37325.69188219353</v>
+        <v>30838.61163853578</v>
       </c>
       <c r="F783">
-        <v>39106.22815913417</v>
+        <v>45960.79934092499</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -16213,13 +16213,13 @@
         <v>31</v>
       </c>
       <c r="D784">
-        <v>38238.65478751079</v>
+        <v>38751.02341237965</v>
       </c>
       <c r="E784">
-        <v>37268.63775278709</v>
+        <v>29687.94175639364</v>
       </c>
       <c r="F784">
-        <v>39208.6718222345</v>
+        <v>47814.10506836566</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>32</v>
       </c>
       <c r="D805">
-        <v>23689.05950196031</v>
+        <v>23657.56247745925</v>
       </c>
       <c r="E805">
-        <v>23612.69477594969</v>
+        <v>23526.37708374499</v>
       </c>
       <c r="F805">
-        <v>23765.42422797092</v>
+        <v>23788.74787117352</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>32</v>
       </c>
       <c r="D806">
-        <v>23618.31535883241</v>
+        <v>23578.39881963798</v>
       </c>
       <c r="E806">
-        <v>23477.81633138952</v>
+        <v>23315.78901091567</v>
       </c>
       <c r="F806">
-        <v>23758.81438627529</v>
+        <v>23841.0086283603</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>32</v>
       </c>
       <c r="D807">
-        <v>23603.88727601308</v>
+        <v>23495.76544896547</v>
       </c>
       <c r="E807">
-        <v>23369.00803524492</v>
+        <v>23098.41350616105</v>
       </c>
       <c r="F807">
-        <v>23838.76651678123</v>
+        <v>23893.1173917699</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -16693,13 +16693,13 @@
         <v>32</v>
       </c>
       <c r="D808">
-        <v>23575.58801014354</v>
+        <v>23410.58477345392</v>
       </c>
       <c r="E808">
-        <v>23286.64612853679</v>
+        <v>22880.99346301252</v>
       </c>
       <c r="F808">
-        <v>23864.5298917503</v>
+        <v>23940.17608389532</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -16713,13 +16713,13 @@
         <v>32</v>
       </c>
       <c r="D809">
-        <v>23575.83445253672</v>
+        <v>23323.53398297284</v>
       </c>
       <c r="E809">
-        <v>23238.97058394713</v>
+        <v>22666.88873264703</v>
       </c>
       <c r="F809">
-        <v>23912.69832112632</v>
+        <v>23980.17923329866</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -16733,13 +16733,13 @@
         <v>32</v>
       </c>
       <c r="D810">
-        <v>23579.28865461303</v>
+        <v>23235.11023942169</v>
       </c>
       <c r="E810">
-        <v>23218.87300401754</v>
+        <v>22457.67508503938</v>
       </c>
       <c r="F810">
-        <v>23939.70430520852</v>
+        <v>24012.54539380399</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -16753,13 +16753,13 @@
         <v>32</v>
       </c>
       <c r="D811">
-        <v>23587.37678057376</v>
+        <v>23145.67853637959</v>
       </c>
       <c r="E811">
-        <v>23216.55674082804</v>
+        <v>22253.96802968324</v>
       </c>
       <c r="F811">
-        <v>23958.19682031947</v>
+        <v>24037.38904307594</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -16773,13 +16773,13 @@
         <v>32</v>
       </c>
       <c r="D812">
-        <v>23598.63134901106</v>
+        <v>23055.50683547633</v>
       </c>
       <c r="E812">
-        <v>23226.40327572715</v>
+        <v>22055.86229677178</v>
       </c>
       <c r="F812">
-        <v>23970.85942229497</v>
+        <v>24055.15137418088</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -16793,13 +16793,13 @@
         <v>32</v>
       </c>
       <c r="D813">
-        <v>23603.78249806037</v>
+        <v>22964.79186191233</v>
       </c>
       <c r="E813">
-        <v>23233.50964437404</v>
+        <v>21863.17600422707</v>
       </c>
       <c r="F813">
-        <v>23974.0553517467</v>
+        <v>24066.40771959759</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>33</v>
       </c>
       <c r="D834">
-        <v>198663.4410585809</v>
+        <v>195503.2608125608</v>
       </c>
       <c r="E834">
-        <v>197859.4759313629</v>
+        <v>195022.3079668085</v>
       </c>
       <c r="F834">
-        <v>199467.4061857988</v>
+        <v>195984.213658313</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>33</v>
       </c>
       <c r="D835">
-        <v>197469.2728807715</v>
+        <v>193934.4131826481</v>
       </c>
       <c r="E835">
-        <v>196278.0477994054</v>
+        <v>192704.639056272</v>
       </c>
       <c r="F835">
-        <v>198660.4979621376</v>
+        <v>195164.1873090243</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>33</v>
       </c>
       <c r="D836">
-        <v>197250.5413350906</v>
+        <v>192371.4077978114</v>
       </c>
       <c r="E836">
-        <v>195762.8934394183</v>
+        <v>190267.9988744084</v>
       </c>
       <c r="F836">
-        <v>198738.1892307629</v>
+        <v>194474.8167212144</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>33</v>
       </c>
       <c r="D837">
-        <v>197435.8693930559</v>
+        <v>190973.7157078372</v>
       </c>
       <c r="E837">
-        <v>195708.7166480774</v>
+        <v>187849.571756518</v>
       </c>
       <c r="F837">
-        <v>199163.0221380344</v>
+        <v>194097.8596591564</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>33</v>
       </c>
       <c r="D838">
-        <v>196905.5909090064</v>
+        <v>189607.1747063532</v>
       </c>
       <c r="E838">
-        <v>194967.931180778</v>
+        <v>185342.1803304992</v>
       </c>
       <c r="F838">
-        <v>198843.2506372348</v>
+        <v>193872.1690822072</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17313,13 +17313,13 @@
         <v>33</v>
       </c>
       <c r="D839">
-        <v>196940.6875430735</v>
+        <v>188421.1355502845</v>
       </c>
       <c r="E839">
-        <v>194807.9234460498</v>
+        <v>182908.0480902367</v>
       </c>
       <c r="F839">
-        <v>199073.4516400972</v>
+        <v>193934.2230103324</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -17333,13 +17333,13 @@
         <v>33</v>
       </c>
       <c r="D840">
-        <v>196270.2128084915</v>
+        <v>187286.0872167513</v>
       </c>
       <c r="E840">
-        <v>193966.7432208754</v>
+        <v>180422.8401056982</v>
       </c>
       <c r="F840">
-        <v>198573.6823961077</v>
+        <v>194149.3343278043</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -17353,13 +17353,13 @@
         <v>33</v>
       </c>
       <c r="D841">
-        <v>196575.6782737925</v>
+        <v>186348.959522178</v>
       </c>
       <c r="E841">
-        <v>194106.1141451699</v>
+        <v>178047.0960896902</v>
       </c>
       <c r="F841">
-        <v>199045.2424024152</v>
+        <v>194650.8229546658</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -17373,13 +17373,13 @@
         <v>33</v>
       </c>
       <c r="D842">
-        <v>196268.5356548788</v>
+        <v>185481.1970915023</v>
       </c>
       <c r="E842">
-        <v>193647.0834394918</v>
+        <v>175652.6875917157</v>
       </c>
       <c r="F842">
-        <v>198889.9878702659</v>
+        <v>195309.7065912889</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -18953,13 +18953,13 @@
         <v>36</v>
       </c>
       <c r="D921">
-        <v>123206.7365399476</v>
+        <v>123017.3483912814</v>
       </c>
       <c r="E921">
-        <v>122549.2864512351</v>
+        <v>122409.5397949468</v>
       </c>
       <c r="F921">
-        <v>123864.1866286602</v>
+        <v>123625.1569876161</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -18973,13 +18973,13 @@
         <v>36</v>
       </c>
       <c r="D922">
-        <v>123507.7268857811</v>
+        <v>123353.5134989002</v>
       </c>
       <c r="E922">
-        <v>122599.4189073903</v>
+        <v>122540.9676989536</v>
       </c>
       <c r="F922">
-        <v>124416.034864172</v>
+        <v>124166.0592988468</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18993,13 @@
         <v>36</v>
       </c>
       <c r="D923">
-        <v>124074.9669819062</v>
+        <v>123685.3896502425</v>
       </c>
       <c r="E923">
-        <v>122971.3603023676</v>
+        <v>122732.2044982902</v>
       </c>
       <c r="F923">
-        <v>125178.5736614449</v>
+        <v>124638.5748021948</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +19013,13 @@
         <v>36</v>
       </c>
       <c r="D924">
-        <v>124625.850233835</v>
+        <v>124014.7049746976</v>
       </c>
       <c r="E924">
-        <v>123356.7046630745</v>
+        <v>122950.2172997813</v>
       </c>
       <c r="F924">
-        <v>125894.9958045956</v>
+        <v>125079.192649614</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +19033,13 @@
         <v>36</v>
       </c>
       <c r="D925">
-        <v>125172.9044906711</v>
+        <v>124342.4912944432</v>
       </c>
       <c r="E925">
-        <v>123757.3993557113</v>
+        <v>123183.1425226551</v>
       </c>
       <c r="F925">
-        <v>126588.4096256309</v>
+        <v>125501.8400662312</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +19053,13 @@
         <v>36</v>
       </c>
       <c r="D926">
-        <v>125828.8081944779</v>
+        <v>124669.3646843012</v>
       </c>
       <c r="E926">
-        <v>124280.7650503916</v>
+        <v>123425.5326664018</v>
       </c>
       <c r="F926">
-        <v>127376.8513385643</v>
+        <v>125913.1967022005</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +19073,13 @@
         <v>36</v>
       </c>
       <c r="D927">
-        <v>126358.2008014569</v>
+        <v>124995.6929869045</v>
       </c>
       <c r="E927">
-        <v>124688.0625224291</v>
+        <v>123674.5245875201</v>
       </c>
       <c r="F927">
-        <v>128028.3390804846</v>
+        <v>126316.861386289</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19093,13 @@
         <v>36</v>
       </c>
       <c r="D928">
-        <v>126984.923198215</v>
+        <v>125321.695831749</v>
       </c>
       <c r="E928">
-        <v>125201.0665133539</v>
+        <v>123928.4633210269</v>
       </c>
       <c r="F928">
-        <v>128768.7798830761</v>
+        <v>126714.9283424712</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19113,13 @@
         <v>36</v>
       </c>
       <c r="D929">
-        <v>127599.6358250972</v>
+        <v>125647.5043540298</v>
       </c>
       <c r="E929">
-        <v>125708.8505503896</v>
+        <v>124186.3162055741</v>
       </c>
       <c r="F929">
-        <v>129490.4210998049</v>
+        <v>127108.6925024854</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -20113,7 +20113,13 @@
         <v>38</v>
       </c>
       <c r="D979">
-        <v>-12976827173636.91</v>
+        <v>18143.62186938808</v>
+      </c>
+      <c r="E979">
+        <v>18003.00450469384</v>
+      </c>
+      <c r="F979">
+        <v>18284.23923408233</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -20127,7 +20133,13 @@
         <v>38</v>
       </c>
       <c r="D980">
-        <v>-14703958041948.01</v>
+        <v>17930.1166918138</v>
+      </c>
+      <c r="E980">
+        <v>17639.75454517747</v>
+      </c>
+      <c r="F980">
+        <v>18220.47883845012</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -20141,7 +20153,13 @@
         <v>38</v>
       </c>
       <c r="D981">
-        <v>-16575860584803.14</v>
+        <v>17719.05310685499</v>
+      </c>
+      <c r="E981">
+        <v>17262.59916142495</v>
+      </c>
+      <c r="F981">
+        <v>18175.50705228503</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -20155,7 +20173,13 @@
         <v>38</v>
       </c>
       <c r="D982">
-        <v>-18595731839156.78</v>
+        <v>17510.09507039606</v>
+      </c>
+      <c r="E982">
+        <v>16878.35904127161</v>
+      </c>
+      <c r="F982">
+        <v>18141.83109952051</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -20169,7 +20193,13 @@
         <v>38</v>
       </c>
       <c r="D983">
-        <v>-20771493536954.41</v>
+        <v>17302.95108589039</v>
+      </c>
+      <c r="E983">
+        <v>16491.30696238717</v>
+      </c>
+      <c r="F983">
+        <v>18114.5952093936</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -20183,7 +20213,13 @@
         <v>38</v>
       </c>
       <c r="D984">
-        <v>-23106339404744.54</v>
+        <v>17097.37010576823</v>
+      </c>
+      <c r="E984">
+        <v>16104.21921635647</v>
+      </c>
+      <c r="F984">
+        <v>18090.52099518</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20197,7 +20233,13 @@
         <v>38</v>
       </c>
       <c r="D985">
-        <v>-25608187819072.49</v>
+        <v>16893.13581991359</v>
+      </c>
+      <c r="E985">
+        <v>15718.93025955591</v>
+      </c>
+      <c r="F985">
+        <v>18067.34138027128</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20211,7 +20253,13 @@
         <v>38</v>
       </c>
       <c r="D986">
-        <v>-28280229105847.33</v>
+        <v>16690.06185447242</v>
+      </c>
+      <c r="E986">
+        <v>15336.65311127385</v>
+      </c>
+      <c r="F986">
+        <v>18043.47059767099</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20225,7 +20273,13 @@
         <v>38</v>
       </c>
       <c r="D987">
-        <v>-31130378195833.35</v>
+        <v>16487.98762852181</v>
+      </c>
+      <c r="E987">
+        <v>14958.17677155402</v>
+      </c>
+      <c r="F987">
+        <v>18017.79848548959</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -23539,13 +23593,13 @@
         <v>44</v>
       </c>
       <c r="D1153">
-        <v>89717.34981199417</v>
+        <v>89791.620374274</v>
       </c>
       <c r="E1153">
-        <v>89354.44287530534</v>
+        <v>89504.5024464921</v>
       </c>
       <c r="F1153">
-        <v>90080.25674868299</v>
+        <v>90078.73830205591</v>
       </c>
     </row>
     <row r="1154" spans="1:6">
@@ -23559,13 +23613,13 @@
         <v>44</v>
       </c>
       <c r="D1154">
-        <v>89440.6070586885</v>
+        <v>89585.50699576914</v>
       </c>
       <c r="E1154">
-        <v>88941.11812461098</v>
+        <v>88963.21122909119</v>
       </c>
       <c r="F1154">
-        <v>89940.09599276603</v>
+        <v>90207.8027624471</v>
       </c>
     </row>
     <row r="1155" spans="1:6">
@@ -23579,13 +23633,13 @@
         <v>44</v>
       </c>
       <c r="D1155">
-        <v>89078.3467131747</v>
+        <v>89383.33292973839</v>
       </c>
       <c r="E1155">
-        <v>88459.18452030468</v>
+        <v>88372.4418901053</v>
       </c>
       <c r="F1155">
-        <v>89697.50890604472</v>
+        <v>90394.22396937148</v>
       </c>
     </row>
     <row r="1156" spans="1:6">
@@ -23599,13 +23653,13 @@
         <v>44</v>
       </c>
       <c r="D1156">
-        <v>88682.04856770672</v>
+        <v>89184.79634571308</v>
       </c>
       <c r="E1156">
-        <v>87953.78979269035</v>
+        <v>87747.06930335029</v>
       </c>
       <c r="F1156">
-        <v>89410.30734272308</v>
+        <v>90622.52338807588</v>
       </c>
     </row>
     <row r="1157" spans="1:6">
@@ -23619,13 +23673,13 @@
         <v>44</v>
       </c>
       <c r="D1157">
-        <v>88216.42735915726</v>
+        <v>88989.61858980996</v>
       </c>
       <c r="E1157">
-        <v>87384.997693274</v>
+        <v>87097.15446590439</v>
       </c>
       <c r="F1157">
-        <v>89047.85702504052</v>
+        <v>90882.08271371554</v>
       </c>
     </row>
     <row r="1158" spans="1:6">
@@ -23639,13 +23693,13 @@
         <v>44</v>
       </c>
       <c r="D1158">
-        <v>87697.94190946558</v>
+        <v>88797.54240506064</v>
       </c>
       <c r="E1158">
-        <v>86767.11146963829</v>
+        <v>86429.90268776176</v>
       </c>
       <c r="F1158">
-        <v>88628.77234929286</v>
+        <v>91165.18212235952</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -23659,13 +23713,13 @@
         <v>44</v>
       </c>
       <c r="D1159">
-        <v>87113.37954491792</v>
+        <v>88608.33028839745</v>
       </c>
       <c r="E1159">
-        <v>86085.6347831758</v>
+        <v>85750.69276479832</v>
       </c>
       <c r="F1159">
-        <v>88141.12430666003</v>
+        <v>91465.96781199658</v>
       </c>
     </row>
     <row r="1160" spans="1:6">
@@ -23679,13 +23733,13 @@
         <v>44</v>
       </c>
       <c r="D1160">
-        <v>86468.16787006511</v>
+        <v>88421.76297380222</v>
       </c>
       <c r="E1160">
-        <v>85345.18280635224</v>
+        <v>85063.65207918124</v>
       </c>
       <c r="F1160">
-        <v>87591.15293377798</v>
+        <v>91779.87386842321</v>
       </c>
     </row>
     <row r="1161" spans="1:6">
@@ -23699,13 +23753,13 @@
         <v>44</v>
       </c>
       <c r="D1161">
-        <v>85756.81714683965</v>
+        <v>88237.63803193001</v>
       </c>
       <c r="E1161">
-        <v>84539.71867782554</v>
+        <v>84372.00665446816</v>
       </c>
       <c r="F1161">
-        <v>86973.91561585375</v>
+        <v>92103.26940939185</v>
       </c>
     </row>
     <row r="1162" spans="1:6">
@@ -25279,13 +25333,13 @@
         <v>47</v>
       </c>
       <c r="D1240">
-        <v>116295.7952309695</v>
+        <v>123460.4316765538</v>
       </c>
       <c r="E1240">
-        <v>112247.9797287321</v>
+        <v>118817.3478542375</v>
       </c>
       <c r="F1240">
-        <v>120343.6107332069</v>
+        <v>128103.5154988701</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25299,13 +25353,13 @@
         <v>47</v>
       </c>
       <c r="D1241">
-        <v>114646.7156125444</v>
+        <v>125660.1876875581</v>
       </c>
       <c r="E1241">
-        <v>108432.2323875657</v>
+        <v>115295.2143859609</v>
       </c>
       <c r="F1241">
-        <v>120861.198837523</v>
+        <v>136025.1609891553</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25319,13 +25373,13 @@
         <v>47</v>
       </c>
       <c r="D1242">
-        <v>114628.3300115675</v>
+        <v>130379.1407294193</v>
       </c>
       <c r="E1242">
-        <v>108342.6330175349</v>
+        <v>113243.5997551486</v>
       </c>
       <c r="F1242">
-        <v>120914.0270056001</v>
+        <v>147514.6817036901</v>
       </c>
     </row>
     <row r="1243" spans="1:6">
@@ -25339,13 +25393,13 @@
         <v>47</v>
       </c>
       <c r="D1243">
-        <v>113332.5880196437</v>
+        <v>137759.7616985144</v>
       </c>
       <c r="E1243">
-        <v>106924.1282686619</v>
+        <v>113195.4082299964</v>
       </c>
       <c r="F1243">
-        <v>119741.0477706255</v>
+        <v>162324.1151670324</v>
       </c>
     </row>
     <row r="1244" spans="1:6">
@@ -25359,13 +25413,13 @@
         <v>47</v>
       </c>
       <c r="D1244">
-        <v>115554.0732806246</v>
+        <v>145138.5559809285</v>
       </c>
       <c r="E1244">
-        <v>109136.779636596</v>
+        <v>114994.8739262306</v>
       </c>
       <c r="F1244">
-        <v>121971.3669246533</v>
+        <v>175282.2380356263</v>
       </c>
     </row>
     <row r="1245" spans="1:6">
@@ -25379,13 +25433,13 @@
         <v>47</v>
       </c>
       <c r="D1245">
-        <v>113251.4668359117</v>
+        <v>152515.5370311718</v>
       </c>
       <c r="E1245">
-        <v>106833.5313974725</v>
+        <v>117739.1684260604</v>
       </c>
       <c r="F1245">
-        <v>119669.4022743509</v>
+        <v>187291.9056362832</v>
       </c>
     </row>
     <row r="1246" spans="1:6">
@@ -25399,13 +25453,13 @@
         <v>47</v>
       </c>
       <c r="D1246">
-        <v>112637.7099375466</v>
+        <v>159890.7182046552</v>
       </c>
       <c r="E1246">
-        <v>106219.7278399202</v>
+        <v>121086.9046292368</v>
       </c>
       <c r="F1246">
-        <v>119055.6920351731</v>
+        <v>198694.5317800737</v>
       </c>
     </row>
     <row r="1247" spans="1:6">
@@ -25419,13 +25473,13 @@
         <v>47</v>
       </c>
       <c r="D1247">
-        <v>110999.7589459981</v>
+        <v>167264.1127584199</v>
       </c>
       <c r="E1247">
-        <v>104581.7734560268</v>
+        <v>124864.5047795243</v>
       </c>
       <c r="F1247">
-        <v>117417.7444359695</v>
+        <v>209663.7207373155</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -25439,13 +25493,13 @@
         <v>47</v>
       </c>
       <c r="D1248">
-        <v>110355.7234367324</v>
+        <v>174635.7338518619</v>
       </c>
       <c r="E1248">
-        <v>103937.7377001205</v>
+        <v>128969.2026297131</v>
       </c>
       <c r="F1248">
-        <v>116773.7091733443</v>
+        <v>220302.2650740107</v>
       </c>
     </row>
     <row r="1249" spans="1:6">
